--- a/files/puntajes.xlsx
+++ b/files/puntajes.xlsx
@@ -377,16 +377,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Isabel Selena Godoy Monardez</t>
+          <t>Marco Antonio Arellano Ortega</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.431501567363739</v>
+        <v>0.3947955369949341</v>
       </c>
     </row>
     <row r="3">
@@ -401,28 +401,28 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.4350292682647705</v>
+        <v>0.4769951105117798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alejandra Pia Perez Espina</t>
+          <t>Isabel Selena Godoy Monardez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.4967644810676575</v>
+        <v>0.4806423187255859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Manuel Mauricio Woldarsky Gonzalez</t>
+          <t>Alejandra Pia Perez Espina</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -431,43 +431,43 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.5294004082679749</v>
+        <v>0.482085645198822</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Natividad Llanquileo Pilquiman</t>
+          <t>Elsa Carolina Labraña Pino</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.531177818775177</v>
+        <v>0.4938337206840515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ericka Portilla Barrios</t>
+          <t>Ivanna Daniela Olivares Miranda</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.5339372158050537</v>
+        <v>0.4964977502822876</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Eric Chinga Ferreira</t>
+          <t>Alexis Caiguan Ancapan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -476,88 +476,88 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.5380141735076904</v>
+        <v>0.5129683017730713</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cristobal Patricio Andrade Leon</t>
+          <t>Wilfredo Manuel Bacian Delgado</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.5381172895431519</v>
+        <v>0.5438664555549622</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Camila Ignacia Zarate Zarate</t>
+          <t>Natividad Llanquileo Pilquiman</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.5412143468856812</v>
+        <v>0.5570748448371887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alexis Caiguan Ancapan</t>
+          <t>Cristobal Patricio Andrade Leon</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.5458512902259827</v>
+        <v>0.5599907040596008</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Constanza Andrea San Juan Standen</t>
+          <t>Manuel Mauricio Woldarsky Gonzalez</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.5495798587799072</v>
+        <v>0.5612397193908691</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Marco Antonio Arellano Ortega</t>
+          <t>Ericka Portilla Barrios</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.5500876903533936</v>
+        <v>0.5751180648803711</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ivanna Daniela Olivares Miranda</t>
+          <t>Camila Ignacia Zarate Zarate</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -566,52 +566,52 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.5503037571907043</v>
+        <v>0.5764439702033997</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Wilfredo Manuel Bacian Delgado</t>
+          <t>Rodrigo Ernesto Rojas Vade</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.5542954802513123</v>
+        <v>0.5917692184448242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Victorino Antilef Ñanco</t>
+          <t>Constanza Andrea San Juan Standen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.5576610565185547</v>
+        <v>0.6185722351074219</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Giovanna Jazmin Grandon Caro</t>
+          <t>Eric Chinga Ferreira</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.5596384406089783</v>
+        <v>0.6228002905845642</v>
       </c>
     </row>
     <row r="18">
@@ -626,73 +626,73 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.5600607395172119</v>
+        <v>0.637030303478241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Paola Alejandra Grandon Gonzalez</t>
+          <t>Dayyana Gonzalez Araya</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.5659013986587524</v>
+        <v>0.6606855988502502</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Elsa Carolina Labraña Pino</t>
+          <t>Francisco Javier Caamaño Rojas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.6157827377319336</v>
+        <v>0.6724753975868225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dayyana Gonzalez Araya</t>
+          <t>Francisca Linconao Huircapan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.659041702747345</v>
+        <v>0.6740173697471619</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cesar Uribe Araya</t>
+          <t>Victorino Antilef Ñanco</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.6701165437698364</v>
+        <v>0.6795138120651245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Francisco Javier Caamaño Rojas</t>
+          <t>Cesar Uribe Araya</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -701,52 +701,52 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.688726007938385</v>
+        <v>0.6857037544250488</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Francisca Linconao Huircapan</t>
+          <t>Paola Alejandra Grandon Gonzalez</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.6894996762275696</v>
+        <v>0.6932243704795837</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Rodrigo Ernesto Rojas Vade</t>
+          <t>Margarita Vargas Lopez</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.7006886601448059</v>
+        <v>0.7023152709007263</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fernando Salinas Manfredini</t>
+          <t>Giovanna Jazmin Grandon Caro</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.7156464457511902</v>
+        <v>0.716230571269989</v>
       </c>
     </row>
     <row r="27">
@@ -761,43 +761,43 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.7419785857200623</v>
+        <v>0.7517775893211365</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hugo Humberto Gutierrez Galvez</t>
+          <t>Fernando Salinas Manfredini</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.7772395014762878</v>
+        <v>0.7611754536628723</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ingrid Fernanda Villena Narbona</t>
+          <t>Hugo Humberto Gutierrez Galvez</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.78330397605896</v>
+        <v>0.7900378108024597</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Alejandra Alicia Flores Carlos</t>
+          <t>Carolina Cyntia Vilches Fuenzalida</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -806,43 +806,43 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.8093744516372681</v>
+        <v>0.8071732521057129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Felix Galleguillos Aymani</t>
+          <t>Marcos Patricio Barraza Gomez</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.8099409937858582</v>
+        <v>0.80913245677948</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Adriana Camila Ampuero Barrientos</t>
+          <t>Maria Magdalena Rivera Iribarren</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.8110249042510986</v>
+        <v>0.8407160639762878</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Manuela Royo Letelier</t>
+          <t>Gloria Del Transito Alvarado Jorquera</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -851,13 +851,13 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.8267948031425476</v>
+        <v>0.8652648329734802</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gloria Del Transito Alvarado Jorquera</t>
+          <t>Alejandra Alicia Flores Carlos</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="C34">
-        <v>0.8303600549697876</v>
+        <v>0.8798336982727051</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Margarita Vargas Lopez</t>
+          <t>Felix Galleguillos Aymani</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -881,28 +881,28 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.8383917808532715</v>
+        <v>0.8860573172569275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Carolina Cyntia Vilches Fuenzalida</t>
+          <t>Ingrid Fernanda Villena Narbona</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.8536151051521301</v>
+        <v>0.8941787481307983</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Alvin Antonio Saldaña Muñoz</t>
+          <t>Bastian Esteban Labbe Salazar</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -911,88 +911,88 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.8725333213806152</v>
+        <v>0.9101483225822449</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cristina Ines Dorador Ortiz</t>
+          <t>Valentina Andrea Miranda Arce</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.8786347508430481</v>
+        <v>0.9126490354537964</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Loreto Cristina Vallejos Davila</t>
+          <t>Adriana Camila Ampuero Barrientos</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.8800461888313293</v>
+        <v>0.9146088361740112</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Valentina Andrea Miranda Arce</t>
+          <t>Alvin Antonio Saldaña Muñoz</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.8837965130805969</v>
+        <v>0.9159994125366211</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Francisca Marycarmen Arauna Urrutia</t>
+          <t>Manuela Royo Letelier</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.8889478445053101</v>
+        <v>0.9193116426467896</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Carolina Eliana Videla Osorio</t>
+          <t>Cristina Ines Dorador Ortiz</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.9136834740638733</v>
+        <v>0.9200963377952576</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Natalia Esther Henriquez Carreño</t>
+          <t>Loreto Cristina Vallejos Davila</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1001,103 +1001,103 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.9160587191581726</v>
+        <v>0.9545567631721497</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nicolas Fernando Nuñez Gangas</t>
+          <t>Elisa Amanda Giustinianovich Campos</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.919327437877655</v>
+        <v>0.9614759683609009</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Marcos Patricio Barraza Gomez</t>
+          <t>Maria Elisa Quinteros Caceres</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.9195753931999207</v>
+        <v>0.9692397713661194</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Maria Magdalena Rivera Iribarren</t>
+          <t>Janis Jan Del Carmen Meneses Palma</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.9200134873390198</v>
+        <v>1.007526516914368</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bastian Esteban Labbe Salazar</t>
+          <t>Fernando Del Carmen Tirado Soto</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.9222683310508728</v>
+        <v>1.016463935375214</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Elisa Amanda Giustinianovich Campos</t>
+          <t>Carolina Eliana Videla Osorio</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.9316101670265198</v>
+        <v>1.019116640090942</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Maria Elisa Quinteros Caceres</t>
+          <t>Francisca Marycarmen Arauna Urrutia</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.9459304809570312</v>
+        <v>1.027977168560028</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Janis Jan Del Carmen Meneses Palma</t>
+          <t>Alondra Carrillo Vidal</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1106,37 +1106,37 @@
         </is>
       </c>
       <c r="C50">
-        <v>0.9487509727478027</v>
+        <v>1.028720140457153</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fernando Del Carmen Tirado Soto</t>
+          <t>Vanessa Camila Hoppe Espoz</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.9619072079658508</v>
+        <v>1.030324697494507</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Alondra Carrillo Vidal</t>
+          <t>Natalia Esther Henriquez Carreño</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C52">
-        <v>1.003617942333221</v>
+        <v>1.041769981384277</v>
       </c>
     </row>
     <row r="53">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C53">
-        <v>1.003687083721161</v>
+        <v>1.070974171161652</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lidia Gonzalez Calderon</t>
+          <t>Adolfo Millabur Ñancuil</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1166,28 +1166,28 @@
         </is>
       </c>
       <c r="C54">
-        <v>1.009118854999542</v>
+        <v>1.092556118965149</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Vanessa Camila Hoppe Espoz</t>
+          <t>Nicolas Fernando Nuñez Gangas</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C55">
-        <v>1.023293733596802</v>
+        <v>1.10172837972641</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Adolfo Millabur Ñancuil</t>
+          <t>Lidia Gonzalez Calderon</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1196,13 +1196,13 @@
         </is>
       </c>
       <c r="C56">
-        <v>1.049979627132416</v>
+        <v>1.158427298069</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Luis Alberto Jimenez Caceres</t>
+          <t>Rosa Elizabeth Catrileo Arias</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="C57">
-        <v>1.054791212081909</v>
+        <v>1.216960549354553</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Rosa Elizabeth Catrileo Arias</t>
+          <t>Luis Alberto Jimenez Caceres</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>1.109787821769714</v>
+        <v>1.238577663898468</v>
       </c>
     </row>
     <row r="59">
@@ -1241,37 +1241,37 @@
         </is>
       </c>
       <c r="C59">
-        <v>1.195725798606873</v>
+        <v>1.379670202732086</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Barbara Sepulveda Hales</t>
+          <t>Elisa Loncon Antileo</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C60">
-        <v>1.213432252407074</v>
+        <v>1.384774148464203</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Elisa Loncon Antileo</t>
+          <t>Rossana Loreto Vidal Hernandez</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C61">
-        <v>1.352051198482513</v>
+        <v>1.451340019702911</v>
       </c>
     </row>
     <row r="62">
@@ -1286,22 +1286,22 @@
         </is>
       </c>
       <c r="C62">
-        <v>1.399636566638947</v>
+        <v>1.511370241641998</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Rossana Loreto Vidal Hernandez</t>
+          <t>Barbara Sepulveda Hales</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C63">
-        <v>1.414035856723785</v>
+        <v>1.573902666568756</v>
       </c>
     </row>
     <row r="64">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>1.520133018493652</v>
+        <v>1.597507297992706</v>
       </c>
     </row>
     <row r="65">
@@ -1331,52 +1331,52 @@
         </is>
       </c>
       <c r="C65">
-        <v>1.643086373806</v>
+        <v>1.726036667823792</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bessy Mireya Del Rosario Gallardo Prado</t>
+          <t>Yarela Nicohl Gomez Sanchez</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C66">
-        <v>1.718496084213257</v>
+        <v>1.746913194656372</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mariela Andrea Serey Jimenez</t>
+          <t>Bessy Mireya Del Rosario Gallardo Prado</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C67">
-        <v>1.865463554859161</v>
+        <v>1.809997856616974</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Juan Jose Martin Bravo</t>
+          <t>Mariela Andrea Serey Jimenez</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C68">
-        <v>1.919662058353424</v>
+        <v>1.926120221614838</v>
       </c>
     </row>
     <row r="69">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C69">
-        <v>1.933643221855164</v>
+        <v>2.012520134449005</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Jeniffer Valeria Mella Escobar</t>
+          <t>Aurora Genoveva Delgado Vergara</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C70">
-        <v>1.933986842632294</v>
+        <v>2.047007083892822</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Amaya Paulina Alvez Marin</t>
+          <t>Jeniffer Valeria Mella Escobar</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1421,58 +1421,58 @@
         </is>
       </c>
       <c r="C71">
-        <v>1.976213753223419</v>
+        <v>2.051135897636414</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aurora Genoveva Delgado Vergara</t>
+          <t>Benito Jose Baranda Ferran</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C72">
-        <v>1.980510652065277</v>
+        <v>2.054411768913269</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Yarela Nicohl Gomez Sanchez</t>
+          <t>Juan Jose Martin Bravo</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C73">
-        <v>1.985538601875305</v>
+        <v>2.089550793170929</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Benito Jose Baranda Ferran</t>
+          <t>Ignacio Jaime Achurra Diaz</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C74">
-        <v>1.999611556529999</v>
+        <v>2.091800570487976</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Tatiana Karina Urrutia Herrera</t>
+          <t>Amaya Paulina Alvez Marin</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>2.018184959888458</v>
+        <v>2.115978598594666</v>
       </c>
     </row>
     <row r="76">
@@ -1496,43 +1496,43 @@
         </is>
       </c>
       <c r="C76">
-        <v>2.079903185367584</v>
+        <v>2.211066484451294</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Beatriz De Jesus Sanchez Muñoz</t>
+          <t>Ramona Reyes Painequeo</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C77">
-        <v>2.191552519798279</v>
+        <v>2.280863225460052</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ignacio Jaime Achurra Diaz</t>
+          <t>Claudio Gomez Castro</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C78">
-        <v>2.192478179931641</v>
+        <v>2.310859262943268</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Maria Jose Oyarzun Solis</t>
+          <t>Tatiana Karina Urrutia Herrera</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1541,58 +1541,58 @@
         </is>
       </c>
       <c r="C79">
-        <v>2.266012728214264</v>
+        <v>2.338533699512482</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Daniel Rodrigo Stingo Camus</t>
+          <t>Mario Vargas Vidal</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C80">
-        <v>2.284572720527649</v>
+        <v>2.384020090103149</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Constanza Gabriela Schonhaut Soto</t>
+          <t>Adriana Cancino Meneses</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C81">
-        <v>2.35172837972641</v>
+        <v>2.387286424636841</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ramona Reyes Painequeo</t>
+          <t>Daniel Rodrigo Stingo Camus</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C82">
-        <v>2.352073788642883</v>
+        <v>2.389541268348694</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Jaime Andres Bassa Mercado</t>
+          <t>Beatriz De Jesus Sanchez Muñoz</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1601,142 +1601,142 @@
         </is>
       </c>
       <c r="C83">
-        <v>2.371205389499664</v>
+        <v>2.428006529808044</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mario Vargas Vidal</t>
+          <t>Constanza Gabriela Schonhaut Soto</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C84">
-        <v>2.379458248615265</v>
+        <v>2.439976036548615</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Adriana Cancino Meneses</t>
+          <t>Jaime Andres Bassa Mercado</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C85">
-        <v>2.381191849708557</v>
+        <v>2.479040920734406</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Christian Viera Alvarez</t>
+          <t>Paulina Valeria Valenzuela Rio</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C86">
-        <v>2.410044968128204</v>
+        <v>2.52181276679039</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Claudio Gomez Castro</t>
+          <t>Maria Jose Oyarzun Solis</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C87">
-        <v>2.418129146099091</v>
+        <v>2.542764544487</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Paulina Valeria Valenzuela Rio</t>
+          <t>Jorge Baradit Morales</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C88">
-        <v>2.470633089542389</v>
+        <v>2.595743238925934</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Jorge Baradit Morales</t>
+          <t>Carlos Calvo Muñoz</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C89">
-        <v>2.470729053020477</v>
+        <v>2.622491121292114</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Carlos Calvo Muñoz</t>
+          <t>Christian Viera Alvarez</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C90">
-        <v>2.612448334693909</v>
+        <v>2.669369280338287</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Renato Fabrizio Garin Gonzalez</t>
+          <t>Jorge Bruno Abarca Riveros</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C91">
-        <v>2.636277079582214</v>
+        <v>2.698902189731598</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Jorge Bruno Abarca Riveros</t>
+          <t>Matias Orellana Cuellar</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C92">
-        <v>2.652318775653839</v>
+        <v>2.704075872898102</v>
       </c>
     </row>
     <row r="93">
@@ -1751,37 +1751,37 @@
         </is>
       </c>
       <c r="C93">
-        <v>2.666537165641785</v>
+        <v>2.714904695749283</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Matias Orellana Cuellar</t>
+          <t>Guillermo Nicolas Namor Kong</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C94">
-        <v>2.703102827072144</v>
+        <v>2.802330553531647</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Guillermo Nicolas Namor Kong</t>
+          <t>Renato Fabrizio Garin Gonzalez</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C95">
-        <v>2.73577094078064</v>
+        <v>2.806995660066605</v>
       </c>
     </row>
     <row r="96">
@@ -1796,37 +1796,37 @@
         </is>
       </c>
       <c r="C96">
-        <v>2.818881273269653</v>
+        <v>2.869692742824554</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mauricio Daza Carrasco</t>
+          <t>Maria Trinidad Castillo Boilet</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C97">
-        <v>2.858651280403137</v>
+        <v>2.928063124418259</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Maria Trinidad Castillo Boilet</t>
+          <t>Mauricio Daza Carrasco</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C98">
-        <v>2.899816483259201</v>
+        <v>2.961905598640442</v>
       </c>
     </row>
     <row r="99">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>2.922827750444412</v>
+        <v>2.961912155151367</v>
       </c>
     </row>
     <row r="100">
@@ -1856,43 +1856,43 @@
         </is>
       </c>
       <c r="C100">
-        <v>2.930345982313156</v>
+        <v>3.006938546895981</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Fernando Atria Lemaitre</t>
+          <t>Javier Fuchslocher Baeza</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C101">
-        <v>2.954327166080475</v>
+        <v>3.032716065645218</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Javier Fuchslocher Baeza</t>
+          <t>Fernando Atria Lemaitre</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C102">
-        <v>3.015075027942657</v>
+        <v>3.147560209035873</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Helmuth Jacobo Martinez Llancapan</t>
+          <t>Patricia Politzer Kerekes</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1901,28 +1901,28 @@
         </is>
       </c>
       <c r="C103">
-        <v>3.147539049386978</v>
+        <v>3.210136741399765</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Patricia Politzer Kerekes</t>
+          <t>Tomas Laibe Saez</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C104">
-        <v>3.195667564868927</v>
+        <v>3.245473206043243</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Tammy Solange Pustilnick Arditi</t>
+          <t>Helmuth Jacobo Martinez Llancapan</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1931,28 +1931,28 @@
         </is>
       </c>
       <c r="C105">
-        <v>3.212058246135712</v>
+        <v>3.264919817447662</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Patricio Fernandez Chadwick</t>
+          <t>Tammy Solange Pustilnick Arditi</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C106">
-        <v>3.355351388454437</v>
+        <v>3.269968926906586</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Tomas Laibe Saez</t>
+          <t>Ricardo Montero Allende</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1961,13 +1961,13 @@
         </is>
       </c>
       <c r="C107">
-        <v>3.380122184753418</v>
+        <v>3.270979821681976</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Cesar Valenzuela Maass</t>
+          <t>Pedro Muñoz Leiva</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1976,13 +1976,13 @@
         </is>
       </c>
       <c r="C108">
-        <v>3.399336636066437</v>
+        <v>3.32420140504837</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ricardo Montero Allende</t>
+          <t>Cesar Valenzuela Maass</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="C109">
-        <v>3.43727320432663</v>
+        <v>3.345990478992462</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Maximiliano Hurtado Roco</t>
+          <t>Patricio Fernandez Chadwick</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2006,13 +2006,13 @@
         </is>
       </c>
       <c r="C110">
-        <v>3.532822579145432</v>
+        <v>3.431246429681778</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Pedro Muñoz Leiva</t>
+          <t>Maximiliano Hurtado Roco</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>3.582050651311874</v>
+        <v>3.623533695936203</v>
       </c>
     </row>
     <row r="112">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>3.695356845855713</v>
+        <v>3.755071610212326</v>
       </c>
     </row>
     <row r="113">
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>4.07139927148819</v>
+        <v>4.087960571050644</v>
       </c>
     </row>
     <row r="114">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>4.163923859596252</v>
+        <v>4.117890298366547</v>
       </c>
     </row>
     <row r="115">
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>4.437384903430939</v>
+        <v>4.367796331644058</v>
       </c>
     </row>
     <row r="116">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>4.458027929067612</v>
+        <v>4.388470947742462</v>
       </c>
     </row>
     <row r="117">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>4.553247615695</v>
+        <v>4.423299208283424</v>
       </c>
     </row>
     <row r="118">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>4.907003110274673</v>
+        <v>4.496518149971962</v>
       </c>
     </row>
     <row r="119">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>5.020612694788724</v>
+        <v>4.943646476604044</v>
       </c>
     </row>
     <row r="120">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>5.523978546261787</v>
+        <v>5.433246418833733</v>
       </c>
     </row>
     <row r="121">
@@ -2171,13 +2171,13 @@
         </is>
       </c>
       <c r="C121">
-        <v>6.407510787248611</v>
+        <v>6.333281993865967</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Paulina Veloso Muñoz</t>
+          <t>Cristian Monckeberg Bruner</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2186,13 +2186,13 @@
         </is>
       </c>
       <c r="C122">
-        <v>6.762164235115051</v>
+        <v>6.583835631608963</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Cristian Monckeberg Bruner</t>
+          <t>Paulina Veloso Muñoz</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>6.798188835382462</v>
+        <v>6.676427721977234</v>
       </c>
     </row>
     <row r="124">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>6.887175142765045</v>
+        <v>6.738599389791489</v>
       </c>
     </row>
     <row r="125">
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>7.007113546133041</v>
+        <v>6.781362444162369</v>
       </c>
     </row>
     <row r="126">
@@ -2246,13 +2246,13 @@
         </is>
       </c>
       <c r="C126">
-        <v>7.054001241922379</v>
+        <v>6.894870400428772</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Angelica Tepper Kolossa</t>
+          <t>Patricia Labra Besserer</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2261,13 +2261,13 @@
         </is>
       </c>
       <c r="C127">
-        <v>7.066490650177002</v>
+        <v>7.008142620325089</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Patricia Labra Besserer</t>
+          <t>Angelica Tepper Kolossa</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="C128">
-        <v>7.214822024106979</v>
+        <v>7.036758363246918</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Manuel Jose Ossandon Lira</t>
+          <t>Hernan Larrain Matte</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2291,13 +2291,13 @@
         </is>
       </c>
       <c r="C129">
-        <v>7.240773886442184</v>
+        <v>7.046274095773697</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Hernan Larrain Matte</t>
+          <t>Manuel Jose Ossandon Lira</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2306,13 +2306,13 @@
         </is>
       </c>
       <c r="C130">
-        <v>7.243155390024185</v>
+        <v>7.049159407615662</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Barbara Rebolledo Aguirre</t>
+          <t>Bernardo Fontaine Talavera</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>7.34289214015007</v>
+        <v>7.144188582897186</v>
       </c>
     </row>
     <row r="132">
@@ -2336,13 +2336,13 @@
         </is>
       </c>
       <c r="C132">
-        <v>7.360707968473434</v>
+        <v>7.255087494850159</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Bernardo Fontaine Talavera</t>
+          <t>Alvaro Jofre Caceres</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="C133">
-        <v>7.385255098342896</v>
+        <v>7.2613625228405</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Alvaro Jofre Caceres</t>
+          <t>Barbara Rebolledo Aguirre</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>7.439677566289902</v>
+        <v>7.317286729812622</v>
       </c>
     </row>
     <row r="135">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>7.654941380023956</v>
+        <v>7.509088516235352</v>
       </c>
     </row>
     <row r="136">
@@ -2396,73 +2396,73 @@
         </is>
       </c>
       <c r="C136">
-        <v>8.369291126728058</v>
+        <v>8.260852694511414</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Jorge Arancibia Reyes</t>
+          <t>Felipe Ignacio Mena Villar</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C137">
-        <v>8.458309769630432</v>
+        <v>8.343778848648071</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Margarita Letelier Cortes</t>
+          <t>Eduardo Andres Cretton Rebolledo</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Chile Libre</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C138">
-        <v>8.541466891765594</v>
+        <v>8.352110087871552</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Felipe Ignacio Mena Villar</t>
+          <t>Ricardo Neumann Bertin</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C139">
-        <v>8.564233183860779</v>
+        <v>8.357323706150055</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Rodrigo Alvarez Zenteno</t>
+          <t>Margarita Letelier Cortes</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Chile Libre</t>
         </is>
       </c>
       <c r="C140">
-        <v>8.57576847076416</v>
+        <v>8.3889040350914</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Maria Cecilia Ubilla Perez</t>
+          <t>Rodrigo Alvarez Zenteno</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2471,13 +2471,13 @@
         </is>
       </c>
       <c r="C141">
-        <v>8.598431944847107</v>
+        <v>8.405025899410248</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Eduardo Andres Cretton Rebolledo</t>
+          <t>Jorge Arancibia Reyes</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2486,13 +2486,13 @@
         </is>
       </c>
       <c r="C142">
-        <v>8.647359609603882</v>
+        <v>8.434968888759613</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ricardo Neumann Bertin</t>
+          <t>Maria Cecilia Ubilla Perez</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2501,37 +2501,37 @@
         </is>
       </c>
       <c r="C143">
-        <v>8.649054765701294</v>
+        <v>8.446416556835175</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Pollyana Rivera Bigas</t>
+          <t>Claudia Mabel Castro Gutierrez</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C144">
-        <v>8.72778058052063</v>
+        <v>8.501272201538086</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Claudia Mabel Castro Gutierrez</t>
+          <t>Pollyana Rivera Bigas</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C145">
-        <v>8.753224313259125</v>
+        <v>8.505743443965912</v>
       </c>
     </row>
     <row r="146">
@@ -2546,37 +2546,37 @@
         </is>
       </c>
       <c r="C146">
-        <v>8.816229999065399</v>
+        <v>8.533311784267426</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Pablo Antonio Toloza Fernandez</t>
+          <t>Harry Jurgensen Caesar</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Chile Libre</t>
         </is>
       </c>
       <c r="C147">
-        <v>8.904234170913696</v>
+        <v>8.774903416633606</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Harry Jurgensen Caesar</t>
+          <t>Pablo Antonio Toloza Fernandez</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Chile Libre</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C148">
-        <v>9.006815552711487</v>
+        <v>8.777681291103363</v>
       </c>
     </row>
     <row r="149">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>9.077103137969971</v>
+        <v>8.849008977413177</v>
       </c>
     </row>
     <row r="150">
@@ -2606,37 +2606,37 @@
         </is>
       </c>
       <c r="C150">
-        <v>9.136134386062622</v>
+        <v>8.991873860359192</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Martin Arrau Garcia-Huidobro</t>
+          <t>Katerine Montealegre Navarro</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Chile Libre</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C151">
-        <v>9.153107404708862</v>
+        <v>9.056696593761444</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Katerine Montealegre Navarro</t>
+          <t>Ruth Hurtado Olave</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Chile Libre</t>
         </is>
       </c>
       <c r="C152">
-        <v>9.195156395435333</v>
+        <v>9.230156540870667</v>
       </c>
     </row>
     <row r="153">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="C153">
-        <v>9.276912808418274</v>
+        <v>9.252511262893677</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Teresa Marinovic Vial</t>
+          <t>Martin Arrau Garcia-Huidobro</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2666,13 +2666,13 @@
         </is>
       </c>
       <c r="C154">
-        <v>9.444884359836578</v>
+        <v>9.32263046503067</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Ruth Hurtado Olave</t>
+          <t>Teresa Marinovic Vial</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="C155">
-        <v>9.453173875808716</v>
+        <v>9.570471048355103</v>
       </c>
     </row>
     <row r="156">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>9.470131099224091</v>
+        <v>9.668108224868774</v>
       </c>
     </row>
   </sheetData>

--- a/files/puntajes.xlsx
+++ b/files/puntajes.xlsx
@@ -377,16 +377,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Marco Antonio Arellano Ortega</t>
+          <t>Alexis Caiguan Ancapan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.3947955369949341</v>
+        <v>0.3671565651893616</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.4769951105117798</v>
+        <v>0.4350361227989197</v>
       </c>
     </row>
     <row r="4">
@@ -416,28 +416,28 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.4806423187255859</v>
+        <v>0.4536262154579163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alejandra Pia Perez Espina</t>
+          <t>Wilfredo Manuel Bacian Delgado</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.482085645198822</v>
+        <v>0.4798293113708496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Elsa Carolina Labraña Pino</t>
+          <t>Manuel Mauricio Woldarsky Gonzalez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -446,52 +446,52 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.4938337206840515</v>
+        <v>0.4825848340988159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ivanna Daniela Olivares Miranda</t>
+          <t>Alejandra Pia Perez Espina</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.4964977502822876</v>
+        <v>0.4839408397674561</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alexis Caiguan Ancapan</t>
+          <t>Marco Antonio Arellano Ortega</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.5129683017730713</v>
+        <v>0.4963907599449158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wilfredo Manuel Bacian Delgado</t>
+          <t>Constanza Andrea San Juan Standen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.5438664555549622</v>
+        <v>0.5004817247390747</v>
       </c>
     </row>
     <row r="10">
@@ -506,28 +506,28 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.5570748448371887</v>
+        <v>0.5140203237533569</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cristobal Patricio Andrade Leon</t>
+          <t>Eric Chinga Ferreira</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.5599907040596008</v>
+        <v>0.5184578895568848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Manuel Mauricio Woldarsky Gonzalez</t>
+          <t>Giovanna Jazmin Grandon Caro</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -536,43 +536,43 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.5612397193908691</v>
+        <v>0.5418837070465088</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ericka Portilla Barrios</t>
+          <t>Lisette Lorena Vergara Riquelme</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.5751180648803711</v>
+        <v>0.5459398031234741</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Camila Ignacia Zarate Zarate</t>
+          <t>Ericka Portilla Barrios</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.5764439702033997</v>
+        <v>0.5523166060447693</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rodrigo Ernesto Rojas Vade</t>
+          <t>Cristobal Patricio Andrade Leon</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -581,28 +581,28 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.5917692184448242</v>
+        <v>0.5563297867774963</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Constanza Andrea San Juan Standen</t>
+          <t>Ivanna Daniela Olivares Miranda</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.6185722351074219</v>
+        <v>0.5580458045005798</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Eric Chinga Ferreira</t>
+          <t>Victorino Antilef Ñanco</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -611,148 +611,148 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.6228002905845642</v>
+        <v>0.5654779076576233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lisette Lorena Vergara Riquelme</t>
+          <t>Camila Ignacia Zarate Zarate</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.637030303478241</v>
+        <v>0.5731585621833801</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dayyana Gonzalez Araya</t>
+          <t>Francisca Linconao Huircapan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.6606855988502502</v>
+        <v>0.5874285101890564</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Francisco Javier Caamaño Rojas</t>
+          <t>Elsa Carolina Labraña Pino</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.6724753975868225</v>
+        <v>0.6195202469825745</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Francisca Linconao Huircapan</t>
+          <t>Dayyana Gonzalez Araya</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.6740173697471619</v>
+        <v>0.620342493057251</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Victorino Antilef Ñanco</t>
+          <t>Francisco Javier Caamaño Rojas</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.6795138120651245</v>
+        <v>0.641995370388031</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cesar Uribe Araya</t>
+          <t>Paola Alejandra Grandon Gonzalez</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.6857037544250488</v>
+        <v>0.6756484508514404</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Paola Alejandra Grandon Gonzalez</t>
+          <t>Cesar Uribe Araya</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.6932243704795837</v>
+        <v>0.6849509477615356</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Margarita Vargas Lopez</t>
+          <t>Hernan Jesus Velasquez Nuñez</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.7023152709007263</v>
+        <v>0.7117339968681335</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Giovanna Jazmin Grandon Caro</t>
+          <t>Rodrigo Ernesto Rojas Vade</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.716230571269989</v>
+        <v>0.7147699594497681</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hernan Jesus Velasquez Nuñez</t>
+          <t>Hugo Humberto Gutierrez Galvez</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.7517775893211365</v>
+        <v>0.7443550229072571</v>
       </c>
     </row>
     <row r="28">
@@ -776,73 +776,73 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.7611754536628723</v>
+        <v>0.7446900010108948</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hugo Humberto Gutierrez Galvez</t>
+          <t>Carolina Cyntia Vilches Fuenzalida</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.7900378108024597</v>
+        <v>0.7781660556793213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Carolina Cyntia Vilches Fuenzalida</t>
+          <t>Margarita Vargas Lopez</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.8071732521057129</v>
+        <v>0.8095932006835938</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Marcos Patricio Barraza Gomez</t>
+          <t>Gloria Del Transito Alvarado Jorquera</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.80913245677948</v>
+        <v>0.8255937695503235</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Maria Magdalena Rivera Iribarren</t>
+          <t>Felix Galleguillos Aymani</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.8407160639762878</v>
+        <v>0.8336430788040161</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gloria Del Transito Alvarado Jorquera</t>
+          <t>Alejandra Alicia Flores Carlos</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -851,58 +851,58 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.8652648329734802</v>
+        <v>0.8482000231742859</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Alejandra Alicia Flores Carlos</t>
+          <t>Adriana Camila Ampuero Barrientos</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.8798336982727051</v>
+        <v>0.8622398972511292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Felix Galleguillos Aymani</t>
+          <t>Cristina Ines Dorador Ortiz</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.8860573172569275</v>
+        <v>0.8817920088768005</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ingrid Fernanda Villena Narbona</t>
+          <t>Alvin Antonio Saldaña Muñoz</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.8941787481307983</v>
+        <v>0.8877941966056824</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bastian Esteban Labbe Salazar</t>
+          <t>Manuela Royo Letelier</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -911,58 +911,58 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.9101483225822449</v>
+        <v>0.8925271034240723</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Valentina Andrea Miranda Arce</t>
+          <t>Ingrid Fernanda Villena Narbona</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.9126490354537964</v>
+        <v>0.8979389071464539</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Adriana Camila Ampuero Barrientos</t>
+          <t>Bastian Esteban Labbe Salazar</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.9146088361740112</v>
+        <v>0.9032788872718811</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Alvin Antonio Saldaña Muñoz</t>
+          <t>Loreto Cristina Vallejos Davila</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.9159994125366211</v>
+        <v>0.926487147808075</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Manuela Royo Letelier</t>
+          <t>Elisa Amanda Giustinianovich Campos</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.9193116426467896</v>
+        <v>0.9333747625350952</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cristina Ines Dorador Ortiz</t>
+          <t>Maria Elisa Quinteros Caceres</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -986,52 +986,52 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.9200963377952576</v>
+        <v>0.9436216950416565</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Loreto Cristina Vallejos Davila</t>
+          <t>Valentina Andrea Miranda Arce</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.9545567631721497</v>
+        <v>0.9532809257507324</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Elisa Amanda Giustinianovich Campos</t>
+          <t>Marcos Patricio Barraza Gomez</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.9614759683609009</v>
+        <v>0.9551218152046204</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Maria Elisa Quinteros Caceres</t>
+          <t>Fernando Del Carmen Tirado Soto</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.9692397713661194</v>
+        <v>0.9709581732749939</v>
       </c>
     </row>
     <row r="46">
@@ -1046,37 +1046,37 @@
         </is>
       </c>
       <c r="C46">
-        <v>1.007526516914368</v>
+        <v>0.9709611535072327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fernando Del Carmen Tirado Soto</t>
+          <t>Vanessa Camila Hoppe Espoz</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C47">
-        <v>1.016463935375214</v>
+        <v>0.9755706787109375</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Carolina Eliana Videla Osorio</t>
+          <t>Alondra Carrillo Vidal</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C48">
-        <v>1.019116640090942</v>
+        <v>0.9864675998687744</v>
       </c>
     </row>
     <row r="49">
@@ -1091,43 +1091,43 @@
         </is>
       </c>
       <c r="C49">
-        <v>1.027977168560028</v>
+        <v>0.9871849417686462</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Alondra Carrillo Vidal</t>
+          <t>Natalia Esther Henriquez Carreño</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C50">
-        <v>1.028720140457153</v>
+        <v>1.013092994689941</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Vanessa Camila Hoppe Espoz</t>
+          <t>Carolina Eliana Videla Osorio</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C51">
-        <v>1.030324697494507</v>
+        <v>1.022979319095612</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Natalia Esther Henriquez Carreño</t>
+          <t>Daniel Alejandro Bravo Silva</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1136,67 +1136,67 @@
         </is>
       </c>
       <c r="C52">
-        <v>1.041769981384277</v>
+        <v>1.039959788322449</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Bravo Silva</t>
+          <t>Adolfo Millabur Ñancuil</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C53">
-        <v>1.070974171161652</v>
+        <v>1.043300330638885</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Adolfo Millabur Ñancuil</t>
+          <t>Nicolas Fernando Nuñez Gangas</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C54">
-        <v>1.092556118965149</v>
+        <v>1.089525818824768</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nicolas Fernando Nuñez Gangas</t>
+          <t>Lidia Gonzalez Calderon</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C55">
-        <v>1.10172837972641</v>
+        <v>1.10429435968399</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Lidia Gonzalez Calderon</t>
+          <t>Maria Magdalena Rivera Iribarren</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C56">
-        <v>1.158427298069</v>
+        <v>1.142017543315887</v>
       </c>
     </row>
     <row r="57">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>1.216960549354553</v>
+        <v>1.170795857906342</v>
       </c>
     </row>
     <row r="58">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C58">
-        <v>1.238577663898468</v>
+        <v>1.171388030052185</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Isabella Brunilda Mamani Mamani</t>
+          <t>Elisa Loncon Antileo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1241,13 +1241,13 @@
         </is>
       </c>
       <c r="C59">
-        <v>1.379670202732086</v>
+        <v>1.316989362239838</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Elisa Loncon Antileo</t>
+          <t>Isabella Brunilda Mamani Mamani</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>1.384774148464203</v>
+        <v>1.320917904376984</v>
       </c>
     </row>
     <row r="61">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>1.451340019702911</v>
+        <v>1.386940479278564</v>
       </c>
     </row>
     <row r="62">
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C62">
-        <v>1.511370241641998</v>
+        <v>1.449128985404968</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Barbara Sepulveda Hales</t>
+          <t>Roberto Antonio Celedon Fernandez</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1301,73 +1301,73 @@
         </is>
       </c>
       <c r="C63">
-        <v>1.573902666568756</v>
+        <v>1.534043848514557</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Roberto Antonio Celedon Fernandez</t>
+          <t>Malucha Pinto Solari</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C64">
-        <v>1.597507297992706</v>
+        <v>1.637394428253174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Malucha Pinto Solari</t>
+          <t>Barbara Sepulveda Hales</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C65">
-        <v>1.726036667823792</v>
+        <v>1.676305830478668</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Yarela Nicohl Gomez Sanchez</t>
+          <t>Bessy Mireya Del Rosario Gallardo Prado</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C66">
-        <v>1.746913194656372</v>
+        <v>1.819781363010406</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Bessy Mireya Del Rosario Gallardo Prado</t>
+          <t>Mariela Andrea Serey Jimenez</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C67">
-        <v>1.809997856616974</v>
+        <v>1.864246129989624</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Mariela Andrea Serey Jimenez</t>
+          <t>Damaris Abarca Gonzalez</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1376,28 +1376,28 @@
         </is>
       </c>
       <c r="C68">
-        <v>1.926120221614838</v>
+        <v>1.94552093744278</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Damaris Abarca Gonzalez</t>
+          <t>Benito Jose Baranda Ferran</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C69">
-        <v>2.012520134449005</v>
+        <v>1.958858966827393</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Aurora Genoveva Delgado Vergara</t>
+          <t>Jeniffer Valeria Mella Escobar</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C70">
-        <v>2.047007083892822</v>
+        <v>1.979534924030304</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Jeniffer Valeria Mella Escobar</t>
+          <t>Aurora Genoveva Delgado Vergara</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="C71">
-        <v>2.051135897636414</v>
+        <v>1.997784376144409</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Benito Jose Baranda Ferran</t>
+          <t>Juan Jose Martin Bravo</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1436,28 +1436,28 @@
         </is>
       </c>
       <c r="C72">
-        <v>2.054411768913269</v>
+        <v>2.009271681308746</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Juan Jose Martin Bravo</t>
+          <t>Yarela Nicohl Gomez Sanchez</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C73">
-        <v>2.089550793170929</v>
+        <v>2.013438940048218</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ignacio Jaime Achurra Diaz</t>
+          <t>Amaya Paulina Alvez Marin</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1466,13 +1466,13 @@
         </is>
       </c>
       <c r="C74">
-        <v>2.091800570487976</v>
+        <v>2.065435349941254</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Amaya Paulina Alvez Marin</t>
+          <t>Giovanna Angela Roa Cadin</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="C75">
-        <v>2.115978598594666</v>
+        <v>2.14826762676239</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Giovanna Angela Roa Cadin</t>
+          <t>Beatriz De Jesus Sanchez Muñoz</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>2.211066484451294</v>
+        <v>2.202978432178497</v>
       </c>
     </row>
     <row r="77">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="C77">
-        <v>2.280863225460052</v>
+        <v>2.239150404930115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Claudio Gomez Castro</t>
+          <t>Ignacio Jaime Achurra Diaz</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C78">
-        <v>2.310859262943268</v>
+        <v>2.258817851543427</v>
       </c>
     </row>
     <row r="79">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>2.338533699512482</v>
+        <v>2.272306978702545</v>
       </c>
     </row>
     <row r="80">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>2.384020090103149</v>
+        <v>2.315248548984528</v>
       </c>
     </row>
     <row r="81">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>2.387286424636841</v>
+        <v>2.324793338775635</v>
       </c>
     </row>
     <row r="82">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C82">
-        <v>2.389541268348694</v>
+        <v>2.335997819900513</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Beatriz De Jesus Sanchez Muñoz</t>
+          <t>Constanza Gabriela Schonhaut Soto</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1601,22 +1601,22 @@
         </is>
       </c>
       <c r="C83">
-        <v>2.428006529808044</v>
+        <v>2.384516000747681</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Constanza Gabriela Schonhaut Soto</t>
+          <t>Claudio Gomez Castro</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C84">
-        <v>2.439976036548615</v>
+        <v>2.416011691093445</v>
       </c>
     </row>
     <row r="85">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>2.479040920734406</v>
+        <v>2.438618838787079</v>
       </c>
     </row>
     <row r="86">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>2.52181276679039</v>
+        <v>2.455876171588898</v>
       </c>
     </row>
     <row r="87">
@@ -1661,13 +1661,13 @@
         </is>
       </c>
       <c r="C87">
-        <v>2.542764544487</v>
+        <v>2.49078631401062</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Jorge Baradit Morales</t>
+          <t>Christian Viera Alvarez</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1676,37 +1676,37 @@
         </is>
       </c>
       <c r="C88">
-        <v>2.595743238925934</v>
+        <v>2.528224885463715</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Carlos Calvo Muñoz</t>
+          <t>Jorge Baradit Morales</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C89">
-        <v>2.622491121292114</v>
+        <v>2.532248198986053</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Christian Viera Alvarez</t>
+          <t>Carlos Calvo Muñoz</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C90">
-        <v>2.669369280338287</v>
+        <v>2.557082027196884</v>
       </c>
     </row>
     <row r="91">
@@ -1721,13 +1721,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>2.698902189731598</v>
+        <v>2.610473185777664</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Matias Orellana Cuellar</t>
+          <t>Julio Alvarez Pinto</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1736,13 +1736,13 @@
         </is>
       </c>
       <c r="C92">
-        <v>2.704075872898102</v>
+        <v>2.656501829624176</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Julio Alvarez Pinto</t>
+          <t>Matias Orellana Cuellar</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>2.714904695749283</v>
+        <v>2.760415524244308</v>
       </c>
     </row>
     <row r="94">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>2.802330553531647</v>
+        <v>2.780167460441589</v>
       </c>
     </row>
     <row r="95">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>2.806995660066605</v>
+        <v>2.795046269893646</v>
       </c>
     </row>
     <row r="96">
@@ -1796,28 +1796,28 @@
         </is>
       </c>
       <c r="C96">
-        <v>2.869692742824554</v>
+        <v>2.83404678106308</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Maria Trinidad Castillo Boilet</t>
+          <t>Mauricio Daza Carrasco</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C97">
-        <v>2.928063124418259</v>
+        <v>2.866462469100952</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Mauricio Daza Carrasco</t>
+          <t>Carolina Andrea Sepulveda Sepulveda</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1826,28 +1826,28 @@
         </is>
       </c>
       <c r="C98">
-        <v>2.961905598640442</v>
+        <v>2.890198081731796</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Lorena Del Pilar Cespedes Fernandez</t>
+          <t>Maria Trinidad Castillo Boilet</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C99">
-        <v>2.961912155151367</v>
+        <v>2.89724662899971</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Carolina Andrea Sepulveda Sepulveda</t>
+          <t>Lorena Del Pilar Cespedes Fernandez</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>3.006938546895981</v>
+        <v>2.954144477844238</v>
       </c>
     </row>
     <row r="101">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>3.032716065645218</v>
+        <v>2.969349771738052</v>
       </c>
     </row>
     <row r="102">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>3.147560209035873</v>
+        <v>3.09332087635994</v>
       </c>
     </row>
     <row r="103">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>3.210136741399765</v>
+        <v>3.182858228683472</v>
       </c>
     </row>
     <row r="104">
@@ -1916,13 +1916,13 @@
         </is>
       </c>
       <c r="C104">
-        <v>3.245473206043243</v>
+        <v>3.19152444601059</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Helmuth Jacobo Martinez Llancapan</t>
+          <t>Tammy Solange Pustilnick Arditi</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1931,13 +1931,13 @@
         </is>
       </c>
       <c r="C105">
-        <v>3.264919817447662</v>
+        <v>3.259143829345703</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Tammy Solange Pustilnick Arditi</t>
+          <t>Helmuth Jacobo Martinez Llancapan</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1946,13 +1946,13 @@
         </is>
       </c>
       <c r="C106">
-        <v>3.269968926906586</v>
+        <v>3.282538950443268</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ricardo Montero Allende</t>
+          <t>Cesar Valenzuela Maass</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1961,13 +1961,13 @@
         </is>
       </c>
       <c r="C107">
-        <v>3.270979821681976</v>
+        <v>3.318928182125092</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Pedro Muñoz Leiva</t>
+          <t>Patricio Fernandez Chadwick</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1976,13 +1976,13 @@
         </is>
       </c>
       <c r="C108">
-        <v>3.32420140504837</v>
+        <v>3.370533287525177</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Cesar Valenzuela Maass</t>
+          <t>Ricardo Montero Allende</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="C109">
-        <v>3.345990478992462</v>
+        <v>3.372746855020523</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Patricio Fernandez Chadwick</t>
+          <t>Pedro Muñoz Leiva</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>3.431246429681778</v>
+        <v>3.452613204717636</v>
       </c>
     </row>
     <row r="111">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>3.623533695936203</v>
+        <v>3.479733467102051</v>
       </c>
     </row>
     <row r="112">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>3.755071610212326</v>
+        <v>3.633101582527161</v>
       </c>
     </row>
     <row r="113">
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>4.087960571050644</v>
+        <v>4.094093665480614</v>
       </c>
     </row>
     <row r="114">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>4.117890298366547</v>
+        <v>4.137826710939407</v>
       </c>
     </row>
     <row r="115">
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>4.367796331644058</v>
+        <v>4.3503437936306</v>
       </c>
     </row>
     <row r="116">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>4.388470947742462</v>
+        <v>4.3996986374259</v>
       </c>
     </row>
     <row r="117">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>4.423299208283424</v>
+        <v>4.421808943152428</v>
       </c>
     </row>
     <row r="118">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>4.496518149971962</v>
+        <v>4.657094851136208</v>
       </c>
     </row>
     <row r="119">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>4.943646476604044</v>
+        <v>4.940092908218503</v>
       </c>
     </row>
     <row r="120">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>5.433246418833733</v>
+        <v>5.504446141421795</v>
       </c>
     </row>
     <row r="121">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>6.333281993865967</v>
+        <v>6.415506899356842</v>
       </c>
     </row>
     <row r="122">
@@ -2186,13 +2186,13 @@
         </is>
       </c>
       <c r="C122">
-        <v>6.583835631608963</v>
+        <v>6.68032318353653</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Paulina Veloso Muñoz</t>
+          <t>Geoconda Navarrete Arratia</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2201,13 +2201,13 @@
         </is>
       </c>
       <c r="C123">
-        <v>6.676427721977234</v>
+        <v>6.790468394756317</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Geoconda Navarrete Arratia</t>
+          <t>Paulina Veloso Muñoz</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>6.738599389791489</v>
+        <v>6.794219613075256</v>
       </c>
     </row>
     <row r="125">
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>6.781362444162369</v>
+        <v>6.917293220758438</v>
       </c>
     </row>
     <row r="126">
@@ -2246,13 +2246,13 @@
         </is>
       </c>
       <c r="C126">
-        <v>6.894870400428772</v>
+        <v>7.043928653001785</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Patricia Labra Besserer</t>
+          <t>Angelica Tepper Kolossa</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2261,13 +2261,13 @@
         </is>
       </c>
       <c r="C127">
-        <v>7.008142620325089</v>
+        <v>7.07263857126236</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Angelica Tepper Kolossa</t>
+          <t>Patricia Labra Besserer</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>7.036758363246918</v>
+        <v>7.119402438402176</v>
       </c>
     </row>
     <row r="129">
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>7.046274095773697</v>
+        <v>7.169616371393204</v>
       </c>
     </row>
     <row r="130">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>7.049159407615662</v>
+        <v>7.195067703723907</v>
       </c>
     </row>
     <row r="131">
@@ -2321,13 +2321,13 @@
         </is>
       </c>
       <c r="C131">
-        <v>7.144188582897186</v>
+        <v>7.287867814302444</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ruggero Cozzi Elzo</t>
+          <t>Barbara Rebolledo Aguirre</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2336,13 +2336,13 @@
         </is>
       </c>
       <c r="C132">
-        <v>7.255087494850159</v>
+        <v>7.307865023612976</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Alvaro Jofre Caceres</t>
+          <t>Ruggero Cozzi Elzo</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="C133">
-        <v>7.2613625228405</v>
+        <v>7.325599491596222</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Barbara Rebolledo Aguirre</t>
+          <t>Alvaro Jofre Caceres</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>7.317286729812622</v>
+        <v>7.422237992286682</v>
       </c>
     </row>
     <row r="135">
@@ -2381,28 +2381,28 @@
         </is>
       </c>
       <c r="C135">
-        <v>7.509088516235352</v>
+        <v>7.581027448177338</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Alfredo Moreno Echeverria</t>
+          <t>Jorge Arancibia Reyes</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C136">
-        <v>8.260852694511414</v>
+        <v>8.478690981864929</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Felipe Ignacio Mena Villar</t>
+          <t>Alfredo Moreno Echeverria</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2411,28 +2411,28 @@
         </is>
       </c>
       <c r="C137">
-        <v>8.343778848648071</v>
+        <v>8.494898080825806</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Eduardo Andres Cretton Rebolledo</t>
+          <t>Felipe Ignacio Mena Villar</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C138">
-        <v>8.352110087871552</v>
+        <v>8.577037453651428</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ricardo Neumann Bertin</t>
+          <t>Eduardo Andres Cretton Rebolledo</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2441,28 +2441,28 @@
         </is>
       </c>
       <c r="C139">
-        <v>8.357323706150055</v>
+        <v>8.611165583133698</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Margarita Letelier Cortes</t>
+          <t>Ricardo Neumann Bertin</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Chile Libre</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C140">
-        <v>8.3889040350914</v>
+        <v>8.612886667251587</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Rodrigo Alvarez Zenteno</t>
+          <t>Maria Cecilia Ubilla Perez</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2471,28 +2471,28 @@
         </is>
       </c>
       <c r="C141">
-        <v>8.405025899410248</v>
+        <v>8.614954054355621</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Jorge Arancibia Reyes</t>
+          <t>Margarita Letelier Cortes</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Chile Libre</t>
         </is>
       </c>
       <c r="C142">
-        <v>8.434968888759613</v>
+        <v>8.625125885009766</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Maria Cecilia Ubilla Perez</t>
+          <t>Rodrigo Alvarez Zenteno</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2501,37 +2501,37 @@
         </is>
       </c>
       <c r="C143">
-        <v>8.446416556835175</v>
+        <v>8.673819899559021</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Claudia Mabel Castro Gutierrez</t>
+          <t>Pollyana Rivera Bigas</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C144">
-        <v>8.501272201538086</v>
+        <v>8.704153597354889</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Pollyana Rivera Bigas</t>
+          <t>Claudia Mabel Castro Gutierrez</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C145">
-        <v>8.505743443965912</v>
+        <v>8.758508861064911</v>
       </c>
     </row>
     <row r="146">
@@ -2546,43 +2546,43 @@
         </is>
       </c>
       <c r="C146">
-        <v>8.533311784267426</v>
+        <v>8.801478147506714</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Harry Jurgensen Caesar</t>
+          <t>Pablo Antonio Toloza Fernandez</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Chile Libre</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C147">
-        <v>8.774903416633606</v>
+        <v>8.817272484302521</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Pablo Antonio Toloza Fernandez</t>
+          <t>Harry Jurgensen Caesar</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Chile Libre</t>
         </is>
       </c>
       <c r="C148">
-        <v>8.777681291103363</v>
+        <v>8.967494666576385</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Carol Bown Sepulveda</t>
+          <t>Marcela Cubillos Sigall</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2591,13 +2591,13 @@
         </is>
       </c>
       <c r="C149">
-        <v>8.849008977413177</v>
+        <v>9.062357544898987</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Marcela Cubillos Sigall</t>
+          <t>Carol Bown Sepulveda</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>8.991873860359192</v>
+        <v>9.102128446102142</v>
       </c>
     </row>
     <row r="151">
@@ -2621,13 +2621,13 @@
         </is>
       </c>
       <c r="C151">
-        <v>9.056696593761444</v>
+        <v>9.124814867973328</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Ruth Hurtado Olave</t>
+          <t>Martin Arrau Garcia-Huidobro</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="C152">
-        <v>9.230156540870667</v>
+        <v>9.195104539394379</v>
       </c>
     </row>
     <row r="153">
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="C153">
-        <v>9.252511262893677</v>
+        <v>9.277994930744171</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Martin Arrau Garcia-Huidobro</t>
+          <t>Ruth Hurtado Olave</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>9.32263046503067</v>
+        <v>9.378696978092194</v>
       </c>
     </row>
     <row r="155">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="C155">
-        <v>9.570471048355103</v>
+        <v>9.462749660015106</v>
       </c>
     </row>
     <row r="156">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>9.668108224868774</v>
+        <v>9.528925716876984</v>
       </c>
     </row>
   </sheetData>

--- a/files/puntajes.xlsx
+++ b/files/puntajes.xlsx
@@ -377,7 +377,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alexis Caiguan Ancapan</t>
+          <t>Isabel Selena Godoy Monardez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -386,28 +386,28 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.3671565651893616</v>
+        <v>0.3835573792457581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tania Isabel Madriaga Flores</t>
+          <t>Felix Galleguillos Aymani</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.4350361227989197</v>
+        <v>0.4669937491416931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Isabel Selena Godoy Monardez</t>
+          <t>Natividad Llanquileo Pilquiman</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.4536262154579163</v>
+        <v>0.5061525106430054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wilfredo Manuel Bacian Delgado</t>
+          <t>Fernando Del Carmen Tirado Soto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -431,73 +431,73 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.4798293113708496</v>
+        <v>0.5069407820701599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Manuel Mauricio Woldarsky Gonzalez</t>
+          <t>Dayyana Gonzalez Araya</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.4825848340988159</v>
+        <v>0.5314528942108154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alejandra Pia Perez Espina</t>
+          <t>Ericka Portilla Barrios</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.4839408397674561</v>
+        <v>0.536266565322876</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Marco Antonio Arellano Ortega</t>
+          <t>Wilfredo Manuel Bacian Delgado</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.4963907599449158</v>
+        <v>0.5397891998291016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Constanza Andrea San Juan Standen</t>
+          <t>Camila Ignacia Zarate Zarate</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.5004817247390747</v>
+        <v>0.5445319414138794</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Natividad Llanquileo Pilquiman</t>
+          <t>Victorino Antilef Ñanco</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -506,88 +506,88 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.5140203237533569</v>
+        <v>0.5580368638038635</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Eric Chinga Ferreira</t>
+          <t>Lisette Lorena Vergara Riquelme</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.5184578895568848</v>
+        <v>0.5732828378677368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Giovanna Jazmin Grandon Caro</t>
+          <t>Eric Chinga Ferreira</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.5418837070465088</v>
+        <v>0.5743443965911865</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lisette Lorena Vergara Riquelme</t>
+          <t>Constanza Andrea San Juan Standen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.5459398031234741</v>
+        <v>0.5796238780021667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ericka Portilla Barrios</t>
+          <t>Elsa Carolina Labraña Pino</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.5523166060447693</v>
+        <v>0.5890688300132751</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cristobal Patricio Andrade Leon</t>
+          <t>Marcos Patricio Barraza Gomez</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.5563297867774963</v>
+        <v>0.598067045211792</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ivanna Daniela Olivares Miranda</t>
+          <t>Ingrid Fernanda Villena Narbona</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -596,28 +596,28 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.5580458045005798</v>
+        <v>0.5995568633079529</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Victorino Antilef Ñanco</t>
+          <t>Carolina Eliana Videla Osorio</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.5654779076576233</v>
+        <v>0.6011116504669189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Camila Ignacia Zarate Zarate</t>
+          <t>Loreto Cristina Vallejos Davila</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -626,178 +626,178 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.5731585621833801</v>
+        <v>0.6017428636550903</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Francisca Linconao Huircapan</t>
+          <t>Natalia Esther Henriquez Carreño</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.5874285101890564</v>
+        <v>0.6041547656059265</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Elsa Carolina Labraña Pino</t>
+          <t>Hugo Humberto Gutierrez Galvez</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.6195202469825745</v>
+        <v>0.6172820925712585</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dayyana Gonzalez Araya</t>
+          <t>Cristobal Patricio Andrade Leon</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.620342493057251</v>
+        <v>0.6406718492507935</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Francisco Javier Caamaño Rojas</t>
+          <t>Valentina Andrea Miranda Arce</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.641995370388031</v>
+        <v>0.6425368785858154</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Paola Alejandra Grandon Gonzalez</t>
+          <t>Cesar Uribe Araya</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.6756484508514404</v>
+        <v>0.6459182500839233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cesar Uribe Araya</t>
+          <t>Alejandra Pia Perez Espina</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.6849509477615356</v>
+        <v>0.6639936566352844</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hernan Jesus Velasquez Nuñez</t>
+          <t>Ivanna Daniela Olivares Miranda</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.7117339968681335</v>
+        <v>0.6765004992485046</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rodrigo Ernesto Rojas Vade</t>
+          <t>Paola Alejandra Grandon Gonzalez</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.7147699594497681</v>
+        <v>0.6837618350982666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hugo Humberto Gutierrez Galvez</t>
+          <t>Maria Magdalena Rivera Iribarren</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.7443550229072571</v>
+        <v>0.6909734010696411</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fernando Salinas Manfredini</t>
+          <t>Tania Isabel Madriaga Flores</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.7446900010108948</v>
+        <v>0.6930264830589294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Carolina Cyntia Vilches Fuenzalida</t>
+          <t>Francisco Javier Caamaño Rojas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.7781660556793213</v>
+        <v>0.6978940963745117</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Margarita Vargas Lopez</t>
+          <t>Alexis Caiguan Ancapan</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -806,148 +806,148 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.8095932006835938</v>
+        <v>0.6991922855377197</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Gloria Del Transito Alvarado Jorquera</t>
+          <t>Lidia Gonzalez Calderon</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.8255937695503235</v>
+        <v>0.712030827999115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Felix Galleguillos Aymani</t>
+          <t>Barbara Sepulveda Hales</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.8336430788040161</v>
+        <v>0.7198077440261841</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Alejandra Alicia Flores Carlos</t>
+          <t>Adriana Camila Ampuero Barrientos</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.8482000231742859</v>
+        <v>0.7226604223251343</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Adriana Camila Ampuero Barrientos</t>
+          <t>Manuel Mauricio Woldarsky Gonzalez</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.8622398972511292</v>
+        <v>0.7428106665611267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cristina Ines Dorador Ortiz</t>
+          <t>Hernan Jesus Velasquez Nuñez</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.8817920088768005</v>
+        <v>0.7472443580627441</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Alvin Antonio Saldaña Muñoz</t>
+          <t>Rodrigo Ernesto Rojas Vade</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.8877941966056824</v>
+        <v>0.7533466815948486</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Manuela Royo Letelier</t>
+          <t>Marco Antonio Arellano Ortega</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.8925271034240723</v>
+        <v>0.757872462272644</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ingrid Fernanda Villena Narbona</t>
+          <t>Giovanna Jazmin Grandon Caro</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.8979389071464539</v>
+        <v>0.7702773809432983</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bastian Esteban Labbe Salazar</t>
+          <t>Francisca Marycarmen Arauna Urrutia</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.9032788872718811</v>
+        <v>0.8053696155548096</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Loreto Cristina Vallejos Davila</t>
+          <t>Daniel Alejandro Bravo Silva</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -956,58 +956,58 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.926487147808075</v>
+        <v>0.8147713541984558</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Elisa Amanda Giustinianovich Campos</t>
+          <t>Fernando Salinas Manfredini</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.9333747625350952</v>
+        <v>0.8461374044418335</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Maria Elisa Quinteros Caceres</t>
+          <t>Luis Alberto Jimenez Caceres</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.9436216950416565</v>
+        <v>0.8754757046699524</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Valentina Andrea Miranda Arce</t>
+          <t>Isabella Brunilda Mamani Mamani</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.9532809257507324</v>
+        <v>0.8832922577857971</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Marcos Patricio Barraza Gomez</t>
+          <t>Nicolas Fernando Nuñez Gangas</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1016,28 +1016,28 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.9551218152046204</v>
+        <v>0.8883503079414368</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fernando Del Carmen Tirado Soto</t>
+          <t>Alejandra Alicia Flores Carlos</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.9709581732749939</v>
+        <v>0.8994174003601074</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Janis Jan Del Carmen Meneses Palma</t>
+          <t>Alvin Antonio Saldaña Muñoz</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1046,28 +1046,28 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.9709611535072327</v>
+        <v>0.9174501895904541</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Vanessa Camila Hoppe Espoz</t>
+          <t>Francisca Linconao Huircapan</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.9755706787109375</v>
+        <v>0.9311273694038391</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Alondra Carrillo Vidal</t>
+          <t>Maria Elisa Quinteros Caceres</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1076,148 +1076,148 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.9864675998687744</v>
+        <v>0.9345796704292297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Francisca Marycarmen Arauna Urrutia</t>
+          <t>Vanessa Camila Hoppe Espoz</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.9871849417686462</v>
+        <v>0.9492942690849304</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Natalia Esther Henriquez Carreño</t>
+          <t>Janis Jan Del Carmen Meneses Palma</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C50">
-        <v>1.013092994689941</v>
+        <v>0.9539774060249329</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Carolina Eliana Videla Osorio</t>
+          <t>Bastian Esteban Labbe Salazar</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C51">
-        <v>1.022979319095612</v>
+        <v>0.9961584210395813</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Bravo Silva</t>
+          <t>Gloria Del Transito Alvarado Jorquera</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C52">
-        <v>1.039959788322449</v>
+        <v>1.008297204971313</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Adolfo Millabur Ñancuil</t>
+          <t>Manuela Royo Letelier</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C53">
-        <v>1.043300330638885</v>
+        <v>1.031138300895691</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nicolas Fernando Nuñez Gangas</t>
+          <t>Margarita Vargas Lopez</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C54">
-        <v>1.089525818824768</v>
+        <v>1.034444272518158</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lidia Gonzalez Calderon</t>
+          <t>Elisa Amanda Giustinianovich Campos</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C55">
-        <v>1.10429435968399</v>
+        <v>1.034743189811707</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Maria Magdalena Rivera Iribarren</t>
+          <t>Rosa Elizabeth Catrileo Arias</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C56">
-        <v>1.142017543315887</v>
+        <v>1.041371524333954</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Rosa Elizabeth Catrileo Arias</t>
+          <t>Alondra Carrillo Vidal</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C57">
-        <v>1.170795857906342</v>
+        <v>1.047984659671783</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Luis Alberto Jimenez Caceres</t>
+          <t>Adolfo Millabur Ñancuil</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1226,58 +1226,58 @@
         </is>
       </c>
       <c r="C58">
-        <v>1.171388030052185</v>
+        <v>1.072572767734528</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Elisa Loncon Antileo</t>
+          <t>Carolina Cyntia Vilches Fuenzalida</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C59">
-        <v>1.316989362239838</v>
+        <v>1.08791321516037</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Isabella Brunilda Mamani Mamani</t>
+          <t>Cristina Ines Dorador Ortiz</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C60">
-        <v>1.320917904376984</v>
+        <v>1.1116823554039</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rossana Loreto Vidal Hernandez</t>
+          <t>Tiare Maeva Carolina Aguilera Hey</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C61">
-        <v>1.386940479278564</v>
+        <v>1.444988250732422</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tiare Maeva Carolina Aguilera Hey</t>
+          <t>Elisa Loncon Antileo</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>1.449128985404968</v>
+        <v>1.610834300518036</v>
       </c>
     </row>
     <row r="63">
@@ -1301,73 +1301,73 @@
         </is>
       </c>
       <c r="C63">
-        <v>1.534043848514557</v>
+        <v>1.690380573272705</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Malucha Pinto Solari</t>
+          <t>Renato Fabrizio Garin Gonzalez</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C64">
-        <v>1.637394428253174</v>
+        <v>1.8512362241745</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Barbara Sepulveda Hales</t>
+          <t>Rossana Loreto Vidal Hernandez</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C65">
-        <v>1.676305830478668</v>
+        <v>1.979095339775085</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bessy Mireya Del Rosario Gallardo Prado</t>
+          <t>Malucha Pinto Solari</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C66">
-        <v>1.819781363010406</v>
+        <v>1.99374794960022</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mariela Andrea Serey Jimenez</t>
+          <t>Juan Jose Martin Bravo</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C67">
-        <v>1.864246129989624</v>
+        <v>2.302038371562958</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Damaris Abarca Gonzalez</t>
+          <t>Yarela Nicohl Gomez Sanchez</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1376,28 +1376,28 @@
         </is>
       </c>
       <c r="C68">
-        <v>1.94552093744278</v>
+        <v>2.378277778625488</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Benito Jose Baranda Ferran</t>
+          <t>Mariela Andrea Serey Jimenez</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C69">
-        <v>1.958858966827393</v>
+        <v>2.428722977638245</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Jeniffer Valeria Mella Escobar</t>
+          <t>Damaris Abarca Gonzalez</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>1.979534924030304</v>
+        <v>2.428804039955139</v>
       </c>
     </row>
     <row r="71">
@@ -1421,28 +1421,28 @@
         </is>
       </c>
       <c r="C71">
-        <v>1.997784376144409</v>
+        <v>2.468092739582062</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Juan Jose Martin Bravo</t>
+          <t>Constanza Gabriela Schonhaut Soto</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C72">
-        <v>2.009271681308746</v>
+        <v>2.492702901363373</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Yarela Nicohl Gomez Sanchez</t>
+          <t>Amaya Paulina Alvez Marin</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="C73">
-        <v>2.013438940048218</v>
+        <v>2.510153353214264</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Amaya Paulina Alvez Marin</t>
+          <t>Giovanna Angela Roa Cadin</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1466,13 +1466,13 @@
         </is>
       </c>
       <c r="C74">
-        <v>2.065435349941254</v>
+        <v>2.516644895076752</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Giovanna Angela Roa Cadin</t>
+          <t>Ignacio Jaime Achurra Diaz</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="C75">
-        <v>2.14826762676239</v>
+        <v>2.571012079715729</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Beatriz De Jesus Sanchez Muñoz</t>
+          <t>Tatiana Karina Urrutia Herrera</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1496,88 +1496,88 @@
         </is>
       </c>
       <c r="C76">
-        <v>2.202978432178497</v>
+        <v>2.579386383295059</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ramona Reyes Painequeo</t>
+          <t>Jaime Andres Bassa Mercado</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C77">
-        <v>2.239150404930115</v>
+        <v>2.628971189260483</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ignacio Jaime Achurra Diaz</t>
+          <t>Benito Jose Baranda Ferran</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C78">
-        <v>2.258817851543427</v>
+        <v>2.638112157583237</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Tatiana Karina Urrutia Herrera</t>
+          <t>Mario Vargas Vidal</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C79">
-        <v>2.272306978702545</v>
+        <v>2.640772312879562</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Mario Vargas Vidal</t>
+          <t>Maria Jose Oyarzun Solis</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C80">
-        <v>2.315248548984528</v>
+        <v>2.650815099477768</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Adriana Cancino Meneses</t>
+          <t>Beatriz De Jesus Sanchez Muñoz</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C81">
-        <v>2.324793338775635</v>
+        <v>2.690468579530716</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Daniel Rodrigo Stingo Camus</t>
+          <t>Jeniffer Valeria Mella Escobar</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C82">
-        <v>2.335997819900513</v>
+        <v>2.703588902950287</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Constanza Gabriela Schonhaut Soto</t>
+          <t>Jorge Baradit Morales</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1601,28 +1601,28 @@
         </is>
       </c>
       <c r="C83">
-        <v>2.384516000747681</v>
+        <v>2.731180787086487</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Claudio Gomez Castro</t>
+          <t>Helmuth Jacobo Martinez Llancapan</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C84">
-        <v>2.416011691093445</v>
+        <v>2.765140384435654</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Jaime Andres Bassa Mercado</t>
+          <t>Fernando Atria Lemaitre</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1631,37 +1631,37 @@
         </is>
       </c>
       <c r="C85">
-        <v>2.438618838787079</v>
+        <v>2.823795974254608</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Paulina Valeria Valenzuela Rio</t>
+          <t>Daniel Rodrigo Stingo Camus</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C86">
-        <v>2.455876171588898</v>
+        <v>2.875387072563171</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Maria Jose Oyarzun Solis</t>
+          <t>Gaspar Roberto Dominguez Donoso</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C87">
-        <v>2.49078631401062</v>
+        <v>2.920657247304916</v>
       </c>
     </row>
     <row r="88">
@@ -1676,37 +1676,37 @@
         </is>
       </c>
       <c r="C88">
-        <v>2.528224885463715</v>
+        <v>2.935700863599777</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Jorge Baradit Morales</t>
+          <t>Adriana Cancino Meneses</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C89">
-        <v>2.532248198986053</v>
+        <v>2.955108880996704</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Carlos Calvo Muñoz</t>
+          <t>Paulina Valeria Valenzuela Rio</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C90">
-        <v>2.557082027196884</v>
+        <v>2.968194335699081</v>
       </c>
     </row>
     <row r="91">
@@ -1721,13 +1721,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>2.610473185777664</v>
+        <v>2.997483313083649</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Julio Alvarez Pinto</t>
+          <t>Claudio Gomez Castro</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1736,28 +1736,28 @@
         </is>
       </c>
       <c r="C92">
-        <v>2.656501829624176</v>
+        <v>3.016617447137833</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Matias Orellana Cuellar</t>
+          <t>Guillermo Nicolas Namor Kong</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C93">
-        <v>2.760415524244308</v>
+        <v>3.054431527853012</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Guillermo Nicolas Namor Kong</t>
+          <t>Javier Fuchslocher Baeza</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1766,58 +1766,58 @@
         </is>
       </c>
       <c r="C94">
-        <v>2.780167460441589</v>
+        <v>3.069591522216797</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Renato Fabrizio Garin Gonzalez</t>
+          <t>Bessy Mireya Del Rosario Gallardo Prado</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C95">
-        <v>2.795046269893646</v>
+        <v>3.084848523139954</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Gaspar Roberto Dominguez Donoso</t>
+          <t>Julio Alvarez Pinto</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C96">
-        <v>2.83404678106308</v>
+        <v>3.093911856412888</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mauricio Daza Carrasco</t>
+          <t>Pedro Muñoz Leiva</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C97">
-        <v>2.866462469100952</v>
+        <v>3.247925341129303</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Carolina Andrea Sepulveda Sepulveda</t>
+          <t>Patricia Politzer Kerekes</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1826,13 +1826,13 @@
         </is>
       </c>
       <c r="C98">
-        <v>2.890198081731796</v>
+        <v>3.301491886377335</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Maria Trinidad Castillo Boilet</t>
+          <t>Matias Orellana Cuellar</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>2.89724662899971</v>
+        <v>3.320661187171936</v>
       </c>
     </row>
     <row r="100">
@@ -1856,67 +1856,67 @@
         </is>
       </c>
       <c r="C100">
-        <v>2.954144477844238</v>
+        <v>3.339489102363586</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Javier Fuchslocher Baeza</t>
+          <t>Ramona Reyes Painequeo</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C101">
-        <v>2.969349771738052</v>
+        <v>3.355483859777451</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Fernando Atria Lemaitre</t>
+          <t>Carolina Andrea Sepulveda Sepulveda</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C102">
-        <v>3.09332087635994</v>
+        <v>3.36595430970192</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Patricia Politzer Kerekes</t>
+          <t>Patricio Fernandez Chadwick</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C103">
-        <v>3.182858228683472</v>
+        <v>3.448756188154221</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Tomas Laibe Saez</t>
+          <t>Mauricio Daza Carrasco</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C104">
-        <v>3.19152444601059</v>
+        <v>3.449138700962067</v>
       </c>
     </row>
     <row r="105">
@@ -1931,22 +1931,22 @@
         </is>
       </c>
       <c r="C105">
-        <v>3.259143829345703</v>
+        <v>3.460842967033386</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Helmuth Jacobo Martinez Llancapan</t>
+          <t>Ricardo Montero Allende</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C106">
-        <v>3.282538950443268</v>
+        <v>3.515638709068298</v>
       </c>
     </row>
     <row r="107">
@@ -1961,13 +1961,13 @@
         </is>
       </c>
       <c r="C107">
-        <v>3.318928182125092</v>
+        <v>3.552671074867249</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Patricio Fernandez Chadwick</t>
+          <t>Carlos Calvo Muñoz</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1976,13 +1976,13 @@
         </is>
       </c>
       <c r="C108">
-        <v>3.370533287525177</v>
+        <v>3.570847511291504</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ricardo Montero Allende</t>
+          <t>Tomas Laibe Saez</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="C109">
-        <v>3.372746855020523</v>
+        <v>3.718428760766983</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Pedro Muñoz Leiva</t>
+          <t>Maximiliano Hurtado Roco</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2006,13 +2006,13 @@
         </is>
       </c>
       <c r="C110">
-        <v>3.452613204717636</v>
+        <v>3.746839463710785</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Maximiliano Hurtado Roco</t>
+          <t>Maria Trinidad Castillo Boilet</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2021,43 +2021,43 @@
         </is>
       </c>
       <c r="C111">
-        <v>3.479733467102051</v>
+        <v>3.800927773118019</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Andres Cruz Carrasco</t>
+          <t>Eduardo Guillermo Castillo Vigouroux</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Colectivo del Apruebo</t>
         </is>
       </c>
       <c r="C112">
-        <v>3.633101582527161</v>
+        <v>4.22654964029789</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Luis Ramon Barcelo Amado</t>
+          <t>Andres Cruz Carrasco</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Colectivo del Apruebo</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C113">
-        <v>4.094093665480614</v>
+        <v>4.336414933204651</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Eduardo Guillermo Castillo Vigouroux</t>
+          <t>Luis Ramon Barcelo Amado</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2066,13 +2066,13 @@
         </is>
       </c>
       <c r="C114">
-        <v>4.137826710939407</v>
+        <v>4.374180883169174</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Miguel Angel Botto Salinas</t>
+          <t>Fuad Chahin Valenzuela</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="C115">
-        <v>4.3503437936306</v>
+        <v>4.599272012710571</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Fuad Chahin Valenzuela</t>
+          <t>Miguel Angel Botto Salinas</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>4.3996986374259</v>
+        <v>4.695798698812723</v>
       </c>
     </row>
     <row r="117">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="C117">
-        <v>4.421808943152428</v>
+        <v>4.819276314228773</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Rodrigo Logan Soto</t>
+          <t>Felipe Harboe Bascuñan</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2126,13 +2126,13 @@
         </is>
       </c>
       <c r="C118">
-        <v>4.657094851136208</v>
+        <v>4.832075368613005</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Felipe Harboe Bascuñan</t>
+          <t>Rodrigo Logan Soto</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>4.940092908218503</v>
+        <v>5.302904713898897</v>
       </c>
     </row>
     <row r="120">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>5.504446141421795</v>
+        <v>5.755152627825737</v>
       </c>
     </row>
     <row r="121">
@@ -2171,13 +2171,13 @@
         </is>
       </c>
       <c r="C121">
-        <v>6.415506899356842</v>
+        <v>6.254843473434448</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cristian Monckeberg Bruner</t>
+          <t>Manuel Jose Ossandon Lira</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2186,13 +2186,13 @@
         </is>
       </c>
       <c r="C122">
-        <v>6.68032318353653</v>
+        <v>6.549109518527985</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Geoconda Navarrete Arratia</t>
+          <t>Paulina Veloso Muñoz</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2201,13 +2201,13 @@
         </is>
       </c>
       <c r="C123">
-        <v>6.790468394756317</v>
+        <v>6.65161669254303</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Paulina Veloso Muñoz</t>
+          <t>Cristian Monckeberg Bruner</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2216,13 +2216,13 @@
         </is>
       </c>
       <c r="C124">
-        <v>6.794219613075256</v>
+        <v>6.651622354984283</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Raul Celis Montt</t>
+          <t>Geoconda Navarrete Arratia</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="C125">
-        <v>6.917293220758438</v>
+        <v>6.789733022451401</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Roberto Vega Campusano</t>
+          <t>Hernan Larrain Matte</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2246,13 +2246,13 @@
         </is>
       </c>
       <c r="C126">
-        <v>7.043928653001785</v>
+        <v>6.856350153684616</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Angelica Tepper Kolossa</t>
+          <t>Raul Celis Montt</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2261,13 +2261,13 @@
         </is>
       </c>
       <c r="C127">
-        <v>7.07263857126236</v>
+        <v>6.939211040735245</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Patricia Labra Besserer</t>
+          <t>Angelica Tepper Kolossa</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="C128">
-        <v>7.119402438402176</v>
+        <v>6.939601451158524</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hernan Larrain Matte</t>
+          <t>Barbara Rebolledo Aguirre</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2291,13 +2291,13 @@
         </is>
       </c>
       <c r="C129">
-        <v>7.169616371393204</v>
+        <v>6.950046420097351</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Manuel Jose Ossandon Lira</t>
+          <t>Ruggero Cozzi Elzo</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2306,13 +2306,13 @@
         </is>
       </c>
       <c r="C130">
-        <v>7.195067703723907</v>
+        <v>6.954087316989899</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Bernardo Fontaine Talavera</t>
+          <t>Roberto Vega Campusano</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2321,13 +2321,13 @@
         </is>
       </c>
       <c r="C131">
-        <v>7.287867814302444</v>
+        <v>7.095718085765839</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Barbara Rebolledo Aguirre</t>
+          <t>Alvaro Jofre Caceres</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2336,13 +2336,13 @@
         </is>
       </c>
       <c r="C132">
-        <v>7.307865023612976</v>
+        <v>7.379880100488663</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ruggero Cozzi Elzo</t>
+          <t>Patricia Labra Besserer</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="C133">
-        <v>7.325599491596222</v>
+        <v>7.405029982328415</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Alvaro Jofre Caceres</t>
+          <t>Bernardo Fontaine Talavera</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>7.422237992286682</v>
+        <v>7.417505532503128</v>
       </c>
     </row>
     <row r="135">
@@ -2381,28 +2381,28 @@
         </is>
       </c>
       <c r="C135">
-        <v>7.581027448177338</v>
+        <v>7.651892006397247</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Jorge Arancibia Reyes</t>
+          <t>Alfredo Moreno Echeverria</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C136">
-        <v>8.478690981864929</v>
+        <v>7.820881009101868</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Alfredo Moreno Echeverria</t>
+          <t>Felipe Ignacio Mena Villar</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2411,43 +2411,43 @@
         </is>
       </c>
       <c r="C137">
-        <v>8.494898080825806</v>
+        <v>7.910785377025604</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Felipe Ignacio Mena Villar</t>
+          <t>Ricardo Neumann Bertin</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C138">
-        <v>8.577037453651428</v>
+        <v>7.978337407112122</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Eduardo Andres Cretton Rebolledo</t>
+          <t>Claudia Mabel Castro Gutierrez</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C139">
-        <v>8.611165583133698</v>
+        <v>8.219082355499268</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Ricardo Neumann Bertin</t>
+          <t>Eduardo Andres Cretton Rebolledo</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2456,13 +2456,13 @@
         </is>
       </c>
       <c r="C140">
-        <v>8.612886667251587</v>
+        <v>8.307677805423737</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Maria Cecilia Ubilla Perez</t>
+          <t>Pollyana Rivera Bigas</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2471,13 +2471,13 @@
         </is>
       </c>
       <c r="C141">
-        <v>8.614954054355621</v>
+        <v>8.324841558933258</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Margarita Letelier Cortes</t>
+          <t>Harry Jurgensen Caesar</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2486,13 +2486,13 @@
         </is>
       </c>
       <c r="C142">
-        <v>8.625125885009766</v>
+        <v>8.327064216136932</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Rodrigo Alvarez Zenteno</t>
+          <t>Maria Cecilia Ubilla Perez</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2501,13 +2501,13 @@
         </is>
       </c>
       <c r="C143">
-        <v>8.673819899559021</v>
+        <v>8.345324993133545</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Pollyana Rivera Bigas</t>
+          <t>Jorge Arancibia Reyes</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2516,22 +2516,22 @@
         </is>
       </c>
       <c r="C144">
-        <v>8.704153597354889</v>
+        <v>8.394388854503632</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Claudia Mabel Castro Gutierrez</t>
+          <t>Rodrigo Alvarez Zenteno</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C145">
-        <v>8.758508861064911</v>
+        <v>8.428071737289429</v>
       </c>
     </row>
     <row r="146">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>8.801478147506714</v>
+        <v>8.436487317085266</v>
       </c>
     </row>
     <row r="147">
@@ -2561,28 +2561,28 @@
         </is>
       </c>
       <c r="C147">
-        <v>8.817272484302521</v>
+        <v>8.44913125038147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Harry Jurgensen Caesar</t>
+          <t>Marcela Cubillos Sigall</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Chile Libre</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C148">
-        <v>8.967494666576385</v>
+        <v>8.578116297721863</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Marcela Cubillos Sigall</t>
+          <t>Carol Bown Sepulveda</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2591,28 +2591,28 @@
         </is>
       </c>
       <c r="C149">
-        <v>9.062357544898987</v>
+        <v>8.659534454345703</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Carol Bown Sepulveda</t>
+          <t>Margarita Letelier Cortes</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Chile Libre</t>
         </is>
       </c>
       <c r="C150">
-        <v>9.102128446102142</v>
+        <v>8.844871819019318</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Katerine Montealegre Navarro</t>
+          <t>Constanza Hube Portus</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2621,43 +2621,43 @@
         </is>
       </c>
       <c r="C151">
-        <v>9.124814867973328</v>
+        <v>8.977967798709869</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Martin Arrau Garcia-Huidobro</t>
+          <t>Katerine Montealegre Navarro</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Chile Libre</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C152">
-        <v>9.195104539394379</v>
+        <v>9.128653407096863</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Constanza Hube Portus</t>
+          <t>Ruth Hurtado Olave</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Chile Libre</t>
         </is>
       </c>
       <c r="C153">
-        <v>9.277994930744171</v>
+        <v>9.327214062213898</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Ruth Hurtado Olave</t>
+          <t>Rocio Cantuarias Rubio</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2666,13 +2666,13 @@
         </is>
       </c>
       <c r="C154">
-        <v>9.378696978092194</v>
+        <v>9.441753625869751</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Teresa Marinovic Vial</t>
+          <t>Martin Arrau Garcia-Huidobro</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2681,13 +2681,13 @@
         </is>
       </c>
       <c r="C155">
-        <v>9.462749660015106</v>
+        <v>9.474573731422424</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Rocio Cantuarias Rubio</t>
+          <t>Teresa Marinovic Vial</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>9.528925716876984</v>
+        <v>9.532529711723328</v>
       </c>
     </row>
   </sheetData>

--- a/files/puntajes.xlsx
+++ b/files/puntajes.xlsx
@@ -377,7 +377,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Isabel Selena Godoy Monardez</t>
+          <t>Alexis Caiguan Ancapan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -386,28 +386,28 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.3835573792457581</v>
+        <v>0.3528842329978943</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Felix Galleguillos Aymani</t>
+          <t>Tania Isabel Madriaga Flores</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.4669937491416931</v>
+        <v>0.4132992029190063</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Natividad Llanquileo Pilquiman</t>
+          <t>Isabel Selena Godoy Monardez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -416,88 +416,88 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.5061525106430054</v>
+        <v>0.4414162039756775</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fernando Del Carmen Tirado Soto</t>
+          <t>Alejandra Pia Perez Espina</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.5069407820701599</v>
+        <v>0.4572582244873047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dayyana Gonzalez Araya</t>
+          <t>Manuel Mauricio Woldarsky Gonzalez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.5314528942108154</v>
+        <v>0.459611713886261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ericka Portilla Barrios</t>
+          <t>Wilfredo Manuel Bacian Delgado</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.536266565322876</v>
+        <v>0.468066930770874</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wilfredo Manuel Bacian Delgado</t>
+          <t>Marco Antonio Arellano Ortega</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.5397891998291016</v>
+        <v>0.4827097058296204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Camila Ignacia Zarate Zarate</t>
+          <t>Natividad Llanquileo Pilquiman</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.5445319414138794</v>
+        <v>0.5041152238845825</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Victorino Antilef Ñanco</t>
+          <t>Eric Chinga Ferreira</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.5580368638038635</v>
+        <v>0.5051097273826599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lisette Lorena Vergara Riquelme</t>
+          <t>Giovanna Jazmin Grandon Caro</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -521,73 +521,73 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.5732828378677368</v>
+        <v>0.5235365033149719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Eric Chinga Ferreira</t>
+          <t>Constanza Andrea San Juan Standen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.5743443965911865</v>
+        <v>0.5307647585868835</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Constanza Andrea San Juan Standen</t>
+          <t>Victorino Antilef Ñanco</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.5796238780021667</v>
+        <v>0.5353638529777527</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Elsa Carolina Labraña Pino</t>
+          <t>Ericka Portilla Barrios</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.5890688300132751</v>
+        <v>0.5430558323860168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Marcos Patricio Barraza Gomez</t>
+          <t>Lisette Lorena Vergara Riquelme</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.598067045211792</v>
+        <v>0.5443137884140015</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ingrid Fernanda Villena Narbona</t>
+          <t>Ivanna Daniela Olivares Miranda</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -596,43 +596,43 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.5995568633079529</v>
+        <v>0.5444645881652832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carolina Eliana Videla Osorio</t>
+          <t>Cristobal Patricio Andrade Leon</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.6011116504669189</v>
+        <v>0.5508103966712952</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Loreto Cristina Vallejos Davila</t>
+          <t>Francisca Linconao Huircapan</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.6017428636550903</v>
+        <v>0.5641013383865356</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Natalia Esther Henriquez Carreño</t>
+          <t>Camila Ignacia Zarate Zarate</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -641,52 +641,52 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.6041547656059265</v>
+        <v>0.5680233240127563</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hugo Humberto Gutierrez Galvez</t>
+          <t>Dayyana Gonzalez Araya</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.6172820925712585</v>
+        <v>0.6117728352546692</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cristobal Patricio Andrade Leon</t>
+          <t>Francisco Javier Caamaño Rojas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.6406718492507935</v>
+        <v>0.6299114227294922</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Valentina Andrea Miranda Arce</t>
+          <t>Elsa Carolina Labraña Pino</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.6425368785858154</v>
+        <v>0.635560154914856</v>
       </c>
     </row>
     <row r="23">
@@ -701,43 +701,43 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.6459182500839233</v>
+        <v>0.6892281770706177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Alejandra Pia Perez Espina</t>
+          <t>Paola Alejandra Grandon Gonzalez</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.6639936566352844</v>
+        <v>0.7046908140182495</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ivanna Daniela Olivares Miranda</t>
+          <t>Rodrigo Ernesto Rojas Vade</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.6765004992485046</v>
+        <v>0.7104930281639099</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Paola Alejandra Grandon Gonzalez</t>
+          <t>Hernan Jesus Velasquez Nuñez</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -746,208 +746,208 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.6837618350982666</v>
+        <v>0.7349824905395508</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Maria Magdalena Rivera Iribarren</t>
+          <t>Fernando Salinas Manfredini</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.6909734010696411</v>
+        <v>0.7358840107917786</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tania Isabel Madriaga Flores</t>
+          <t>Hugo Humberto Gutierrez Galvez</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.6930264830589294</v>
+        <v>0.7372039556503296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Francisco Javier Caamaño Rojas</t>
+          <t>Carolina Cyntia Vilches Fuenzalida</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.6978940963745117</v>
+        <v>0.7706081867218018</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Alexis Caiguan Ancapan</t>
+          <t>Gloria Del Transito Alvarado Jorquera</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.6991922855377197</v>
+        <v>0.8284488320350647</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lidia Gonzalez Calderon</t>
+          <t>Alejandra Alicia Flores Carlos</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.712030827999115</v>
+        <v>0.8389991521835327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Barbara Sepulveda Hales</t>
+          <t>Felix Galleguillos Aymani</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.7198077440261841</v>
+        <v>0.8610233664512634</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Adriana Camila Ampuero Barrientos</t>
+          <t>Cristina Ines Dorador Ortiz</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.7226604223251343</v>
+        <v>0.8792775869369507</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Manuel Mauricio Woldarsky Gonzalez</t>
+          <t>Manuela Royo Letelier</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.7428106665611267</v>
+        <v>0.8797246217727661</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hernan Jesus Velasquez Nuñez</t>
+          <t>Alvin Antonio Saldaña Muñoz</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.7472443580627441</v>
+        <v>0.8851698040962219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Rodrigo Ernesto Rojas Vade</t>
+          <t>Adriana Camila Ampuero Barrientos</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.7533466815948486</v>
+        <v>0.8893802762031555</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Marco Antonio Arellano Ortega</t>
+          <t>Margarita Vargas Lopez</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.757872462272644</v>
+        <v>0.8927389979362488</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Giovanna Jazmin Grandon Caro</t>
+          <t>Bastian Esteban Labbe Salazar</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.7702773809432983</v>
+        <v>0.9023889899253845</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Francisca Marycarmen Arauna Urrutia</t>
+          <t>Marcos Patricio Barraza Gomez</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.8053696155548096</v>
+        <v>0.9150424599647522</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Bravo Silva</t>
+          <t>Ingrid Fernanda Villena Narbona</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -956,73 +956,73 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.8147713541984558</v>
+        <v>0.9186452627182007</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fernando Salinas Manfredini</t>
+          <t>Maria Elisa Quinteros Caceres</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.8461374044418335</v>
+        <v>0.9301027655601501</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Luis Alberto Jimenez Caceres</t>
+          <t>Elisa Amanda Giustinianovich Campos</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.8754757046699524</v>
+        <v>0.9374386072158813</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Isabella Brunilda Mamani Mamani</t>
+          <t>Valentina Andrea Miranda Arce</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.8832922577857971</v>
+        <v>0.9465357661247253</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nicolas Fernando Nuñez Gangas</t>
+          <t>Janis Jan Del Carmen Meneses Palma</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.8883503079414368</v>
+        <v>0.9635761380195618</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Alejandra Alicia Flores Carlos</t>
+          <t>Vanessa Camila Hoppe Espoz</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1031,43 +1031,43 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.8994174003601074</v>
+        <v>0.9680661559104919</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Alvin Antonio Saldaña Muñoz</t>
+          <t>Fernando Del Carmen Tirado Soto</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.9174501895904541</v>
+        <v>0.9800243377685547</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Francisca Linconao Huircapan</t>
+          <t>Francisca Marycarmen Arauna Urrutia</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.9311273694038391</v>
+        <v>0.9876808524131775</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Maria Elisa Quinteros Caceres</t>
+          <t>Alondra Carrillo Vidal</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1076,148 +1076,148 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.9345796704292297</v>
+        <v>0.9883081912994385</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Vanessa Camila Hoppe Espoz</t>
+          <t>Loreto Cristina Vallejos Davila</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.9492942690849304</v>
+        <v>1.007908582687378</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Janis Jan Del Carmen Meneses Palma</t>
+          <t>Natalia Esther Henriquez Carreño</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.9539774060249329</v>
+        <v>1.020228862762451</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bastian Esteban Labbe Salazar</t>
+          <t>Adolfo Millabur Ñancuil</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.9961584210395813</v>
+        <v>1.034798324108124</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gloria Del Transito Alvarado Jorquera</t>
+          <t>Carolina Eliana Videla Osorio</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C52">
-        <v>1.008297204971313</v>
+        <v>1.041458249092102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Manuela Royo Letelier</t>
+          <t>Maria Magdalena Rivera Iribarren</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C53">
-        <v>1.031138300895691</v>
+        <v>1.080747246742249</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Margarita Vargas Lopez</t>
+          <t>Daniel Alejandro Bravo Silva</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C54">
-        <v>1.034444272518158</v>
+        <v>1.082031428813934</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Elisa Amanda Giustinianovich Campos</t>
+          <t>Lidia Gonzalez Calderon</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C55">
-        <v>1.034743189811707</v>
+        <v>1.114457547664642</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Rosa Elizabeth Catrileo Arias</t>
+          <t>Nicolas Fernando Nuñez Gangas</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C56">
-        <v>1.041371524333954</v>
+        <v>1.127121150493622</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Alondra Carrillo Vidal</t>
+          <t>Rosa Elizabeth Catrileo Arias</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C57">
-        <v>1.047984659671783</v>
+        <v>1.16967499256134</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Adolfo Millabur Ñancuil</t>
+          <t>Luis Alberto Jimenez Caceres</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1226,43 +1226,43 @@
         </is>
       </c>
       <c r="C58">
-        <v>1.072572767734528</v>
+        <v>1.192066371440887</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Carolina Cyntia Vilches Fuenzalida</t>
+          <t>Elisa Loncon Antileo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C59">
-        <v>1.08791321516037</v>
+        <v>1.315359175205231</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cristina Ines Dorador Ortiz</t>
+          <t>Rossana Loreto Vidal Hernandez</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C60">
-        <v>1.1116823554039</v>
+        <v>1.375499963760376</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Tiare Maeva Carolina Aguilera Hey</t>
+          <t>Isabella Brunilda Mamani Mamani</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C61">
-        <v>1.444988250732422</v>
+        <v>1.384913921356201</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Elisa Loncon Antileo</t>
+          <t>Tiare Maeva Carolina Aguilera Hey</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>1.610834300518036</v>
+        <v>1.516118049621582</v>
       </c>
     </row>
     <row r="63">
@@ -1301,73 +1301,73 @@
         </is>
       </c>
       <c r="C63">
-        <v>1.690380573272705</v>
+        <v>1.60113126039505</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Renato Fabrizio Garin Gonzalez</t>
+          <t>Malucha Pinto Solari</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C64">
-        <v>1.8512362241745</v>
+        <v>1.615283489227295</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Rossana Loreto Vidal Hernandez</t>
+          <t>Barbara Sepulveda Hales</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C65">
-        <v>1.979095339775085</v>
+        <v>1.76302433013916</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Malucha Pinto Solari</t>
+          <t>Bessy Mireya Del Rosario Gallardo Prado</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C66">
-        <v>1.99374794960022</v>
+        <v>1.82818204164505</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Juan Jose Martin Bravo</t>
+          <t>Mariela Andrea Serey Jimenez</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C67">
-        <v>2.302038371562958</v>
+        <v>1.871617436408997</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Yarela Nicohl Gomez Sanchez</t>
+          <t>Damaris Abarca Gonzalez</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1376,28 +1376,28 @@
         </is>
       </c>
       <c r="C68">
-        <v>2.378277778625488</v>
+        <v>1.982318758964539</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Mariela Andrea Serey Jimenez</t>
+          <t>Benito Jose Baranda Ferran</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C69">
-        <v>2.428722977638245</v>
+        <v>2.006556689739227</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Damaris Abarca Gonzalez</t>
+          <t>Jeniffer Valeria Mella Escobar</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>2.428804039955139</v>
+        <v>2.027148306369781</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="C71">
-        <v>2.468092739582062</v>
+        <v>2.043026685714722</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Constanza Gabriela Schonhaut Soto</t>
+          <t>Yarela Nicohl Gomez Sanchez</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1436,28 +1436,28 @@
         </is>
       </c>
       <c r="C72">
-        <v>2.492702901363373</v>
+        <v>2.0498988032341</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Amaya Paulina Alvez Marin</t>
+          <t>Juan Jose Martin Bravo</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C73">
-        <v>2.510153353214264</v>
+        <v>2.100895941257477</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Giovanna Angela Roa Cadin</t>
+          <t>Amaya Paulina Alvez Marin</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1466,13 +1466,13 @@
         </is>
       </c>
       <c r="C74">
-        <v>2.516644895076752</v>
+        <v>2.131814360618591</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ignacio Jaime Achurra Diaz</t>
+          <t>Tatiana Karina Urrutia Herrera</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="C75">
-        <v>2.571012079715729</v>
+        <v>2.143677175045013</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Tatiana Karina Urrutia Herrera</t>
+          <t>Daniel Rodrigo Stingo Camus</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1496,88 +1496,88 @@
         </is>
       </c>
       <c r="C76">
-        <v>2.579386383295059</v>
+        <v>2.228956818580627</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Jaime Andres Bassa Mercado</t>
+          <t>Ramona Reyes Painequeo</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C77">
-        <v>2.628971189260483</v>
+        <v>2.237100303173065</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Benito Jose Baranda Ferran</t>
+          <t>Ignacio Jaime Achurra Diaz</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C78">
-        <v>2.638112157583237</v>
+        <v>2.258729338645935</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mario Vargas Vidal</t>
+          <t>Giovanna Angela Roa Cadin</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C79">
-        <v>2.640772312879562</v>
+        <v>2.288163900375366</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Maria Jose Oyarzun Solis</t>
+          <t>Mario Vargas Vidal</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C80">
-        <v>2.650815099477768</v>
+        <v>2.37069696187973</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Beatriz De Jesus Sanchez Muñoz</t>
+          <t>Adriana Cancino Meneses</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C81">
-        <v>2.690468579530716</v>
+        <v>2.376869022846222</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Jeniffer Valeria Mella Escobar</t>
+          <t>Constanza Gabriela Schonhaut Soto</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C82">
-        <v>2.703588902950287</v>
+        <v>2.388351559638977</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Jorge Baradit Morales</t>
+          <t>Beatriz De Jesus Sanchez Muñoz</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1601,28 +1601,28 @@
         </is>
       </c>
       <c r="C83">
-        <v>2.731180787086487</v>
+        <v>2.398082911968231</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Helmuth Jacobo Martinez Llancapan</t>
+          <t>Claudio Gomez Castro</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C84">
-        <v>2.765140384435654</v>
+        <v>2.485414445400238</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Fernando Atria Lemaitre</t>
+          <t>Maria Jose Oyarzun Solis</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C85">
-        <v>2.823795974254608</v>
+        <v>2.495940625667572</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Daniel Rodrigo Stingo Camus</t>
+          <t>Jorge Baradit Morales</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="C86">
-        <v>2.875387072563171</v>
+        <v>2.502368688583374</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Gaspar Roberto Dominguez Donoso</t>
+          <t>Paulina Valeria Valenzuela Rio</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>2.920657247304916</v>
+        <v>2.510851174592972</v>
       </c>
     </row>
     <row r="88">
@@ -1676,13 +1676,13 @@
         </is>
       </c>
       <c r="C88">
-        <v>2.935700863599777</v>
+        <v>2.57825493812561</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Adriana Cancino Meneses</t>
+          <t>Carlos Calvo Muñoz</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="C89">
-        <v>2.955108880996704</v>
+        <v>2.602347135543823</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Paulina Valeria Valenzuela Rio</t>
+          <t>Jaime Andres Bassa Mercado</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C90">
-        <v>2.968194335699081</v>
+        <v>2.622945457696915</v>
       </c>
     </row>
     <row r="91">
@@ -1721,13 +1721,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>2.997483313083649</v>
+        <v>2.661851346492767</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Claudio Gomez Castro</t>
+          <t>Julio Alvarez Pinto</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1736,28 +1736,28 @@
         </is>
       </c>
       <c r="C92">
-        <v>3.016617447137833</v>
+        <v>2.696189731359482</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Guillermo Nicolas Namor Kong</t>
+          <t>Matias Orellana Cuellar</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C93">
-        <v>3.054431527853012</v>
+        <v>2.815781533718109</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Javier Fuchslocher Baeza</t>
+          <t>Gaspar Roberto Dominguez Donoso</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1766,88 +1766,88 @@
         </is>
       </c>
       <c r="C94">
-        <v>3.069591522216797</v>
+        <v>2.834374457597733</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Bessy Mireya Del Rosario Gallardo Prado</t>
+          <t>Guillermo Nicolas Namor Kong</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C95">
-        <v>3.084848523139954</v>
+        <v>2.866901755332947</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Julio Alvarez Pinto</t>
+          <t>Mauricio Daza Carrasco</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C96">
-        <v>3.093911856412888</v>
+        <v>2.871715873479843</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Pedro Muñoz Leiva</t>
+          <t>Renato Fabrizio Garin Gonzalez</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C97">
-        <v>3.247925341129303</v>
+        <v>2.872758805751801</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Patricia Politzer Kerekes</t>
+          <t>Maria Trinidad Castillo Boilet</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C98">
-        <v>3.301491886377335</v>
+        <v>2.945639044046402</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Matias Orellana Cuellar</t>
+          <t>Carolina Andrea Sepulveda Sepulveda</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C99">
-        <v>3.320661187171936</v>
+        <v>2.959983795881271</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Lorena Del Pilar Cespedes Fernandez</t>
+          <t>Javier Fuchslocher Baeza</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1856,43 +1856,43 @@
         </is>
       </c>
       <c r="C100">
-        <v>3.339489102363586</v>
+        <v>3.006495386362076</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ramona Reyes Painequeo</t>
+          <t>Lorena Del Pilar Cespedes Fernandez</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C101">
-        <v>3.355483859777451</v>
+        <v>3.036541491746902</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Carolina Andrea Sepulveda Sepulveda</t>
+          <t>Tomas Laibe Saez</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C102">
-        <v>3.36595430970192</v>
+        <v>3.248572051525116</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Patricio Fernandez Chadwick</t>
+          <t>Cesar Valenzuela Maass</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C103">
-        <v>3.448756188154221</v>
+        <v>3.265874534845352</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Mauricio Daza Carrasco</t>
+          <t>Patricia Politzer Kerekes</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1916,73 +1916,73 @@
         </is>
       </c>
       <c r="C104">
-        <v>3.449138700962067</v>
+        <v>3.285501599311829</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Tammy Solange Pustilnick Arditi</t>
+          <t>Pedro Muñoz Leiva</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C105">
-        <v>3.460842967033386</v>
+        <v>3.318492621183395</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ricardo Montero Allende</t>
+          <t>Fernando Atria Lemaitre</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C106">
-        <v>3.515638709068298</v>
+        <v>3.346720039844513</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Cesar Valenzuela Maass</t>
+          <t>Tammy Solange Pustilnick Arditi</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C107">
-        <v>3.552671074867249</v>
+        <v>3.352833539247513</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Carlos Calvo Muñoz</t>
+          <t>Helmuth Jacobo Martinez Llancapan</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C108">
-        <v>3.570847511291504</v>
+        <v>3.428474366664886</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Tomas Laibe Saez</t>
+          <t>Patricio Fernandez Chadwick</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="C109">
-        <v>3.718428760766983</v>
+        <v>3.430214822292328</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Maximiliano Hurtado Roco</t>
+          <t>Ricardo Montero Allende</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2006,13 +2006,13 @@
         </is>
       </c>
       <c r="C110">
-        <v>3.746839463710785</v>
+        <v>3.441606163978577</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Maria Trinidad Castillo Boilet</t>
+          <t>Maximiliano Hurtado Roco</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2021,43 +2021,43 @@
         </is>
       </c>
       <c r="C111">
-        <v>3.800927773118019</v>
+        <v>3.592253774404526</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Eduardo Guillermo Castillo Vigouroux</t>
+          <t>Andres Cruz Carrasco</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Colectivo del Apruebo</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C112">
-        <v>4.22654964029789</v>
+        <v>3.764065653085709</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Andres Cruz Carrasco</t>
+          <t>Luis Ramon Barcelo Amado</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Colectivo del Apruebo</t>
         </is>
       </c>
       <c r="C113">
-        <v>4.336414933204651</v>
+        <v>4.187535718083382</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Luis Ramon Barcelo Amado</t>
+          <t>Eduardo Guillermo Castillo Vigouroux</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2066,13 +2066,13 @@
         </is>
       </c>
       <c r="C114">
-        <v>4.374180883169174</v>
+        <v>4.238878265023232</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Fuad Chahin Valenzuela</t>
+          <t>Miguel Angel Botto Salinas</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="C115">
-        <v>4.599272012710571</v>
+        <v>4.374798610806465</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Miguel Angel Botto Salinas</t>
+          <t>Fuad Chahin Valenzuela</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>4.695798698812723</v>
+        <v>4.460904039442539</v>
       </c>
     </row>
     <row r="117">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="C117">
-        <v>4.819276314228773</v>
+        <v>4.462672956287861</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Felipe Harboe Bascuñan</t>
+          <t>Rodrigo Logan Soto</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2126,13 +2126,13 @@
         </is>
       </c>
       <c r="C118">
-        <v>4.832075368613005</v>
+        <v>4.6679612621665</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Rodrigo Logan Soto</t>
+          <t>Felipe Harboe Bascuñan</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>5.302904713898897</v>
+        <v>4.983386538224295</v>
       </c>
     </row>
     <row r="120">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>5.755152627825737</v>
+        <v>5.557778514921665</v>
       </c>
     </row>
     <row r="121">
@@ -2171,13 +2171,13 @@
         </is>
       </c>
       <c r="C121">
-        <v>6.254843473434448</v>
+        <v>6.404626220464706</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Manuel Jose Ossandon Lira</t>
+          <t>Cristian Monckeberg Bruner</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2186,13 +2186,13 @@
         </is>
       </c>
       <c r="C122">
-        <v>6.549109518527985</v>
+        <v>6.698493659496307</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Paulina Veloso Muñoz</t>
+          <t>Geoconda Navarrete Arratia</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2201,13 +2201,13 @@
         </is>
       </c>
       <c r="C123">
-        <v>6.65161669254303</v>
+        <v>6.727875769138336</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cristian Monckeberg Bruner</t>
+          <t>Paulina Veloso Muñoz</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2216,13 +2216,13 @@
         </is>
       </c>
       <c r="C124">
-        <v>6.651622354984283</v>
+        <v>6.782655864953995</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Geoconda Navarrete Arratia</t>
+          <t>Roberto Vega Campusano</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="C125">
-        <v>6.789733022451401</v>
+        <v>6.930384933948517</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Hernan Larrain Matte</t>
+          <t>Raul Celis Montt</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2246,13 +2246,13 @@
         </is>
       </c>
       <c r="C126">
-        <v>6.856350153684616</v>
+        <v>6.988899409770966</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Raul Celis Montt</t>
+          <t>Angelica Tepper Kolossa</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2261,13 +2261,13 @@
         </is>
       </c>
       <c r="C127">
-        <v>6.939211040735245</v>
+        <v>7.071106731891632</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Angelica Tepper Kolossa</t>
+          <t>Manuel Jose Ossandon Lira</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="C128">
-        <v>6.939601451158524</v>
+        <v>7.164037078619003</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Barbara Rebolledo Aguirre</t>
+          <t>Patricia Labra Besserer</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2291,13 +2291,13 @@
         </is>
       </c>
       <c r="C129">
-        <v>6.950046420097351</v>
+        <v>7.178374975919724</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ruggero Cozzi Elzo</t>
+          <t>Hernan Larrain Matte</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2306,13 +2306,13 @@
         </is>
       </c>
       <c r="C130">
-        <v>6.954087316989899</v>
+        <v>7.232203483581543</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Roberto Vega Campusano</t>
+          <t>Bernardo Fontaine Talavera</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2321,13 +2321,13 @@
         </is>
       </c>
       <c r="C131">
-        <v>7.095718085765839</v>
+        <v>7.325286567211151</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Alvaro Jofre Caceres</t>
+          <t>Ruggero Cozzi Elzo</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2336,13 +2336,13 @@
         </is>
       </c>
       <c r="C132">
-        <v>7.379880100488663</v>
+        <v>7.325845509767532</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Patricia Labra Besserer</t>
+          <t>Barbara Rebolledo Aguirre</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="C133">
-        <v>7.405029982328415</v>
+        <v>7.329235523939133</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Bernardo Fontaine Talavera</t>
+          <t>Alvaro Jofre Caceres</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>7.417505532503128</v>
+        <v>7.477888315916061</v>
       </c>
     </row>
     <row r="135">
@@ -2381,88 +2381,88 @@
         </is>
       </c>
       <c r="C135">
-        <v>7.651892006397247</v>
+        <v>7.48260036110878</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Alfredo Moreno Echeverria</t>
+          <t>Margarita Letelier Cortes</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Chile Libre</t>
         </is>
       </c>
       <c r="C136">
-        <v>7.820881009101868</v>
+        <v>8.505007922649384</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Felipe Ignacio Mena Villar</t>
+          <t>Jorge Arancibia Reyes</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C137">
-        <v>7.910785377025604</v>
+        <v>8.527747690677643</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Ricardo Neumann Bertin</t>
+          <t>Alfredo Moreno Echeverria</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C138">
-        <v>7.978337407112122</v>
+        <v>8.531323671340942</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Claudia Mabel Castro Gutierrez</t>
+          <t>Eduardo Andres Cretton Rebolledo</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C139">
-        <v>8.219082355499268</v>
+        <v>8.561535477638245</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Eduardo Andres Cretton Rebolledo</t>
+          <t>Felipe Ignacio Mena Villar</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C140">
-        <v>8.307677805423737</v>
+        <v>8.583040237426758</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Pollyana Rivera Bigas</t>
+          <t>Ricardo Neumann Bertin</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2471,28 +2471,28 @@
         </is>
       </c>
       <c r="C141">
-        <v>8.324841558933258</v>
+        <v>8.612820506095886</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Harry Jurgensen Caesar</t>
+          <t>Maria Cecilia Ubilla Perez</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Chile Libre</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C142">
-        <v>8.327064216136932</v>
+        <v>8.641535639762878</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Maria Cecilia Ubilla Perez</t>
+          <t>Pollyana Rivera Bigas</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2501,13 +2501,13 @@
         </is>
       </c>
       <c r="C143">
-        <v>8.345324993133545</v>
+        <v>8.646384179592133</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Jorge Arancibia Reyes</t>
+          <t>Rodrigo Alvarez Zenteno</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2516,28 +2516,28 @@
         </is>
       </c>
       <c r="C144">
-        <v>8.394388854503632</v>
+        <v>8.683185577392578</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Rodrigo Alvarez Zenteno</t>
+          <t>Arturo Zuñiga Jory</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C145">
-        <v>8.428071737289429</v>
+        <v>8.761503398418427</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Arturo Zuñiga Jory</t>
+          <t>Claudia Mabel Castro Gutierrez</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>8.436487317085266</v>
+        <v>8.779526948928833</v>
       </c>
     </row>
     <row r="147">
@@ -2561,82 +2561,82 @@
         </is>
       </c>
       <c r="C147">
-        <v>8.44913125038147</v>
+        <v>8.800116181373596</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Marcela Cubillos Sigall</t>
+          <t>Katerine Montealegre Navarro</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C148">
-        <v>8.578116297721863</v>
+        <v>8.923644721508026</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Carol Bown Sepulveda</t>
+          <t>Harry Jurgensen Caesar</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Chile Libre</t>
         </is>
       </c>
       <c r="C149">
-        <v>8.659534454345703</v>
+        <v>8.977281749248505</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Margarita Letelier Cortes</t>
+          <t>Carol Bown Sepulveda</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Chile Libre</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C150">
-        <v>8.844871819019318</v>
+        <v>9.142028391361237</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Constanza Hube Portus</t>
+          <t>Martin Arrau Garcia-Huidobro</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Chile Libre</t>
         </is>
       </c>
       <c r="C151">
-        <v>8.977967798709869</v>
+        <v>9.180582761764526</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Katerine Montealegre Navarro</t>
+          <t>Marcela Cubillos Sigall</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C152">
-        <v>9.128653407096863</v>
+        <v>9.186455905437469</v>
       </c>
     </row>
     <row r="153">
@@ -2651,28 +2651,28 @@
         </is>
       </c>
       <c r="C153">
-        <v>9.327214062213898</v>
+        <v>9.23613578081131</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Rocio Cantuarias Rubio</t>
+          <t>Constanza Hube Portus</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chile Libre</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C154">
-        <v>9.441753625869751</v>
+        <v>9.332095384597778</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Martin Arrau Garcia-Huidobro</t>
+          <t>Teresa Marinovic Vial</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2681,13 +2681,13 @@
         </is>
       </c>
       <c r="C155">
-        <v>9.474573731422424</v>
+        <v>9.505026340484619</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Teresa Marinovic Vial</t>
+          <t>Rocio Cantuarias Rubio</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>9.532529711723328</v>
+        <v>9.50714647769928</v>
       </c>
     </row>
   </sheetData>

--- a/files/puntajes.xlsx
+++ b/files/puntajes.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,6 +373,21 @@
           <t>coord1D</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>coord2D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>coord1D_normal</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>coord2D_normal</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -386,7 +401,16 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.3528842329978943</v>
+        <v>-0.9286447167396545</v>
+      </c>
+      <c r="D2">
+        <v>0.3709705173969269</v>
+      </c>
+      <c r="E2">
+        <v>0.3567764163017273</v>
+      </c>
+      <c r="F2">
+        <v>6.854852586984634</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +425,16 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.4132992029190063</v>
+        <v>-0.9165996313095093</v>
+      </c>
+      <c r="D3">
+        <v>0.3998063802719116</v>
+      </c>
+      <c r="E3">
+        <v>0.4170018434524536</v>
+      </c>
+      <c r="F3">
+        <v>6.999031901359558</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +449,16 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.4414162039756775</v>
+        <v>-0.9105411767959595</v>
+      </c>
+      <c r="D4">
+        <v>0.4134185910224915</v>
+      </c>
+      <c r="E4">
+        <v>0.4472941160202026</v>
+      </c>
+      <c r="F4">
+        <v>7.067092955112457</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +473,16 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.4572582244873047</v>
+        <v>-0.9077043533325195</v>
+      </c>
+      <c r="D5">
+        <v>0.4196101725101471</v>
+      </c>
+      <c r="E5">
+        <v>0.4614782333374023</v>
+      </c>
+      <c r="F5">
+        <v>7.098050862550735</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +497,16 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.459611713886261</v>
+        <v>-0.9057020545005798</v>
+      </c>
+      <c r="D6">
+        <v>0.4239147007465363</v>
+      </c>
+      <c r="E6">
+        <v>0.4714897274971008</v>
+      </c>
+      <c r="F6">
+        <v>7.119573503732681</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +521,16 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.468066930770874</v>
+        <v>-0.9047894477844238</v>
+      </c>
+      <c r="D7">
+        <v>0.4258591830730438</v>
+      </c>
+      <c r="E7">
+        <v>0.4760527610778809</v>
+      </c>
+      <c r="F7">
+        <v>7.129295915365219</v>
       </c>
     </row>
     <row r="8">
@@ -476,7 +545,16 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.4827097058296204</v>
+        <v>-0.9025115370750427</v>
+      </c>
+      <c r="D8">
+        <v>0.4306658208370209</v>
+      </c>
+      <c r="E8">
+        <v>0.4874423146247864</v>
+      </c>
+      <c r="F8">
+        <v>7.153329104185104</v>
       </c>
     </row>
     <row r="9">
@@ -491,127 +569,208 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.5041152238845825</v>
+        <v>-0.8969171643257141</v>
+      </c>
+      <c r="D9">
+        <v>0.4421987235546112</v>
+      </c>
+      <c r="E9">
+        <v>0.5154141783714294</v>
+      </c>
+      <c r="F9">
+        <v>7.210993617773056</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Eric Chinga Ferreira</t>
+          <t>Giovanna Jazmin Grandon Caro</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.5051097273826599</v>
+        <v>-0.8936319947242737</v>
+      </c>
+      <c r="D10">
+        <v>0.4488005042076111</v>
+      </c>
+      <c r="E10">
+        <v>0.5318400263786316</v>
+      </c>
+      <c r="F10">
+        <v>7.244002521038055</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Giovanna Jazmin Grandon Caro</t>
+          <t>Constanza Andrea San Juan Standen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.5235365033149719</v>
+        <v>-0.8936231136322021</v>
+      </c>
+      <c r="D11">
+        <v>0.2752406597137451</v>
+      </c>
+      <c r="E11">
+        <v>0.5318844318389893</v>
+      </c>
+      <c r="F11">
+        <v>6.376203298568726</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Constanza Andrea San Juan Standen</t>
+          <t>Victorino Antilef Ñanco</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.5307647585868835</v>
+        <v>-0.8920789957046509</v>
+      </c>
+      <c r="D12">
+        <v>0.4518795013427734</v>
+      </c>
+      <c r="E12">
+        <v>0.5396050214767456</v>
+      </c>
+      <c r="F12">
+        <v>7.259397506713867</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Victorino Antilef Ñanco</t>
+          <t>Ericka Portilla Barrios</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.5353638529777527</v>
+        <v>-0.8913799524307251</v>
+      </c>
+      <c r="D13">
+        <v>0.3117200136184692</v>
+      </c>
+      <c r="E13">
+        <v>0.5431002378463745</v>
+      </c>
+      <c r="F13">
+        <v>6.558600068092346</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ericka Portilla Barrios</t>
+          <t>Lisette Lorena Vergara Riquelme</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.5430558323860168</v>
+        <v>-0.8909122943878174</v>
+      </c>
+      <c r="D14">
+        <v>0.4541753530502319</v>
+      </c>
+      <c r="E14">
+        <v>0.5454385280609131</v>
+      </c>
+      <c r="F14">
+        <v>7.27087676525116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lisette Lorena Vergara Riquelme</t>
+          <t>Ivanna Daniela Olivares Miranda</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.5443137884140015</v>
+        <v>-0.8901574611663818</v>
+      </c>
+      <c r="D15">
+        <v>0.4556529223918915</v>
+      </c>
+      <c r="E15">
+        <v>0.5492126941680908</v>
+      </c>
+      <c r="F15">
+        <v>7.278264611959457</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ivanna Daniela Olivares Miranda</t>
+          <t>Cristobal Patricio Andrade Leon</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.5444645881652832</v>
+        <v>-0.8892924785614014</v>
+      </c>
+      <c r="D16">
+        <v>0.2320316880941391</v>
+      </c>
+      <c r="E16">
+        <v>0.5535376071929932</v>
+      </c>
+      <c r="F16">
+        <v>6.160158440470695</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cristobal Patricio Andrade Leon</t>
+          <t>Camila Ignacia Zarate Zarate</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.5508103966712952</v>
+        <v>-0.8861868977546692</v>
+      </c>
+      <c r="D17">
+        <v>0.2470400482416153</v>
+      </c>
+      <c r="E17">
+        <v>0.5690655112266541</v>
+      </c>
+      <c r="F17">
+        <v>6.235200241208076</v>
       </c>
     </row>
     <row r="18">
@@ -626,22 +785,40 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.5641013383865356</v>
+        <v>-0.8861287236213684</v>
+      </c>
+      <c r="D18">
+        <v>0.4634392559528351</v>
+      </c>
+      <c r="E18">
+        <v>0.569356381893158</v>
+      </c>
+      <c r="F18">
+        <v>7.317196279764175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Camila Ignacia Zarate Zarate</t>
+          <t>Eric Chinga Ferreira</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.5680233240127563</v>
+        <v>-0.885723352432251</v>
+      </c>
+      <c r="D19">
+        <v>0.4642133116722107</v>
+      </c>
+      <c r="E19">
+        <v>0.5713832378387451</v>
+      </c>
+      <c r="F19">
+        <v>7.321066558361053</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +833,16 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.6117728352546692</v>
+        <v>-0.8756215572357178</v>
+      </c>
+      <c r="D20">
+        <v>0.287120908498764</v>
+      </c>
+      <c r="E20">
+        <v>0.6218922138214111</v>
+      </c>
+      <c r="F20">
+        <v>6.43560454249382</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +857,16 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.6299114227294922</v>
+        <v>-0.8724865913391113</v>
+      </c>
+      <c r="D21">
+        <v>0.2187297344207764</v>
+      </c>
+      <c r="E21">
+        <v>0.6375670433044434</v>
+      </c>
+      <c r="F21">
+        <v>6.093648672103882</v>
       </c>
     </row>
     <row r="22">
@@ -686,7 +881,16 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.635560154914856</v>
+        <v>-0.8721132874488831</v>
+      </c>
+      <c r="D22">
+        <v>0.4893039762973785</v>
+      </c>
+      <c r="E22">
+        <v>0.6394335627555847</v>
+      </c>
+      <c r="F22">
+        <v>7.446519881486893</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +905,16 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.6892281770706177</v>
+        <v>-0.8616788387298584</v>
+      </c>
+      <c r="D23">
+        <v>0.1984806060791016</v>
+      </c>
+      <c r="E23">
+        <v>0.691605806350708</v>
+      </c>
+      <c r="F23">
+        <v>5.992403030395508</v>
       </c>
     </row>
     <row r="24">
@@ -716,7 +929,16 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.7046908140182495</v>
+        <v>-0.8572064638137817</v>
+      </c>
+      <c r="D24">
+        <v>0.2781208753585815</v>
+      </c>
+      <c r="E24">
+        <v>0.7139676809310913</v>
+      </c>
+      <c r="F24">
+        <v>6.390604376792908</v>
       </c>
     </row>
     <row r="25">
@@ -731,43 +953,70 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.7104930281639099</v>
+        <v>-0.8559063076972961</v>
+      </c>
+      <c r="D25">
+        <v>0.5171309113502502</v>
+      </c>
+      <c r="E25">
+        <v>0.7204684615135193</v>
+      </c>
+      <c r="F25">
+        <v>7.585654556751251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hernan Jesus Velasquez Nuñez</t>
+          <t>Fernando Salinas Manfredini</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.7349824905395508</v>
+        <v>-0.8518121242523193</v>
+      </c>
+      <c r="D26">
+        <v>0.1351670473814011</v>
+      </c>
+      <c r="E26">
+        <v>0.7409393787384033</v>
+      </c>
+      <c r="F26">
+        <v>5.675835236907005</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fernando Salinas Manfredini</t>
+          <t>Hugo Humberto Gutierrez Galvez</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.7358840107917786</v>
+        <v>-0.8504661917686462</v>
+      </c>
+      <c r="D27">
+        <v>0.3146429359912872</v>
+      </c>
+      <c r="E27">
+        <v>0.7476690411567688</v>
+      </c>
+      <c r="F27">
+        <v>6.573214679956436</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hugo Humberto Gutierrez Galvez</t>
+          <t>Hernan Jesus Velasquez Nuñez</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -776,7 +1025,16 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.7372039556503296</v>
+        <v>-0.8504323363304138</v>
+      </c>
+      <c r="D28">
+        <v>0.2941360473632812</v>
+      </c>
+      <c r="E28">
+        <v>0.7478383183479309</v>
+      </c>
+      <c r="F28">
+        <v>6.470680236816406</v>
       </c>
     </row>
     <row r="29">
@@ -791,7 +1049,16 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.7706081867218018</v>
+        <v>-0.8448643684387207</v>
+      </c>
+      <c r="D29">
+        <v>-0.1070624738931656</v>
+      </c>
+      <c r="E29">
+        <v>0.7756781578063965</v>
+      </c>
+      <c r="F29">
+        <v>4.464687630534172</v>
       </c>
     </row>
     <row r="30">
@@ -806,7 +1073,16 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.8284488320350647</v>
+        <v>-0.833560049533844</v>
+      </c>
+      <c r="D30">
+        <v>-0.07357413321733475</v>
+      </c>
+      <c r="E30">
+        <v>0.83219975233078</v>
+      </c>
+      <c r="F30">
+        <v>4.632129333913326</v>
       </c>
     </row>
     <row r="31">
@@ -821,7 +1097,16 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.8389991521835327</v>
+        <v>-0.8313103318214417</v>
+      </c>
+      <c r="D31">
+        <v>-0.07091810554265976</v>
+      </c>
+      <c r="E31">
+        <v>0.8434483408927917</v>
+      </c>
+      <c r="F31">
+        <v>4.645409472286701</v>
       </c>
     </row>
     <row r="32">
@@ -836,7 +1121,16 @@
         </is>
       </c>
       <c r="C32">
-        <v>0.8610233664512634</v>
+        <v>-0.8271570801734924</v>
+      </c>
+      <c r="D32">
+        <v>0.01805784367024899</v>
+      </c>
+      <c r="E32">
+        <v>0.8642145991325378</v>
+      </c>
+      <c r="F32">
+        <v>5.090289218351245</v>
       </c>
     </row>
     <row r="33">
@@ -851,7 +1145,16 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.8792775869369507</v>
+        <v>-0.8237769603729248</v>
+      </c>
+      <c r="D33">
+        <v>-0.1688708662986755</v>
+      </c>
+      <c r="E33">
+        <v>0.881115198135376</v>
+      </c>
+      <c r="F33">
+        <v>4.155645668506622</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +1169,16 @@
         </is>
       </c>
       <c r="C34">
-        <v>0.8797246217727661</v>
+        <v>-0.8227365016937256</v>
+      </c>
+      <c r="D34">
+        <v>0.004115978255867958</v>
+      </c>
+      <c r="E34">
+        <v>0.8863174915313721</v>
+      </c>
+      <c r="F34">
+        <v>5.02057989127934</v>
       </c>
     </row>
     <row r="35">
@@ -881,7 +1193,16 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.8851698040962219</v>
+        <v>-0.822434663772583</v>
+      </c>
+      <c r="D35">
+        <v>-0.05289649963378906</v>
+      </c>
+      <c r="E35">
+        <v>0.887826681137085</v>
+      </c>
+      <c r="F35">
+        <v>4.735517501831055</v>
       </c>
     </row>
     <row r="36">
@@ -896,7 +1217,16 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.8893802762031555</v>
+        <v>-0.8219107389450073</v>
+      </c>
+      <c r="D36">
+        <v>0.2100926488637924</v>
+      </c>
+      <c r="E36">
+        <v>0.8904463052749634</v>
+      </c>
+      <c r="F36">
+        <v>6.050463244318962</v>
       </c>
     </row>
     <row r="37">
@@ -911,7 +1241,16 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.8927389979362488</v>
+        <v>-0.8201687335968018</v>
+      </c>
+      <c r="D37">
+        <v>0.4101419448852539</v>
+      </c>
+      <c r="E37">
+        <v>0.8991563320159912</v>
+      </c>
+      <c r="F37">
+        <v>7.05070972442627</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +1265,16 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.9023889899253845</v>
+        <v>-0.8188660144805908</v>
+      </c>
+      <c r="D38">
+        <v>-0.009768344461917877</v>
+      </c>
+      <c r="E38">
+        <v>0.9056699275970459</v>
+      </c>
+      <c r="F38">
+        <v>4.951158277690411</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +1289,16 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.9150424599647522</v>
+        <v>-0.817457914352417</v>
+      </c>
+      <c r="D39">
+        <v>0.419215589761734</v>
+      </c>
+      <c r="E39">
+        <v>0.912710428237915</v>
+      </c>
+      <c r="F39">
+        <v>7.09607794880867</v>
       </c>
     </row>
     <row r="40">
@@ -956,7 +1313,16 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.9186452627182007</v>
+        <v>-0.8152961134910583</v>
+      </c>
+      <c r="D40">
+        <v>0.2260162085294724</v>
+      </c>
+      <c r="E40">
+        <v>0.9235194325447083</v>
+      </c>
+      <c r="F40">
+        <v>6.130081042647362</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +1337,16 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.9301027655601501</v>
+        <v>-0.8130680918693542</v>
+      </c>
+      <c r="D41">
+        <v>-0.1057373881340027</v>
+      </c>
+      <c r="E41">
+        <v>0.9346595406532288</v>
+      </c>
+      <c r="F41">
+        <v>4.471313059329987</v>
       </c>
     </row>
     <row r="42">
@@ -986,7 +1361,16 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.9374386072158813</v>
+        <v>-0.8112968802452087</v>
+      </c>
+      <c r="D42">
+        <v>-0.09536293148994446</v>
+      </c>
+      <c r="E42">
+        <v>0.9435155987739563</v>
+      </c>
+      <c r="F42">
+        <v>4.523185342550278</v>
       </c>
     </row>
     <row r="43">
@@ -1001,7 +1385,16 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.9465357661247253</v>
+        <v>-0.807752788066864</v>
+      </c>
+      <c r="D43">
+        <v>0.3857783377170563</v>
+      </c>
+      <c r="E43">
+        <v>0.9612360596656799</v>
+      </c>
+      <c r="F43">
+        <v>6.928891688585281</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1409,16 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.9635761380195618</v>
+        <v>-0.8062258958816528</v>
+      </c>
+      <c r="D44">
+        <v>-0.1363498419523239</v>
+      </c>
+      <c r="E44">
+        <v>0.9688705205917358</v>
+      </c>
+      <c r="F44">
+        <v>4.31825079023838</v>
       </c>
     </row>
     <row r="45">
@@ -1031,7 +1433,16 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.9680661559104919</v>
+        <v>-0.8053997755050659</v>
+      </c>
+      <c r="D45">
+        <v>-0.005230642855167389</v>
+      </c>
+      <c r="E45">
+        <v>0.9730011224746704</v>
+      </c>
+      <c r="F45">
+        <v>4.973846785724163</v>
       </c>
     </row>
     <row r="46">
@@ -1046,7 +1457,16 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.9800243377685547</v>
+        <v>-0.803094744682312</v>
+      </c>
+      <c r="D46">
+        <v>0.1508201062679291</v>
+      </c>
+      <c r="E46">
+        <v>0.9845262765884399</v>
+      </c>
+      <c r="F46">
+        <v>5.754100531339645</v>
       </c>
     </row>
     <row r="47">
@@ -1061,7 +1481,16 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.9876808524131775</v>
+        <v>-0.8017978668212891</v>
+      </c>
+      <c r="D47">
+        <v>0.2056694030761719</v>
+      </c>
+      <c r="E47">
+        <v>0.9910106658935547</v>
+      </c>
+      <c r="F47">
+        <v>6.028347015380859</v>
       </c>
     </row>
     <row r="48">
@@ -1076,7 +1505,16 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.9883081912994385</v>
+        <v>-0.8014782071113586</v>
+      </c>
+      <c r="D48">
+        <v>-0.1073293313384056</v>
+      </c>
+      <c r="E48">
+        <v>0.9926089644432068</v>
+      </c>
+      <c r="F48">
+        <v>4.463353343307972</v>
       </c>
     </row>
     <row r="49">
@@ -1091,7 +1529,16 @@
         </is>
       </c>
       <c r="C49">
-        <v>1.007908582687378</v>
+        <v>-0.797635018825531</v>
+      </c>
+      <c r="D49">
+        <v>0.1854828745126724</v>
+      </c>
+      <c r="E49">
+        <v>1.011824905872345</v>
+      </c>
+      <c r="F49">
+        <v>5.927414372563362</v>
       </c>
     </row>
     <row r="50">
@@ -1106,7 +1553,16 @@
         </is>
       </c>
       <c r="C50">
-        <v>1.020228862762451</v>
+        <v>-0.794482409954071</v>
+      </c>
+      <c r="D50">
+        <v>0.124424122273922</v>
+      </c>
+      <c r="E50">
+        <v>1.027587950229645</v>
+      </c>
+      <c r="F50">
+        <v>5.62212061136961</v>
       </c>
     </row>
     <row r="51">
@@ -1121,7 +1577,16 @@
         </is>
       </c>
       <c r="C51">
-        <v>1.034798324108124</v>
+        <v>-0.7923678755760193</v>
+      </c>
+      <c r="D51">
+        <v>0.001677796128205955</v>
+      </c>
+      <c r="E51">
+        <v>1.038160622119904</v>
+      </c>
+      <c r="F51">
+        <v>5.00838898064103</v>
       </c>
     </row>
     <row r="52">
@@ -1136,37 +1601,64 @@
         </is>
       </c>
       <c r="C52">
-        <v>1.041458249092102</v>
+        <v>-0.7908519506454468</v>
+      </c>
+      <c r="D52">
+        <v>0.3589777946472168</v>
+      </c>
+      <c r="E52">
+        <v>1.045740246772766</v>
+      </c>
+      <c r="F52">
+        <v>6.794888973236084</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Maria Magdalena Rivera Iribarren</t>
+          <t>Daniel Alejandro Bravo Silva</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C53">
-        <v>1.080747246742249</v>
+        <v>-0.7829328179359436</v>
+      </c>
+      <c r="D53">
+        <v>0.1683333516120911</v>
+      </c>
+      <c r="E53">
+        <v>1.085335910320282</v>
+      </c>
+      <c r="F53">
+        <v>5.841666758060455</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Daniel Alejandro Bravo Silva</t>
+          <t>Maria Magdalena Rivera Iribarren</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C54">
-        <v>1.082031428813934</v>
+        <v>-0.782810389995575</v>
+      </c>
+      <c r="D54">
+        <v>0.6222603321075439</v>
+      </c>
+      <c r="E54">
+        <v>1.085948050022125</v>
+      </c>
+      <c r="F54">
+        <v>8.11130166053772</v>
       </c>
     </row>
     <row r="55">
@@ -1181,7 +1673,16 @@
         </is>
       </c>
       <c r="C55">
-        <v>1.114457547664642</v>
+        <v>-0.7757013440132141</v>
+      </c>
+      <c r="D55">
+        <v>-0.04522901400923729</v>
+      </c>
+      <c r="E55">
+        <v>1.121493279933929</v>
+      </c>
+      <c r="F55">
+        <v>4.773854929953814</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1697,16 @@
         </is>
       </c>
       <c r="C56">
-        <v>1.127121150493622</v>
+        <v>-0.7720170021057129</v>
+      </c>
+      <c r="D56">
+        <v>0.2680789828300476</v>
+      </c>
+      <c r="E56">
+        <v>1.139914989471436</v>
+      </c>
+      <c r="F56">
+        <v>6.340394914150238</v>
       </c>
     </row>
     <row r="57">
@@ -1211,7 +1721,16 @@
         </is>
       </c>
       <c r="C57">
-        <v>1.16967499256134</v>
+        <v>-0.7650782465934753</v>
+      </c>
+      <c r="D57">
+        <v>0.02916519716382027</v>
+      </c>
+      <c r="E57">
+        <v>1.174608767032623</v>
+      </c>
+      <c r="F57">
+        <v>5.145825985819101</v>
       </c>
     </row>
     <row r="58">
@@ -1226,7 +1745,16 @@
         </is>
       </c>
       <c r="C58">
-        <v>1.192066371440887</v>
+        <v>-0.7607666254043579</v>
+      </c>
+      <c r="D58">
+        <v>0.02096476592123508</v>
+      </c>
+      <c r="E58">
+        <v>1.19616687297821</v>
+      </c>
+      <c r="F58">
+        <v>5.104823829606175</v>
       </c>
     </row>
     <row r="59">
@@ -1241,7 +1769,16 @@
         </is>
       </c>
       <c r="C59">
-        <v>1.315359175205231</v>
+        <v>-0.7358037233352661</v>
+      </c>
+      <c r="D59">
+        <v>-0.1567669361829758</v>
+      </c>
+      <c r="E59">
+        <v>1.320981383323669</v>
+      </c>
+      <c r="F59">
+        <v>4.216165319085121</v>
       </c>
     </row>
     <row r="60">
@@ -1256,7 +1793,16 @@
         </is>
       </c>
       <c r="C60">
-        <v>1.375499963760376</v>
+        <v>-0.7239049673080444</v>
+      </c>
+      <c r="D60">
+        <v>-0.1964859068393707</v>
+      </c>
+      <c r="E60">
+        <v>1.380475163459778</v>
+      </c>
+      <c r="F60">
+        <v>4.017570465803146</v>
       </c>
     </row>
     <row r="61">
@@ -1271,7 +1817,16 @@
         </is>
       </c>
       <c r="C61">
-        <v>1.384913921356201</v>
+        <v>-0.7220357060432434</v>
+      </c>
+      <c r="D61">
+        <v>0.2571282982826233</v>
+      </c>
+      <c r="E61">
+        <v>1.389821469783783</v>
+      </c>
+      <c r="F61">
+        <v>6.285641491413116</v>
       </c>
     </row>
     <row r="62">
@@ -1286,7 +1841,16 @@
         </is>
       </c>
       <c r="C62">
-        <v>1.516118049621582</v>
+        <v>-0.695953369140625</v>
+      </c>
+      <c r="D62">
+        <v>-0.07822798192501068</v>
+      </c>
+      <c r="E62">
+        <v>1.520233154296875</v>
+      </c>
+      <c r="F62">
+        <v>4.608860090374947</v>
       </c>
     </row>
     <row r="63">
@@ -1301,7 +1865,16 @@
         </is>
       </c>
       <c r="C63">
-        <v>1.60113126039505</v>
+        <v>-0.6769356727600098</v>
+      </c>
+      <c r="D63">
+        <v>0.2288071364164352</v>
+      </c>
+      <c r="E63">
+        <v>1.615321636199951</v>
+      </c>
+      <c r="F63">
+        <v>6.144035682082176</v>
       </c>
     </row>
     <row r="64">
@@ -1316,7 +1889,16 @@
         </is>
       </c>
       <c r="C64">
-        <v>1.615283489227295</v>
+        <v>-0.6756698489189148</v>
+      </c>
+      <c r="D64">
+        <v>-0.2996337413787842</v>
+      </c>
+      <c r="E64">
+        <v>1.621650755405426</v>
+      </c>
+      <c r="F64">
+        <v>3.501831293106079</v>
       </c>
     </row>
     <row r="65">
@@ -1331,7 +1913,16 @@
         </is>
       </c>
       <c r="C65">
-        <v>1.76302433013916</v>
+        <v>-0.6423785090446472</v>
+      </c>
+      <c r="D65">
+        <v>0.3609901666641235</v>
+      </c>
+      <c r="E65">
+        <v>1.788107454776764</v>
+      </c>
+      <c r="F65">
+        <v>6.804950833320618</v>
       </c>
     </row>
     <row r="66">
@@ -1346,7 +1937,16 @@
         </is>
       </c>
       <c r="C66">
-        <v>1.82818204164505</v>
+        <v>-0.6334707736968994</v>
+      </c>
+      <c r="D66">
+        <v>0.1767090111970901</v>
+      </c>
+      <c r="E66">
+        <v>1.832646131515503</v>
+      </c>
+      <c r="F66">
+        <v>5.883545055985451</v>
       </c>
     </row>
     <row r="67">
@@ -1361,7 +1961,16 @@
         </is>
       </c>
       <c r="C67">
-        <v>1.871617436408997</v>
+        <v>-0.6241737604141235</v>
+      </c>
+      <c r="D67">
+        <v>-0.6221487522125244</v>
+      </c>
+      <c r="E67">
+        <v>1.879131197929382</v>
+      </c>
+      <c r="F67">
+        <v>1.889256238937378</v>
       </c>
     </row>
     <row r="68">
@@ -1376,7 +1985,16 @@
         </is>
       </c>
       <c r="C68">
-        <v>1.982318758964539</v>
+        <v>-0.6025861501693726</v>
+      </c>
+      <c r="D68">
+        <v>-0.692430853843689</v>
+      </c>
+      <c r="E68">
+        <v>1.987069249153137</v>
+      </c>
+      <c r="F68">
+        <v>1.537845730781555</v>
       </c>
     </row>
     <row r="69">
@@ -1391,7 +2009,16 @@
         </is>
       </c>
       <c r="C69">
-        <v>2.006556689739227</v>
+        <v>-0.5960678458213806</v>
+      </c>
+      <c r="D69">
+        <v>-0.1165620237588882</v>
+      </c>
+      <c r="E69">
+        <v>2.019660770893097</v>
+      </c>
+      <c r="F69">
+        <v>4.417189881205559</v>
       </c>
     </row>
     <row r="70">
@@ -1406,7 +2033,16 @@
         </is>
       </c>
       <c r="C70">
-        <v>2.027148306369781</v>
+        <v>-0.5934133529663086</v>
+      </c>
+      <c r="D70">
+        <v>-0.7312490940093994</v>
+      </c>
+      <c r="E70">
+        <v>2.032933235168457</v>
+      </c>
+      <c r="F70">
+        <v>1.343754529953003</v>
       </c>
     </row>
     <row r="71">
@@ -1421,7 +2057,16 @@
         </is>
       </c>
       <c r="C71">
-        <v>2.043026685714722</v>
+        <v>-0.5905580520629883</v>
+      </c>
+      <c r="D71">
+        <v>-0.7252808213233948</v>
+      </c>
+      <c r="E71">
+        <v>2.047209739685059</v>
+      </c>
+      <c r="F71">
+        <v>1.373595893383026</v>
       </c>
     </row>
     <row r="72">
@@ -1436,7 +2081,16 @@
         </is>
       </c>
       <c r="C72">
-        <v>2.0498988032341</v>
+        <v>-0.588489294052124</v>
+      </c>
+      <c r="D72">
+        <v>-0.6727333664894104</v>
+      </c>
+      <c r="E72">
+        <v>2.05755352973938</v>
+      </c>
+      <c r="F72">
+        <v>1.636333167552948</v>
       </c>
     </row>
     <row r="73">
@@ -1451,7 +2105,16 @@
         </is>
       </c>
       <c r="C73">
-        <v>2.100895941257477</v>
+        <v>-0.5767075419425964</v>
+      </c>
+      <c r="D73">
+        <v>-0.1135165318846703</v>
+      </c>
+      <c r="E73">
+        <v>2.116462290287018</v>
+      </c>
+      <c r="F73">
+        <v>4.432417340576649</v>
       </c>
     </row>
     <row r="74">
@@ -1466,7 +2129,16 @@
         </is>
       </c>
       <c r="C74">
-        <v>2.131814360618591</v>
+        <v>-0.5719886422157288</v>
+      </c>
+      <c r="D74">
+        <v>-0.7800732254981995</v>
+      </c>
+      <c r="E74">
+        <v>2.140056788921356</v>
+      </c>
+      <c r="F74">
+        <v>1.099633872509003</v>
       </c>
     </row>
     <row r="75">
@@ -1481,13 +2153,22 @@
         </is>
       </c>
       <c r="C75">
-        <v>2.143677175045013</v>
+        <v>-0.5704298615455627</v>
+      </c>
+      <c r="D75">
+        <v>-0.8213464021682739</v>
+      </c>
+      <c r="E75">
+        <v>2.147850692272186</v>
+      </c>
+      <c r="F75">
+        <v>0.8932679891586304</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Daniel Rodrigo Stingo Camus</t>
+          <t>Ignacio Jaime Achurra Diaz</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1496,37 +2177,64 @@
         </is>
       </c>
       <c r="C76">
-        <v>2.228956818580627</v>
+        <v>-0.5677099823951721</v>
+      </c>
+      <c r="D76">
+        <v>-0.8232285976409912</v>
+      </c>
+      <c r="E76">
+        <v>2.161450088024139</v>
+      </c>
+      <c r="F76">
+        <v>0.8838570117950439</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ramona Reyes Painequeo</t>
+          <t>Daniel Rodrigo Stingo Camus</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C77">
-        <v>2.237100303173065</v>
+        <v>-0.5514761209487915</v>
+      </c>
+      <c r="D77">
+        <v>-0.8341905474662781</v>
+      </c>
+      <c r="E77">
+        <v>2.242619395256042</v>
+      </c>
+      <c r="F77">
+        <v>0.8290472626686096</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ignacio Jaime Achurra Diaz</t>
+          <t>Ramona Reyes Painequeo</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C78">
-        <v>2.258729338645935</v>
+        <v>-0.5513091087341309</v>
+      </c>
+      <c r="D78">
+        <v>-0.4293957650661469</v>
+      </c>
+      <c r="E78">
+        <v>2.243454456329346</v>
+      </c>
+      <c r="F78">
+        <v>2.853021174669266</v>
       </c>
     </row>
     <row r="79">
@@ -1541,7 +2249,16 @@
         </is>
       </c>
       <c r="C79">
-        <v>2.288163900375366</v>
+        <v>-0.5413713455200195</v>
+      </c>
+      <c r="D79">
+        <v>-0.8344560265541077</v>
+      </c>
+      <c r="E79">
+        <v>2.293143272399902</v>
+      </c>
+      <c r="F79">
+        <v>0.8277198672294617</v>
       </c>
     </row>
     <row r="80">
@@ -1556,7 +2273,16 @@
         </is>
       </c>
       <c r="C80">
-        <v>2.37069696187973</v>
+        <v>-0.5238072276115417</v>
+      </c>
+      <c r="D80">
+        <v>-0.5620020031929016</v>
+      </c>
+      <c r="E80">
+        <v>2.380963861942291</v>
+      </c>
+      <c r="F80">
+        <v>2.189989984035492</v>
       </c>
     </row>
     <row r="81">
@@ -1571,7 +2297,16 @@
         </is>
       </c>
       <c r="C81">
-        <v>2.376869022846222</v>
+        <v>-0.5224257707595825</v>
+      </c>
+      <c r="D81">
+        <v>-0.504355251789093</v>
+      </c>
+      <c r="E81">
+        <v>2.387871146202087</v>
+      </c>
+      <c r="F81">
+        <v>2.478223741054535</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +2321,16 @@
         </is>
       </c>
       <c r="C82">
-        <v>2.388351559638977</v>
+        <v>-0.5217995643615723</v>
+      </c>
+      <c r="D82">
+        <v>-0.8530681729316711</v>
+      </c>
+      <c r="E82">
+        <v>2.391002178192139</v>
+      </c>
+      <c r="F82">
+        <v>0.7346591353416443</v>
       </c>
     </row>
     <row r="83">
@@ -1601,7 +2345,16 @@
         </is>
       </c>
       <c r="C83">
-        <v>2.398082911968231</v>
+        <v>-0.5216416120529175</v>
+      </c>
+      <c r="D83">
+        <v>-0.8531646728515625</v>
+      </c>
+      <c r="E83">
+        <v>2.391791939735413</v>
+      </c>
+      <c r="F83">
+        <v>0.7341766357421875</v>
       </c>
     </row>
     <row r="84">
@@ -1616,7 +2369,16 @@
         </is>
       </c>
       <c r="C84">
-        <v>2.485414445400238</v>
+        <v>-0.5005342960357666</v>
+      </c>
+      <c r="D84">
+        <v>-0.6810897588729858</v>
+      </c>
+      <c r="E84">
+        <v>2.497328519821167</v>
+      </c>
+      <c r="F84">
+        <v>1.594551205635071</v>
       </c>
     </row>
     <row r="85">
@@ -1631,37 +2393,64 @@
         </is>
       </c>
       <c r="C85">
-        <v>2.495940625667572</v>
+        <v>-0.4985295832157135</v>
+      </c>
+      <c r="D85">
+        <v>-0.8668726682662964</v>
+      </c>
+      <c r="E85">
+        <v>2.507352083921432</v>
+      </c>
+      <c r="F85">
+        <v>0.6656366586685181</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Jorge Baradit Morales</t>
+          <t>Paulina Valeria Valenzuela Rio</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C86">
-        <v>2.502368688583374</v>
+        <v>-0.4944640696048737</v>
+      </c>
+      <c r="D86">
+        <v>-0.3317874372005463</v>
+      </c>
+      <c r="E86">
+        <v>2.527679651975632</v>
+      </c>
+      <c r="F86">
+        <v>3.341062813997269</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Paulina Valeria Valenzuela Rio</t>
+          <t>Jorge Baradit Morales</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C87">
-        <v>2.510851174592972</v>
+        <v>-0.493924617767334</v>
+      </c>
+      <c r="D87">
+        <v>-0.8695047497749329</v>
+      </c>
+      <c r="E87">
+        <v>2.53037691116333</v>
+      </c>
+      <c r="F87">
+        <v>0.6524762511253357</v>
       </c>
     </row>
     <row r="88">
@@ -1676,7 +2465,16 @@
         </is>
       </c>
       <c r="C88">
-        <v>2.57825493812561</v>
+        <v>-0.4827857315540314</v>
+      </c>
+      <c r="D88">
+        <v>-0.8757385611534119</v>
+      </c>
+      <c r="E88">
+        <v>2.586071342229843</v>
+      </c>
+      <c r="F88">
+        <v>0.6213071942329407</v>
       </c>
     </row>
     <row r="89">
@@ -1691,7 +2489,16 @@
         </is>
       </c>
       <c r="C89">
-        <v>2.602347135543823</v>
+        <v>-0.4779511988162994</v>
+      </c>
+      <c r="D89">
+        <v>-0.6413930058479309</v>
+      </c>
+      <c r="E89">
+        <v>2.610244005918503</v>
+      </c>
+      <c r="F89">
+        <v>1.793034970760345</v>
       </c>
     </row>
     <row r="90">
@@ -1706,7 +2513,16 @@
         </is>
       </c>
       <c r="C90">
-        <v>2.622945457696915</v>
+        <v>-0.4735429883003235</v>
+      </c>
+      <c r="D90">
+        <v>-0.8552802801132202</v>
+      </c>
+      <c r="E90">
+        <v>2.632285058498383</v>
+      </c>
+      <c r="F90">
+        <v>0.7235985994338989</v>
       </c>
     </row>
     <row r="91">
@@ -1721,7 +2537,16 @@
         </is>
       </c>
       <c r="C91">
-        <v>2.661851346492767</v>
+        <v>-0.4661078453063965</v>
+      </c>
+      <c r="D91">
+        <v>-0.1572596281766891</v>
+      </c>
+      <c r="E91">
+        <v>2.669460773468018</v>
+      </c>
+      <c r="F91">
+        <v>4.213701859116554</v>
       </c>
     </row>
     <row r="92">
@@ -1736,7 +2561,16 @@
         </is>
       </c>
       <c r="C92">
-        <v>2.696189731359482</v>
+        <v>-0.4584875106811523</v>
+      </c>
+      <c r="D92">
+        <v>-0.5998428463935852</v>
+      </c>
+      <c r="E92">
+        <v>2.707562446594238</v>
+      </c>
+      <c r="F92">
+        <v>2.000785768032074</v>
       </c>
     </row>
     <row r="93">
@@ -1751,7 +2585,16 @@
         </is>
       </c>
       <c r="C93">
-        <v>2.815781533718109</v>
+        <v>-0.433978796005249</v>
+      </c>
+      <c r="D93">
+        <v>-0.8703278303146362</v>
+      </c>
+      <c r="E93">
+        <v>2.830106019973755</v>
+      </c>
+      <c r="F93">
+        <v>0.6483608484268188</v>
       </c>
     </row>
     <row r="94">
@@ -1766,7 +2609,16 @@
         </is>
       </c>
       <c r="C94">
-        <v>2.834374457597733</v>
+        <v>-0.4305524528026581</v>
+      </c>
+      <c r="D94">
+        <v>-0.2199694812297821</v>
+      </c>
+      <c r="E94">
+        <v>2.84723773598671</v>
+      </c>
+      <c r="F94">
+        <v>3.900152593851089</v>
       </c>
     </row>
     <row r="95">
@@ -1781,7 +2633,16 @@
         </is>
       </c>
       <c r="C95">
-        <v>2.866901755332947</v>
+        <v>-0.4240657687187195</v>
+      </c>
+      <c r="D95">
+        <v>-0.406152218580246</v>
+      </c>
+      <c r="E95">
+        <v>2.879671156406403</v>
+      </c>
+      <c r="F95">
+        <v>2.96923890709877</v>
       </c>
     </row>
     <row r="96">
@@ -1796,7 +2657,16 @@
         </is>
       </c>
       <c r="C96">
-        <v>2.871715873479843</v>
+        <v>-0.4234734177589417</v>
+      </c>
+      <c r="D96">
+        <v>-0.2698805034160614</v>
+      </c>
+      <c r="E96">
+        <v>2.882632911205292</v>
+      </c>
+      <c r="F96">
+        <v>3.650597482919693</v>
       </c>
     </row>
     <row r="97">
@@ -1811,7 +2681,16 @@
         </is>
       </c>
       <c r="C97">
-        <v>2.872758805751801</v>
+        <v>-0.4234045445919037</v>
+      </c>
+      <c r="D97">
+        <v>0.4510630369186401</v>
+      </c>
+      <c r="E97">
+        <v>2.882977277040482</v>
+      </c>
+      <c r="F97">
+        <v>7.255315184593201</v>
       </c>
     </row>
     <row r="98">
@@ -1826,7 +2705,16 @@
         </is>
       </c>
       <c r="C98">
-        <v>2.945639044046402</v>
+        <v>-0.4076195359230042</v>
+      </c>
+      <c r="D98">
+        <v>-0.8153038620948792</v>
+      </c>
+      <c r="E98">
+        <v>2.961902320384979</v>
+      </c>
+      <c r="F98">
+        <v>0.9234806895256042</v>
       </c>
     </row>
     <row r="99">
@@ -1841,7 +2729,16 @@
         </is>
       </c>
       <c r="C99">
-        <v>2.959983795881271</v>
+        <v>-0.4050827026367188</v>
+      </c>
+      <c r="D99">
+        <v>-0.1458565294742584</v>
+      </c>
+      <c r="E99">
+        <v>2.974586486816406</v>
+      </c>
+      <c r="F99">
+        <v>4.270717352628708</v>
       </c>
     </row>
     <row r="100">
@@ -1856,7 +2753,16 @@
         </is>
       </c>
       <c r="C100">
-        <v>3.006495386362076</v>
+        <v>-0.3968627750873566</v>
+      </c>
+      <c r="D100">
+        <v>-0.3199985027313232</v>
+      </c>
+      <c r="E100">
+        <v>3.015686124563217</v>
+      </c>
+      <c r="F100">
+        <v>3.400007486343384</v>
       </c>
     </row>
     <row r="101">
@@ -1871,7 +2777,16 @@
         </is>
       </c>
       <c r="C101">
-        <v>3.036541491746902</v>
+        <v>-0.3909150660037994</v>
+      </c>
+      <c r="D101">
+        <v>-0.3984392285346985</v>
+      </c>
+      <c r="E101">
+        <v>3.045424669981003</v>
+      </c>
+      <c r="F101">
+        <v>3.007803857326508</v>
       </c>
     </row>
     <row r="102">
@@ -1886,7 +2801,16 @@
         </is>
       </c>
       <c r="C102">
-        <v>3.248572051525116</v>
+        <v>-0.3462093472480774</v>
+      </c>
+      <c r="D102">
+        <v>-0.938157320022583</v>
+      </c>
+      <c r="E102">
+        <v>3.268953263759613</v>
+      </c>
+      <c r="F102">
+        <v>0.309213399887085</v>
       </c>
     </row>
     <row r="103">
@@ -1901,7 +2825,16 @@
         </is>
       </c>
       <c r="C103">
-        <v>3.265874534845352</v>
+        <v>-0.3439826667308807</v>
+      </c>
+      <c r="D103">
+        <v>-0.9355399012565613</v>
+      </c>
+      <c r="E103">
+        <v>3.280086666345596</v>
+      </c>
+      <c r="F103">
+        <v>0.3223004937171936</v>
       </c>
     </row>
     <row r="104">
@@ -1916,7 +2849,16 @@
         </is>
       </c>
       <c r="C104">
-        <v>3.285501599311829</v>
+        <v>-0.34080770611763</v>
+      </c>
+      <c r="D104">
+        <v>-0.3430973887443542</v>
+      </c>
+      <c r="E104">
+        <v>3.29596146941185</v>
+      </c>
+      <c r="F104">
+        <v>3.284513056278229</v>
       </c>
     </row>
     <row r="105">
@@ -1931,7 +2873,16 @@
         </is>
       </c>
       <c r="C105">
-        <v>3.318492621183395</v>
+        <v>-0.3335755169391632</v>
+      </c>
+      <c r="D105">
+        <v>-0.9320187568664551</v>
+      </c>
+      <c r="E105">
+        <v>3.332122415304184</v>
+      </c>
+      <c r="F105">
+        <v>0.3399062156677246</v>
       </c>
     </row>
     <row r="106">
@@ -1946,7 +2897,16 @@
         </is>
       </c>
       <c r="C106">
-        <v>3.346720039844513</v>
+        <v>-0.3291879296302795</v>
+      </c>
+      <c r="D106">
+        <v>-0.9442643523216248</v>
+      </c>
+      <c r="E106">
+        <v>3.354060351848602</v>
+      </c>
+      <c r="F106">
+        <v>0.2786782383918762</v>
       </c>
     </row>
     <row r="107">
@@ -1961,7 +2921,16 @@
         </is>
       </c>
       <c r="C107">
-        <v>3.352833539247513</v>
+        <v>-0.3270830512046814</v>
+      </c>
+      <c r="D107">
+        <v>-0.4786522388458252</v>
+      </c>
+      <c r="E107">
+        <v>3.364584743976593</v>
+      </c>
+      <c r="F107">
+        <v>2.606738805770874</v>
       </c>
     </row>
     <row r="108">
@@ -1976,7 +2945,16 @@
         </is>
       </c>
       <c r="C108">
-        <v>3.428474366664886</v>
+        <v>-0.3117650151252747</v>
+      </c>
+      <c r="D108">
+        <v>-0.02807693928480148</v>
+      </c>
+      <c r="E108">
+        <v>3.441174924373627</v>
+      </c>
+      <c r="F108">
+        <v>4.859615303575993</v>
       </c>
     </row>
     <row r="109">
@@ -1991,7 +2969,16 @@
         </is>
       </c>
       <c r="C109">
-        <v>3.430214822292328</v>
+        <v>-0.3115237653255463</v>
+      </c>
+      <c r="D109">
+        <v>-0.6694729924201965</v>
+      </c>
+      <c r="E109">
+        <v>3.442381173372269</v>
+      </c>
+      <c r="F109">
+        <v>1.652635037899017</v>
       </c>
     </row>
     <row r="110">
@@ -2006,7 +2993,16 @@
         </is>
       </c>
       <c r="C110">
-        <v>3.441606163978577</v>
+        <v>-0.2968514859676361</v>
+      </c>
+      <c r="D110">
+        <v>-0.954923689365387</v>
+      </c>
+      <c r="E110">
+        <v>3.515742570161819</v>
+      </c>
+      <c r="F110">
+        <v>0.2253815531730652</v>
       </c>
     </row>
     <row r="111">
@@ -2021,7 +3017,16 @@
         </is>
       </c>
       <c r="C111">
-        <v>3.592253774404526</v>
+        <v>-0.2765800654888153</v>
+      </c>
+      <c r="D111">
+        <v>-0.9609909057617188</v>
+      </c>
+      <c r="E111">
+        <v>3.617099672555923</v>
+      </c>
+      <c r="F111">
+        <v>0.1950454711914062</v>
       </c>
     </row>
     <row r="112">
@@ -2036,7 +3041,16 @@
         </is>
       </c>
       <c r="C112">
-        <v>3.764065653085709</v>
+        <v>-0.2412320524454117</v>
+      </c>
+      <c r="D112">
+        <v>-0.7876830101013184</v>
+      </c>
+      <c r="E112">
+        <v>3.793839737772942</v>
+      </c>
+      <c r="F112">
+        <v>1.061584949493408</v>
       </c>
     </row>
     <row r="113">
@@ -2051,7 +3065,16 @@
         </is>
       </c>
       <c r="C113">
-        <v>4.187535718083382</v>
+        <v>-0.1597792059183121</v>
+      </c>
+      <c r="D113">
+        <v>0.1139295101165771</v>
+      </c>
+      <c r="E113">
+        <v>4.20110397040844</v>
+      </c>
+      <c r="F113">
+        <v>5.569647550582886</v>
       </c>
     </row>
     <row r="114">
@@ -2066,7 +3089,16 @@
         </is>
       </c>
       <c r="C114">
-        <v>4.238878265023232</v>
+        <v>-0.1494012475013733</v>
+      </c>
+      <c r="D114">
+        <v>-0.1577060222625732</v>
+      </c>
+      <c r="E114">
+        <v>4.252993762493134</v>
+      </c>
+      <c r="F114">
+        <v>4.211469888687134</v>
       </c>
     </row>
     <row r="115">
@@ -2081,7 +3113,16 @@
         </is>
       </c>
       <c r="C115">
-        <v>4.374798610806465</v>
+        <v>-0.1230613142251968</v>
+      </c>
+      <c r="D115">
+        <v>0.03000438585877419</v>
+      </c>
+      <c r="E115">
+        <v>4.384693428874016</v>
+      </c>
+      <c r="F115">
+        <v>5.150021929293871</v>
       </c>
     </row>
     <row r="116">
@@ -2096,7 +3137,16 @@
         </is>
       </c>
       <c r="C116">
-        <v>4.460904039442539</v>
+        <v>-0.1064994931221008</v>
+      </c>
+      <c r="D116">
+        <v>0.0720989927649498</v>
+      </c>
+      <c r="E116">
+        <v>4.467502534389496</v>
+      </c>
+      <c r="F116">
+        <v>5.360494963824749</v>
       </c>
     </row>
     <row r="117">
@@ -2111,7 +3161,16 @@
         </is>
       </c>
       <c r="C117">
-        <v>4.462672956287861</v>
+        <v>-0.1059644147753716</v>
+      </c>
+      <c r="D117">
+        <v>-0.1832424104213715</v>
+      </c>
+      <c r="E117">
+        <v>4.470177926123142</v>
+      </c>
+      <c r="F117">
+        <v>4.083787947893143</v>
       </c>
     </row>
     <row r="118">
@@ -2126,7 +3185,16 @@
         </is>
       </c>
       <c r="C118">
-        <v>4.6679612621665</v>
+        <v>-0.06283530592918396</v>
+      </c>
+      <c r="D118">
+        <v>0.3804220259189606</v>
+      </c>
+      <c r="E118">
+        <v>4.68582347035408</v>
+      </c>
+      <c r="F118">
+        <v>6.902110129594803</v>
       </c>
     </row>
     <row r="119">
@@ -2141,7 +3209,16 @@
         </is>
       </c>
       <c r="C119">
-        <v>4.983386538224295</v>
+        <v>0.00161109771579504</v>
+      </c>
+      <c r="D119">
+        <v>-0.07827077805995941</v>
+      </c>
+      <c r="E119">
+        <v>5.008055488578975</v>
+      </c>
+      <c r="F119">
+        <v>4.608646109700203</v>
       </c>
     </row>
     <row r="120">
@@ -2156,7 +3233,16 @@
         </is>
       </c>
       <c r="C120">
-        <v>5.557778514921665</v>
+        <v>0.1144040897488594</v>
+      </c>
+      <c r="D120">
+        <v>0.2101452946662903</v>
+      </c>
+      <c r="E120">
+        <v>5.572020448744297</v>
+      </c>
+      <c r="F120">
+        <v>6.050726473331451</v>
       </c>
     </row>
     <row r="121">
@@ -2171,7 +3257,16 @@
         </is>
       </c>
       <c r="C121">
-        <v>6.404626220464706</v>
+        <v>0.2843659520149231</v>
+      </c>
+      <c r="D121">
+        <v>0.05049911886453629</v>
+      </c>
+      <c r="E121">
+        <v>6.421829760074615</v>
+      </c>
+      <c r="F121">
+        <v>5.252495594322681</v>
       </c>
     </row>
     <row r="122">
@@ -2186,7 +3281,16 @@
         </is>
       </c>
       <c r="C122">
-        <v>6.698493659496307</v>
+        <v>0.3428907692432404</v>
+      </c>
+      <c r="D122">
+        <v>-0.08795322477817535</v>
+      </c>
+      <c r="E122">
+        <v>6.714453846216202</v>
+      </c>
+      <c r="F122">
+        <v>4.560233876109123</v>
       </c>
     </row>
     <row r="123">
@@ -2201,7 +3305,16 @@
         </is>
       </c>
       <c r="C123">
-        <v>6.727875769138336</v>
+        <v>0.3489234745502472</v>
+      </c>
+      <c r="D123">
+        <v>-0.03445926308631897</v>
+      </c>
+      <c r="E123">
+        <v>6.744617372751236</v>
+      </c>
+      <c r="F123">
+        <v>4.827703684568405</v>
       </c>
     </row>
     <row r="124">
@@ -2216,7 +3329,16 @@
         </is>
       </c>
       <c r="C124">
-        <v>6.782655864953995</v>
+        <v>0.3590704500675201</v>
+      </c>
+      <c r="D124">
+        <v>-0.05267150700092316</v>
+      </c>
+      <c r="E124">
+        <v>6.795352250337601</v>
+      </c>
+      <c r="F124">
+        <v>4.736642464995384</v>
       </c>
     </row>
     <row r="125">
@@ -2231,7 +3353,16 @@
         </is>
       </c>
       <c r="C125">
-        <v>6.930384933948517</v>
+        <v>0.3892899751663208</v>
+      </c>
+      <c r="D125">
+        <v>0.07844239473342896</v>
+      </c>
+      <c r="E125">
+        <v>6.946449875831604</v>
+      </c>
+      <c r="F125">
+        <v>5.392211973667145</v>
       </c>
     </row>
     <row r="126">
@@ -2246,7 +3377,16 @@
         </is>
       </c>
       <c r="C126">
-        <v>6.988899409770966</v>
+        <v>0.4013223946094513</v>
+      </c>
+      <c r="D126">
+        <v>-0.1473258584737778</v>
+      </c>
+      <c r="E126">
+        <v>7.006611973047256</v>
+      </c>
+      <c r="F126">
+        <v>4.263370707631111</v>
       </c>
     </row>
     <row r="127">
@@ -2261,7 +3401,16 @@
         </is>
       </c>
       <c r="C127">
-        <v>7.071106731891632</v>
+        <v>0.4162110686302185</v>
+      </c>
+      <c r="D127">
+        <v>-0.05926768109202385</v>
+      </c>
+      <c r="E127">
+        <v>7.081055343151093</v>
+      </c>
+      <c r="F127">
+        <v>4.703661594539881</v>
       </c>
     </row>
     <row r="128">
@@ -2276,7 +3425,16 @@
         </is>
       </c>
       <c r="C128">
-        <v>7.164037078619003</v>
+        <v>0.4356938004493713</v>
+      </c>
+      <c r="D128">
+        <v>-0.1612781137228012</v>
+      </c>
+      <c r="E128">
+        <v>7.178469002246857</v>
+      </c>
+      <c r="F128">
+        <v>4.193609431385994</v>
       </c>
     </row>
     <row r="129">
@@ -2291,7 +3449,16 @@
         </is>
       </c>
       <c r="C129">
-        <v>7.178374975919724</v>
+        <v>0.4389667809009552</v>
+      </c>
+      <c r="D129">
+        <v>-0.05247557908296585</v>
+      </c>
+      <c r="E129">
+        <v>7.194833904504776</v>
+      </c>
+      <c r="F129">
+        <v>4.737622104585171</v>
       </c>
     </row>
     <row r="130">
@@ -2306,7 +3473,16 @@
         </is>
       </c>
       <c r="C130">
-        <v>7.232203483581543</v>
+        <v>0.4515117406845093</v>
+      </c>
+      <c r="D130">
+        <v>-0.200951874256134</v>
+      </c>
+      <c r="E130">
+        <v>7.257558703422546</v>
+      </c>
+      <c r="F130">
+        <v>3.99524062871933</v>
       </c>
     </row>
     <row r="131">
@@ -2321,7 +3497,16 @@
         </is>
       </c>
       <c r="C131">
-        <v>7.325286567211151</v>
+        <v>0.4686188995838165</v>
+      </c>
+      <c r="D131">
+        <v>0.07330882549285889</v>
+      </c>
+      <c r="E131">
+        <v>7.343094497919083</v>
+      </c>
+      <c r="F131">
+        <v>5.366544127464294</v>
       </c>
     </row>
     <row r="132">
@@ -2336,7 +3521,16 @@
         </is>
       </c>
       <c r="C132">
-        <v>7.325845509767532</v>
+        <v>0.4693894684314728</v>
+      </c>
+      <c r="D132">
+        <v>-0.1736312061548233</v>
+      </c>
+      <c r="E132">
+        <v>7.346947342157364</v>
+      </c>
+      <c r="F132">
+        <v>4.131843969225883</v>
       </c>
     </row>
     <row r="133">
@@ -2351,13 +3545,22 @@
         </is>
       </c>
       <c r="C133">
-        <v>7.329235523939133</v>
+        <v>0.4695636630058289</v>
+      </c>
+      <c r="D133">
+        <v>-0.1290615648031235</v>
+      </c>
+      <c r="E133">
+        <v>7.347818315029144</v>
+      </c>
+      <c r="F133">
+        <v>4.354692175984383</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Alvaro Jofre Caceres</t>
+          <t>Luis Mayol Bouchon</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2366,13 +3569,22 @@
         </is>
       </c>
       <c r="C134">
-        <v>7.477888315916061</v>
+        <v>0.4986316859722137</v>
+      </c>
+      <c r="D134">
+        <v>-0.02617546543478966</v>
+      </c>
+      <c r="E134">
+        <v>7.493158429861069</v>
+      </c>
+      <c r="F134">
+        <v>4.869122672826052</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Luis Mayol Bouchon</t>
+          <t>Alvaro Jofre Caceres</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2381,7 +3593,16 @@
         </is>
       </c>
       <c r="C135">
-        <v>7.48260036110878</v>
+        <v>0.4992677867412567</v>
+      </c>
+      <c r="D135">
+        <v>-0.0002175376721424982</v>
+      </c>
+      <c r="E135">
+        <v>7.496338933706284</v>
+      </c>
+      <c r="F135">
+        <v>4.998912311639288</v>
       </c>
     </row>
     <row r="136">
@@ -2396,7 +3617,16 @@
         </is>
       </c>
       <c r="C136">
-        <v>8.505007922649384</v>
+        <v>0.7041895985603333</v>
+      </c>
+      <c r="D136">
+        <v>0.5631651878356934</v>
+      </c>
+      <c r="E136">
+        <v>8.520947992801666</v>
+      </c>
+      <c r="F136">
+        <v>7.815825939178467</v>
       </c>
     </row>
     <row r="137">
@@ -2411,7 +3641,16 @@
         </is>
       </c>
       <c r="C137">
-        <v>8.527747690677643</v>
+        <v>0.7083484530448914</v>
+      </c>
+      <c r="D137">
+        <v>0.4234490096569061</v>
+      </c>
+      <c r="E137">
+        <v>8.541742265224457</v>
+      </c>
+      <c r="F137">
+        <v>7.117245048284531</v>
       </c>
     </row>
     <row r="138">
@@ -2426,7 +3665,16 @@
         </is>
       </c>
       <c r="C138">
-        <v>8.531323671340942</v>
+        <v>0.7091208100318909</v>
+      </c>
+      <c r="D138">
+        <v>0.349780261516571</v>
+      </c>
+      <c r="E138">
+        <v>8.545604050159454</v>
+      </c>
+      <c r="F138">
+        <v>6.748901307582855</v>
       </c>
     </row>
     <row r="139">
@@ -2441,7 +3689,16 @@
         </is>
       </c>
       <c r="C139">
-        <v>8.561535477638245</v>
+        <v>0.7150528430938721</v>
+      </c>
+      <c r="D139">
+        <v>0.5943437218666077</v>
+      </c>
+      <c r="E139">
+        <v>8.57526421546936</v>
+      </c>
+      <c r="F139">
+        <v>7.971718609333038</v>
       </c>
     </row>
     <row r="140">
@@ -2456,7 +3713,16 @@
         </is>
       </c>
       <c r="C140">
-        <v>8.583040237426758</v>
+        <v>0.7190053462982178</v>
+      </c>
+      <c r="D140">
+        <v>0.3807236552238464</v>
+      </c>
+      <c r="E140">
+        <v>8.595026731491089</v>
+      </c>
+      <c r="F140">
+        <v>6.903618276119232</v>
       </c>
     </row>
     <row r="141">
@@ -2471,7 +3737,16 @@
         </is>
       </c>
       <c r="C141">
-        <v>8.612820506095886</v>
+        <v>0.7252454161643982</v>
+      </c>
+      <c r="D141">
+        <v>0.4673767983913422</v>
+      </c>
+      <c r="E141">
+        <v>8.626227080821991</v>
+      </c>
+      <c r="F141">
+        <v>7.336883991956711</v>
       </c>
     </row>
     <row r="142">
@@ -2486,7 +3761,16 @@
         </is>
       </c>
       <c r="C142">
-        <v>8.641535639762878</v>
+        <v>0.7315914034843445</v>
+      </c>
+      <c r="D142">
+        <v>0.5258102416992188</v>
+      </c>
+      <c r="E142">
+        <v>8.657957017421722</v>
+      </c>
+      <c r="F142">
+        <v>7.629051208496094</v>
       </c>
     </row>
     <row r="143">
@@ -2501,7 +3785,16 @@
         </is>
       </c>
       <c r="C143">
-        <v>8.646384179592133</v>
+        <v>0.7318371534347534</v>
+      </c>
+      <c r="D143">
+        <v>0.507140576839447</v>
+      </c>
+      <c r="E143">
+        <v>8.659185767173767</v>
+      </c>
+      <c r="F143">
+        <v>7.535702884197235</v>
       </c>
     </row>
     <row r="144">
@@ -2516,7 +3809,16 @@
         </is>
       </c>
       <c r="C144">
-        <v>8.683185577392578</v>
+        <v>0.7390940189361572</v>
+      </c>
+      <c r="D144">
+        <v>0.5263901352882385</v>
+      </c>
+      <c r="E144">
+        <v>8.695470094680786</v>
+      </c>
+      <c r="F144">
+        <v>7.631950676441193</v>
       </c>
     </row>
     <row r="145">
@@ -2531,7 +3833,16 @@
         </is>
       </c>
       <c r="C145">
-        <v>8.761503398418427</v>
+        <v>0.7486773133277893</v>
+      </c>
+      <c r="D145">
+        <v>0.6629346013069153</v>
+      </c>
+      <c r="E145">
+        <v>8.743386566638947</v>
+      </c>
+      <c r="F145">
+        <v>8.314673006534576</v>
       </c>
     </row>
     <row r="146">
@@ -2546,7 +3857,16 @@
         </is>
       </c>
       <c r="C146">
-        <v>8.779526948928833</v>
+        <v>0.7592868208885193</v>
+      </c>
+      <c r="D146">
+        <v>0.559650719165802</v>
+      </c>
+      <c r="E146">
+        <v>8.796434104442596</v>
+      </c>
+      <c r="F146">
+        <v>7.79825359582901</v>
       </c>
     </row>
     <row r="147">
@@ -2561,7 +3881,16 @@
         </is>
       </c>
       <c r="C147">
-        <v>8.800116181373596</v>
+        <v>0.763242781162262</v>
+      </c>
+      <c r="D147">
+        <v>0.5584916472434998</v>
+      </c>
+      <c r="E147">
+        <v>8.81621390581131</v>
+      </c>
+      <c r="F147">
+        <v>7.792458236217499</v>
       </c>
     </row>
     <row r="148">
@@ -2576,7 +3905,16 @@
         </is>
       </c>
       <c r="C148">
-        <v>8.923644721508026</v>
+        <v>0.7825386524200439</v>
+      </c>
+      <c r="D148">
+        <v>0.6226020455360413</v>
+      </c>
+      <c r="E148">
+        <v>8.91269326210022</v>
+      </c>
+      <c r="F148">
+        <v>8.113010227680206</v>
       </c>
     </row>
     <row r="149">
@@ -2591,7 +3929,16 @@
         </is>
       </c>
       <c r="C149">
-        <v>8.977281749248505</v>
+        <v>0.7982019782066345</v>
+      </c>
+      <c r="D149">
+        <v>0.3672947883605957</v>
+      </c>
+      <c r="E149">
+        <v>8.991009891033173</v>
+      </c>
+      <c r="F149">
+        <v>6.836473941802979</v>
       </c>
     </row>
     <row r="150">
@@ -2606,37 +3953,64 @@
         </is>
       </c>
       <c r="C150">
-        <v>9.142028391361237</v>
+        <v>0.8309134244918823</v>
+      </c>
+      <c r="D150">
+        <v>0.443514347076416</v>
+      </c>
+      <c r="E150">
+        <v>9.154567122459412</v>
+      </c>
+      <c r="F150">
+        <v>7.21757173538208</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Martin Arrau Garcia-Huidobro</t>
+          <t>Marcela Cubillos Sigall</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Chile Libre</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C151">
-        <v>9.180582761764526</v>
+        <v>0.8321467041969299</v>
+      </c>
+      <c r="D151">
+        <v>0.5545554757118225</v>
+      </c>
+      <c r="E151">
+        <v>9.16073352098465</v>
+      </c>
+      <c r="F151">
+        <v>7.772777378559113</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Marcela Cubillos Sigall</t>
+          <t>Martin Arrau Garcia-Huidobro</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Chile Libre</t>
         </is>
       </c>
       <c r="C152">
-        <v>9.186455905437469</v>
+        <v>0.8364089131355286</v>
+      </c>
+      <c r="D152">
+        <v>0.5481059551239014</v>
+      </c>
+      <c r="E152">
+        <v>9.182044565677643</v>
+      </c>
+      <c r="F152">
+        <v>7.740529775619507</v>
       </c>
     </row>
     <row r="153">
@@ -2651,7 +4025,16 @@
         </is>
       </c>
       <c r="C153">
-        <v>9.23613578081131</v>
+        <v>0.8499889373779297</v>
+      </c>
+      <c r="D153">
+        <v>0.464947372674942</v>
+      </c>
+      <c r="E153">
+        <v>9.249944686889648</v>
+      </c>
+      <c r="F153">
+        <v>7.32473686337471</v>
       </c>
     </row>
     <row r="154">
@@ -2666,7 +4049,16 @@
         </is>
       </c>
       <c r="C154">
-        <v>9.332095384597778</v>
+        <v>0.8671568632125854</v>
+      </c>
+      <c r="D154">
+        <v>0.4980350732803345</v>
+      </c>
+      <c r="E154">
+        <v>9.335784316062927</v>
+      </c>
+      <c r="F154">
+        <v>7.490175366401672</v>
       </c>
     </row>
     <row r="155">
@@ -2681,7 +4073,16 @@
         </is>
       </c>
       <c r="C155">
-        <v>9.505026340484619</v>
+        <v>0.9014140367507935</v>
+      </c>
+      <c r="D155">
+        <v>0.4329582154750824</v>
+      </c>
+      <c r="E155">
+        <v>9.507070183753967</v>
+      </c>
+      <c r="F155">
+        <v>7.164791077375412</v>
       </c>
     </row>
     <row r="156">
@@ -2696,7 +4097,16 @@
         </is>
       </c>
       <c r="C156">
-        <v>9.50714647769928</v>
+        <v>0.902003288269043</v>
+      </c>
+      <c r="D156">
+        <v>0.431729257106781</v>
+      </c>
+      <c r="E156">
+        <v>9.510016441345215</v>
+      </c>
+      <c r="F156">
+        <v>7.158646285533905</v>
       </c>
     </row>
   </sheetData>

--- a/files/puntajes.xlsx
+++ b/files/puntajes.xlsx
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.9286447167396545</v>
+        <v>-0.9348004460334778</v>
       </c>
       <c r="D2">
-        <v>0.3709705173969269</v>
+        <v>0.3551734685897827</v>
       </c>
       <c r="E2">
-        <v>0.3567764163017273</v>
+        <v>0.3259977698326111</v>
       </c>
       <c r="F2">
-        <v>6.854852586984634</v>
+        <v>6.775867342948914</v>
       </c>
     </row>
     <row r="3">
@@ -425,70 +425,70 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.9165996313095093</v>
+        <v>-0.9136587381362915</v>
       </c>
       <c r="D3">
-        <v>0.3998063802719116</v>
+        <v>0.4064819812774658</v>
       </c>
       <c r="E3">
-        <v>0.4170018434524536</v>
+        <v>0.4317063093185425</v>
       </c>
       <c r="F3">
-        <v>6.999031901359558</v>
+        <v>7.032409906387329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Isabel Selena Godoy Monardez</t>
+          <t>Marco Antonio Arellano Ortega</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C4">
-        <v>-0.9105411767959595</v>
+        <v>-0.909562885761261</v>
       </c>
       <c r="D4">
-        <v>0.4134185910224915</v>
+        <v>0.4155663549900055</v>
       </c>
       <c r="E4">
-        <v>0.4472941160202026</v>
+        <v>0.4521855711936951</v>
       </c>
       <c r="F4">
-        <v>7.067092955112457</v>
+        <v>7.077831774950027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alejandra Pia Perez Espina</t>
+          <t>Isabel Selena Godoy Monardez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C5">
-        <v>-0.9077043533325195</v>
+        <v>-0.9082052111625671</v>
       </c>
       <c r="D5">
-        <v>0.4196101725101471</v>
+        <v>0.4185251295566559</v>
       </c>
       <c r="E5">
-        <v>0.4614782333374023</v>
+        <v>0.4589739441871643</v>
       </c>
       <c r="F5">
-        <v>7.098050862550735</v>
+        <v>7.092625647783279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Manuel Mauricio Woldarsky Gonzalez</t>
+          <t>Alejandra Pia Perez Espina</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -497,46 +497,46 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.9057020545005798</v>
+        <v>-0.9067169427871704</v>
       </c>
       <c r="D6">
-        <v>0.4239147007465363</v>
+        <v>0.4217396676540375</v>
       </c>
       <c r="E6">
-        <v>0.4714897274971008</v>
+        <v>0.4664152860641479</v>
       </c>
       <c r="F6">
-        <v>7.119573503732681</v>
+        <v>7.108698338270187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wilfredo Manuel Bacian Delgado</t>
+          <t>Manuel Mauricio Woldarsky Gonzalez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C7">
-        <v>-0.9047894477844238</v>
+        <v>-0.903727114200592</v>
       </c>
       <c r="D7">
-        <v>0.4258591830730438</v>
+        <v>0.4281089007854462</v>
       </c>
       <c r="E7">
-        <v>0.4760527610778809</v>
+        <v>0.4813644289970398</v>
       </c>
       <c r="F7">
-        <v>7.129295915365219</v>
+        <v>7.140544503927231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Marco Antonio Arellano Ortega</t>
+          <t>Giovanna Jazmin Grandon Caro</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -545,232 +545,232 @@
         </is>
       </c>
       <c r="C8">
-        <v>-0.9025115370750427</v>
+        <v>-0.9003742337226868</v>
       </c>
       <c r="D8">
-        <v>0.4306658208370209</v>
+        <v>0.4351164102554321</v>
       </c>
       <c r="E8">
-        <v>0.4874423146247864</v>
+        <v>0.4981288313865662</v>
       </c>
       <c r="F8">
-        <v>7.153329104185104</v>
+        <v>7.175582051277161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Natividad Llanquileo Pilquiman</t>
+          <t>Constanza Andrea San Juan Standen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.8969171643257141</v>
+        <v>-0.9001675248146057</v>
       </c>
       <c r="D9">
-        <v>0.4421987235546112</v>
+        <v>0.2672185003757477</v>
       </c>
       <c r="E9">
-        <v>0.5154141783714294</v>
+        <v>0.4991623759269714</v>
       </c>
       <c r="F9">
-        <v>7.210993617773056</v>
+        <v>6.336092501878738</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Giovanna Jazmin Grandon Caro</t>
+          <t>Cristobal Patricio Andrade Leon</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C10">
-        <v>-0.8936319947242737</v>
+        <v>-0.8983136415481567</v>
       </c>
       <c r="D10">
-        <v>0.4488005042076111</v>
+        <v>0.2236939072608948</v>
       </c>
       <c r="E10">
-        <v>0.5318400263786316</v>
+        <v>0.5084317922592163</v>
       </c>
       <c r="F10">
-        <v>7.244002521038055</v>
+        <v>6.118469536304474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Constanza Andrea San Juan Standen</t>
+          <t>Natividad Llanquileo Pilquiman</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C11">
-        <v>-0.8936231136322021</v>
+        <v>-0.8972322940826416</v>
       </c>
       <c r="D11">
-        <v>0.2752406597137451</v>
+        <v>0.4415588974952698</v>
       </c>
       <c r="E11">
-        <v>0.5318844318389893</v>
+        <v>0.513838529586792</v>
       </c>
       <c r="F11">
-        <v>6.376203298568726</v>
+        <v>7.207794487476349</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Victorino Antilef Ñanco</t>
+          <t>Ivanna Daniela Olivares Miranda</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C12">
-        <v>-0.8920789957046509</v>
+        <v>-0.895319402217865</v>
       </c>
       <c r="D12">
-        <v>0.4518795013427734</v>
+        <v>0.4454247653484344</v>
       </c>
       <c r="E12">
-        <v>0.5396050214767456</v>
+        <v>0.523402988910675</v>
       </c>
       <c r="F12">
-        <v>7.259397506713867</v>
+        <v>7.227123826742172</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ericka Portilla Barrios</t>
+          <t>Camila Ignacia Zarate Zarate</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C13">
-        <v>-0.8913799524307251</v>
+        <v>-0.8936910629272461</v>
       </c>
       <c r="D13">
-        <v>0.3117200136184692</v>
+        <v>0.2331536114215851</v>
       </c>
       <c r="E13">
-        <v>0.5431002378463745</v>
+        <v>0.5315446853637695</v>
       </c>
       <c r="F13">
-        <v>6.558600068092346</v>
+        <v>6.165768057107925</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lisette Lorena Vergara Riquelme</t>
+          <t>Ericka Portilla Barrios</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C14">
-        <v>-0.8909122943878174</v>
+        <v>-0.8921622037887573</v>
       </c>
       <c r="D14">
-        <v>0.4541753530502319</v>
+        <v>0.302289605140686</v>
       </c>
       <c r="E14">
-        <v>0.5454385280609131</v>
+        <v>0.5391889810562134</v>
       </c>
       <c r="F14">
-        <v>7.27087676525116</v>
+        <v>6.51144802570343</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ivanna Daniela Olivares Miranda</t>
+          <t>Wilfredo Manuel Bacian Delgado</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C15">
-        <v>-0.8901574611663818</v>
+        <v>-0.8897342085838318</v>
       </c>
       <c r="D15">
-        <v>0.4556529223918915</v>
+        <v>0.4564788937568665</v>
       </c>
       <c r="E15">
-        <v>0.5492126941680908</v>
+        <v>0.5513289570808411</v>
       </c>
       <c r="F15">
-        <v>7.278264611959457</v>
+        <v>7.282394468784332</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cristobal Patricio Andrade Leon</t>
+          <t>Victorino Antilef Ñanco</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C16">
-        <v>-0.8892924785614014</v>
+        <v>-0.8894233107566833</v>
       </c>
       <c r="D16">
-        <v>0.2320316880941391</v>
+        <v>0.4570845663547516</v>
       </c>
       <c r="E16">
-        <v>0.5535376071929932</v>
+        <v>0.5528834462165833</v>
       </c>
       <c r="F16">
-        <v>6.160158440470695</v>
+        <v>7.285422831773758</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Camila Ignacia Zarate Zarate</t>
+          <t>Eric Chinga Ferreira</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C17">
-        <v>-0.8861868977546692</v>
+        <v>-0.8893296122550964</v>
       </c>
       <c r="D17">
-        <v>0.2470400482416153</v>
+        <v>0.4572669267654419</v>
       </c>
       <c r="E17">
-        <v>0.5690655112266541</v>
+        <v>0.5533519387245178</v>
       </c>
       <c r="F17">
-        <v>6.235200241208076</v>
+        <v>7.286334633827209</v>
       </c>
     </row>
     <row r="18">
@@ -785,70 +785,70 @@
         </is>
       </c>
       <c r="C18">
-        <v>-0.8861287236213684</v>
+        <v>-0.8867061734199524</v>
       </c>
       <c r="D18">
-        <v>0.4634392559528351</v>
+        <v>0.4623334109783173</v>
       </c>
       <c r="E18">
-        <v>0.569356381893158</v>
+        <v>0.566469132900238</v>
       </c>
       <c r="F18">
-        <v>7.317196279764175</v>
+        <v>7.311667054891586</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Eric Chinga Ferreira</t>
+          <t>Lisette Lorena Vergara Riquelme</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C19">
-        <v>-0.885723352432251</v>
+        <v>-0.8857017755508423</v>
       </c>
       <c r="D19">
-        <v>0.4642133116722107</v>
+        <v>0.4642547070980072</v>
       </c>
       <c r="E19">
-        <v>0.5713832378387451</v>
+        <v>0.5714911222457886</v>
       </c>
       <c r="F19">
-        <v>7.321066558361053</v>
+        <v>7.321273535490036</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dayyana Gonzalez Araya</t>
+          <t>Elsa Carolina Labraña Pino</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pueblo Constituyente</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.8756215572357178</v>
+        <v>-0.8849445581436157</v>
       </c>
       <c r="D20">
-        <v>0.287120908498764</v>
+        <v>0.4656963646411896</v>
       </c>
       <c r="E20">
-        <v>0.6218922138214111</v>
+        <v>0.5752772092819214</v>
       </c>
       <c r="F20">
-        <v>6.43560454249382</v>
+        <v>7.328481823205948</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Francisco Javier Caamaño Rojas</t>
+          <t>Dayyana Gonzalez Araya</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -857,40 +857,40 @@
         </is>
       </c>
       <c r="C21">
-        <v>-0.8724865913391113</v>
+        <v>-0.8827226758003235</v>
       </c>
       <c r="D21">
-        <v>0.2187297344207764</v>
+        <v>0.2696991860866547</v>
       </c>
       <c r="E21">
-        <v>0.6375670433044434</v>
+        <v>0.5863866209983826</v>
       </c>
       <c r="F21">
-        <v>6.093648672103882</v>
+        <v>6.348495930433273</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Elsa Carolina Labraña Pino</t>
+          <t>Francisco Javier Caamaño Rojas</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblo Constituyente</t>
         </is>
       </c>
       <c r="C22">
-        <v>-0.8721132874488831</v>
+        <v>-0.8798544406890869</v>
       </c>
       <c r="D22">
-        <v>0.4893039762973785</v>
+        <v>0.2096544653177261</v>
       </c>
       <c r="E22">
-        <v>0.6394335627555847</v>
+        <v>0.6007277965545654</v>
       </c>
       <c r="F22">
-        <v>7.446519881486893</v>
+        <v>6.048272326588631</v>
       </c>
     </row>
     <row r="23">
@@ -905,64 +905,64 @@
         </is>
       </c>
       <c r="C23">
-        <v>-0.8616788387298584</v>
+        <v>-0.8683927655220032</v>
       </c>
       <c r="D23">
-        <v>0.1984806060791016</v>
+        <v>0.1920101046562195</v>
       </c>
       <c r="E23">
-        <v>0.691605806350708</v>
+        <v>0.6580361723899841</v>
       </c>
       <c r="F23">
-        <v>5.992403030395508</v>
+        <v>5.960050523281097</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Paola Alejandra Grandon Gonzalez</t>
+          <t>Rodrigo Ernesto Rojas Vade</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C24">
-        <v>-0.8572064638137817</v>
+        <v>-0.8642653226852417</v>
       </c>
       <c r="D24">
-        <v>0.2781208753585815</v>
+        <v>0.5030360817909241</v>
       </c>
       <c r="E24">
-        <v>0.7139676809310913</v>
+        <v>0.6786733865737915</v>
       </c>
       <c r="F24">
-        <v>6.390604376792908</v>
+        <v>7.51518040895462</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Rodrigo Ernesto Rojas Vade</t>
+          <t>Paola Alejandra Grandon Gonzalez</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C25">
-        <v>-0.8559063076972961</v>
+        <v>-0.8598243594169617</v>
       </c>
       <c r="D25">
-        <v>0.5171309113502502</v>
+        <v>0.2655082941055298</v>
       </c>
       <c r="E25">
-        <v>0.7204684615135193</v>
+        <v>0.7008782029151917</v>
       </c>
       <c r="F25">
-        <v>7.585654556751251</v>
+        <v>6.327541470527649</v>
       </c>
     </row>
     <row r="26">
@@ -977,22 +977,22 @@
         </is>
       </c>
       <c r="C26">
-        <v>-0.8518121242523193</v>
+        <v>-0.859707236289978</v>
       </c>
       <c r="D26">
-        <v>0.1351670473814011</v>
+        <v>0.1338045746088028</v>
       </c>
       <c r="E26">
-        <v>0.7409393787384033</v>
+        <v>0.7014638185501099</v>
       </c>
       <c r="F26">
-        <v>5.675835236907005</v>
+        <v>5.669022873044014</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hugo Humberto Gutierrez Galvez</t>
+          <t>Hernan Jesus Velasquez Nuñez</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1001,64 +1001,64 @@
         </is>
       </c>
       <c r="C27">
-        <v>-0.8504661917686462</v>
+        <v>-0.8535152077674866</v>
       </c>
       <c r="D27">
-        <v>0.3146429359912872</v>
+        <v>0.2864753901958466</v>
       </c>
       <c r="E27">
-        <v>0.7476690411567688</v>
+        <v>0.7324239611625671</v>
       </c>
       <c r="F27">
-        <v>6.573214679956436</v>
+        <v>6.432376950979233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hernan Jesus Velasquez Nuñez</t>
+          <t>Carolina Cyntia Vilches Fuenzalida</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C28">
-        <v>-0.8504323363304138</v>
+        <v>-0.8527134656906128</v>
       </c>
       <c r="D28">
-        <v>0.2941360473632812</v>
+        <v>-0.1024728715419769</v>
       </c>
       <c r="E28">
-        <v>0.7478383183479309</v>
+        <v>0.736432671546936</v>
       </c>
       <c r="F28">
-        <v>6.470680236816406</v>
+        <v>4.487635642290115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Carolina Cyntia Vilches Fuenzalida</t>
+          <t>Hugo Humberto Gutierrez Galvez</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C29">
-        <v>-0.8448643684387207</v>
+        <v>-0.8524420261383057</v>
       </c>
       <c r="D29">
-        <v>-0.1070624738931656</v>
+        <v>0.3127690851688385</v>
       </c>
       <c r="E29">
-        <v>0.7756781578063965</v>
+        <v>0.7377898693084717</v>
       </c>
       <c r="F29">
-        <v>4.464687630534172</v>
+        <v>6.563845425844193</v>
       </c>
     </row>
     <row r="30">
@@ -1073,16 +1073,16 @@
         </is>
       </c>
       <c r="C30">
-        <v>-0.833560049533844</v>
+        <v>-0.8423784971237183</v>
       </c>
       <c r="D30">
-        <v>-0.07357413321733475</v>
+        <v>-0.07175552099943161</v>
       </c>
       <c r="E30">
-        <v>0.83219975233078</v>
+        <v>0.7881075143814087</v>
       </c>
       <c r="F30">
-        <v>4.632129333913326</v>
+        <v>4.641222395002842</v>
       </c>
     </row>
     <row r="31">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="C31">
-        <v>-0.8313103318214417</v>
+        <v>-0.8399695158004761</v>
       </c>
       <c r="D31">
-        <v>-0.07091810554265976</v>
+        <v>-0.06999541819095612</v>
       </c>
       <c r="E31">
-        <v>0.8434483408927917</v>
+        <v>0.8001524209976196</v>
       </c>
       <c r="F31">
-        <v>4.645409472286701</v>
+        <v>4.650022909045219</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Felix Galleguillos Aymani</t>
+          <t>Margarita Vargas Lopez</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1121,40 +1121,40 @@
         </is>
       </c>
       <c r="C32">
-        <v>-0.8271570801734924</v>
+        <v>-0.8352197408676147</v>
       </c>
       <c r="D32">
-        <v>0.01805784367024899</v>
+        <v>0.392645537853241</v>
       </c>
       <c r="E32">
-        <v>0.8642145991325378</v>
+        <v>0.8239012956619263</v>
       </c>
       <c r="F32">
-        <v>5.090289218351245</v>
+        <v>6.963227689266205</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cristina Ines Dorador Ortiz</t>
+          <t>Felix Galleguillos Aymani</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C33">
-        <v>-0.8237769603729248</v>
+        <v>-0.8348954319953918</v>
       </c>
       <c r="D33">
-        <v>-0.1688708662986755</v>
+        <v>0.01847280375659466</v>
       </c>
       <c r="E33">
-        <v>0.881115198135376</v>
+        <v>0.8255228400230408</v>
       </c>
       <c r="F33">
-        <v>4.155645668506622</v>
+        <v>5.092364018782973</v>
       </c>
     </row>
     <row r="34">
@@ -1169,22 +1169,22 @@
         </is>
       </c>
       <c r="C34">
-        <v>-0.8227365016937256</v>
+        <v>-0.8329080939292908</v>
       </c>
       <c r="D34">
-        <v>0.004115978255867958</v>
+        <v>-0.0005555247189477086</v>
       </c>
       <c r="E34">
-        <v>0.8863174915313721</v>
+        <v>0.8354595303535461</v>
       </c>
       <c r="F34">
-        <v>5.02057989127934</v>
+        <v>4.997222376405261</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Alvin Antonio Saldaña Muñoz</t>
+          <t>Cristina Ines Dorador Ortiz</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1193,70 +1193,70 @@
         </is>
       </c>
       <c r="C35">
-        <v>-0.822434663772583</v>
+        <v>-0.8321686387062073</v>
       </c>
       <c r="D35">
-        <v>-0.05289649963378906</v>
+        <v>-0.163242518901825</v>
       </c>
       <c r="E35">
-        <v>0.887826681137085</v>
+        <v>0.8391568064689636</v>
       </c>
       <c r="F35">
-        <v>4.735517501831055</v>
+        <v>4.183787405490875</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Adriana Camila Ampuero Barrientos</t>
+          <t>Marcos Patricio Barraza Gomez</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mixto</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C36">
-        <v>-0.8219107389450073</v>
+        <v>-0.8299037218093872</v>
       </c>
       <c r="D36">
-        <v>0.2100926488637924</v>
+        <v>0.404995322227478</v>
       </c>
       <c r="E36">
-        <v>0.8904463052749634</v>
+        <v>0.850481390953064</v>
       </c>
       <c r="F36">
-        <v>6.050463244318962</v>
+        <v>7.02497661113739</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Margarita Vargas Lopez</t>
+          <t>Adriana Camila Ampuero Barrientos</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Mixto</t>
         </is>
       </c>
       <c r="C37">
-        <v>-0.8201687335968018</v>
+        <v>-0.8296992778778076</v>
       </c>
       <c r="D37">
-        <v>0.4101419448852539</v>
+        <v>0.1984714269638062</v>
       </c>
       <c r="E37">
-        <v>0.8991563320159912</v>
+        <v>0.8515036106109619</v>
       </c>
       <c r="F37">
-        <v>7.05070972442627</v>
+        <v>5.992357134819031</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bastian Esteban Labbe Salazar</t>
+          <t>Alvin Antonio Saldaña Muñoz</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1265,40 +1265,40 @@
         </is>
       </c>
       <c r="C38">
-        <v>-0.8188660144805908</v>
+        <v>-0.8295971751213074</v>
       </c>
       <c r="D38">
-        <v>-0.009768344461917877</v>
+        <v>-0.04993493482470512</v>
       </c>
       <c r="E38">
-        <v>0.9056699275970459</v>
+        <v>0.8520141243934631</v>
       </c>
       <c r="F38">
-        <v>4.951158277690411</v>
+        <v>4.750325325876474</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Marcos Patricio Barraza Gomez</t>
+          <t>Bastian Esteban Labbe Salazar</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C39">
-        <v>-0.817457914352417</v>
+        <v>-0.8273138403892517</v>
       </c>
       <c r="D39">
-        <v>0.419215589761734</v>
+        <v>-0.003637106157839298</v>
       </c>
       <c r="E39">
-        <v>0.912710428237915</v>
+        <v>0.8634307980537415</v>
       </c>
       <c r="F39">
-        <v>7.09607794880867</v>
+        <v>4.981814469210804</v>
       </c>
     </row>
     <row r="40">
@@ -1313,16 +1313,16 @@
         </is>
       </c>
       <c r="C40">
-        <v>-0.8152961134910583</v>
+        <v>-0.8230786323547363</v>
       </c>
       <c r="D40">
-        <v>0.2260162085294724</v>
+        <v>0.213116466999054</v>
       </c>
       <c r="E40">
-        <v>0.9235194325447083</v>
+        <v>0.8846068382263184</v>
       </c>
       <c r="F40">
-        <v>6.130081042647362</v>
+        <v>6.06558233499527</v>
       </c>
     </row>
     <row r="41">
@@ -1337,16 +1337,16 @@
         </is>
       </c>
       <c r="C41">
-        <v>-0.8130680918693542</v>
+        <v>-0.8222134113311768</v>
       </c>
       <c r="D41">
-        <v>-0.1057373881340027</v>
+        <v>-0.1026305109262466</v>
       </c>
       <c r="E41">
-        <v>0.9346595406532288</v>
+        <v>0.8889329433441162</v>
       </c>
       <c r="F41">
-        <v>4.471313059329987</v>
+        <v>4.486847445368767</v>
       </c>
     </row>
     <row r="42">
@@ -1361,46 +1361,46 @@
         </is>
       </c>
       <c r="C42">
-        <v>-0.8112968802452087</v>
+        <v>-0.8204314112663269</v>
       </c>
       <c r="D42">
-        <v>-0.09536293148994446</v>
+        <v>-0.09145456552505493</v>
       </c>
       <c r="E42">
-        <v>0.9435155987739563</v>
+        <v>0.8978429436683655</v>
       </c>
       <c r="F42">
-        <v>4.523185342550278</v>
+        <v>4.542727172374725</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Valentina Andrea Miranda Arce</t>
+          <t>Janis Jan Del Carmen Meneses Palma</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Mov Sociales</t>
         </is>
       </c>
       <c r="C43">
-        <v>-0.807752788066864</v>
+        <v>-0.8153499960899353</v>
       </c>
       <c r="D43">
-        <v>0.3857783377170563</v>
+        <v>-0.1323184221982956</v>
       </c>
       <c r="E43">
-        <v>0.9612360596656799</v>
+        <v>0.9232500195503235</v>
       </c>
       <c r="F43">
-        <v>6.928891688585281</v>
+        <v>4.338407889008522</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Janis Jan Del Carmen Meneses Palma</t>
+          <t>Vanessa Camila Hoppe Espoz</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="C44">
-        <v>-0.8062258958816528</v>
+        <v>-0.8114421367645264</v>
       </c>
       <c r="D44">
-        <v>-0.1363498419523239</v>
+        <v>-0.004458406008780003</v>
       </c>
       <c r="E44">
-        <v>0.9688705205917358</v>
+        <v>0.9427893161773682</v>
       </c>
       <c r="F44">
-        <v>4.31825079023838</v>
+        <v>4.9777079699561</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Vanessa Camila Hoppe Espoz</t>
+          <t>Alondra Carrillo Vidal</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1433,16 +1433,16 @@
         </is>
       </c>
       <c r="C45">
-        <v>-0.8053997755050659</v>
+        <v>-0.8113058805465698</v>
       </c>
       <c r="D45">
-        <v>-0.005230642855167389</v>
+        <v>-0.1039119362831116</v>
       </c>
       <c r="E45">
-        <v>0.9730011224746704</v>
+        <v>0.9434705972671509</v>
       </c>
       <c r="F45">
-        <v>4.973846785724163</v>
+        <v>4.480440318584442</v>
       </c>
     </row>
     <row r="46">
@@ -1457,16 +1457,16 @@
         </is>
       </c>
       <c r="C46">
-        <v>-0.803094744682312</v>
+        <v>-0.8105654120445251</v>
       </c>
       <c r="D46">
-        <v>0.1508201062679291</v>
+        <v>0.1498901546001434</v>
       </c>
       <c r="E46">
-        <v>0.9845262765884399</v>
+        <v>0.9471729397773743</v>
       </c>
       <c r="F46">
-        <v>5.754100531339645</v>
+        <v>5.749450773000717</v>
       </c>
     </row>
     <row r="47">
@@ -1481,40 +1481,40 @@
         </is>
       </c>
       <c r="C47">
-        <v>-0.8017978668212891</v>
+        <v>-0.8098832368850708</v>
       </c>
       <c r="D47">
-        <v>0.2056694030761719</v>
+        <v>0.1957037448883057</v>
       </c>
       <c r="E47">
-        <v>0.9910106658935547</v>
+        <v>0.950583815574646</v>
       </c>
       <c r="F47">
-        <v>6.028347015380859</v>
+        <v>5.978518724441528</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Alondra Carrillo Vidal</t>
+          <t>Valentina Andrea Miranda Arce</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mov Sociales</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C48">
-        <v>-0.8014782071113586</v>
+        <v>-0.8096570372581482</v>
       </c>
       <c r="D48">
-        <v>-0.1073293313384056</v>
+        <v>0.3827528953552246</v>
       </c>
       <c r="E48">
-        <v>0.9926089644432068</v>
+        <v>0.951714813709259</v>
       </c>
       <c r="F48">
-        <v>4.463353343307972</v>
+        <v>6.913764476776123</v>
       </c>
     </row>
     <row r="49">
@@ -1529,16 +1529,16 @@
         </is>
       </c>
       <c r="C49">
-        <v>-0.797635018825531</v>
+        <v>-0.8069471120834351</v>
       </c>
       <c r="D49">
-        <v>0.1854828745126724</v>
+        <v>0.1711196750402451</v>
       </c>
       <c r="E49">
-        <v>1.011824905872345</v>
+        <v>0.9652644395828247</v>
       </c>
       <c r="F49">
-        <v>5.927414372563362</v>
+        <v>5.855598375201225</v>
       </c>
     </row>
     <row r="50">
@@ -1553,16 +1553,16 @@
         </is>
       </c>
       <c r="C50">
-        <v>-0.794482409954071</v>
+        <v>-0.8031366467475891</v>
       </c>
       <c r="D50">
-        <v>0.124424122273922</v>
+        <v>0.1148373559117317</v>
       </c>
       <c r="E50">
-        <v>1.027587950229645</v>
+        <v>0.9843167662620544</v>
       </c>
       <c r="F50">
-        <v>5.62212061136961</v>
+        <v>5.574186779558659</v>
       </c>
     </row>
     <row r="51">
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="C51">
-        <v>-0.7923678755760193</v>
+        <v>-0.8002704977989197</v>
       </c>
       <c r="D51">
-        <v>0.001677796128205955</v>
+        <v>-0.002038374776020646</v>
       </c>
       <c r="E51">
-        <v>1.038160622119904</v>
+        <v>0.9986475110054016</v>
       </c>
       <c r="F51">
-        <v>5.00838898064103</v>
+        <v>4.989808126119897</v>
       </c>
     </row>
     <row r="52">
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="C52">
-        <v>-0.7908519506454468</v>
+        <v>-0.7933001518249512</v>
       </c>
       <c r="D52">
-        <v>0.3589777946472168</v>
+        <v>0.3563371002674103</v>
       </c>
       <c r="E52">
-        <v>1.045740246772766</v>
+        <v>1.033499240875244</v>
       </c>
       <c r="F52">
-        <v>6.794888973236084</v>
+        <v>6.781685501337051</v>
       </c>
     </row>
     <row r="53">
@@ -1625,64 +1625,64 @@
         </is>
       </c>
       <c r="C53">
-        <v>-0.7829328179359436</v>
+        <v>-0.7911780476570129</v>
       </c>
       <c r="D53">
-        <v>0.1683333516120911</v>
+        <v>0.1598463803529739</v>
       </c>
       <c r="E53">
-        <v>1.085335910320282</v>
+        <v>1.044109761714935</v>
       </c>
       <c r="F53">
-        <v>5.841666758060455</v>
+        <v>5.79923190176487</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Maria Magdalena Rivera Iribarren</t>
+          <t>Lidia Gonzalez Calderon</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Coord Const Plurinacional</t>
+          <t>Pueblos Indigenas</t>
         </is>
       </c>
       <c r="C54">
-        <v>-0.782810389995575</v>
+        <v>-0.7857387065887451</v>
       </c>
       <c r="D54">
-        <v>0.6222603321075439</v>
+        <v>-0.04650436714291573</v>
       </c>
       <c r="E54">
-        <v>1.085948050022125</v>
+        <v>1.071306467056274</v>
       </c>
       <c r="F54">
-        <v>8.11130166053772</v>
+        <v>4.767478164285421</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lidia Gonzalez Calderon</t>
+          <t>Maria Magdalena Rivera Iribarren</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pueblos Indigenas</t>
+          <t>Coord Const Plurinacional</t>
         </is>
       </c>
       <c r="C55">
-        <v>-0.7757013440132141</v>
+        <v>-0.7836734056472778</v>
       </c>
       <c r="D55">
-        <v>-0.04522901400923729</v>
+        <v>0.621173083782196</v>
       </c>
       <c r="E55">
-        <v>1.121493279933929</v>
+        <v>1.081632971763611</v>
       </c>
       <c r="F55">
-        <v>4.773854929953814</v>
+        <v>8.10586541891098</v>
       </c>
     </row>
     <row r="56">
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="C56">
-        <v>-0.7720170021057129</v>
+        <v>-0.7810896039009094</v>
       </c>
       <c r="D56">
-        <v>0.2680789828300476</v>
+        <v>0.2568144798278809</v>
       </c>
       <c r="E56">
-        <v>1.139914989471436</v>
+        <v>1.094551980495453</v>
       </c>
       <c r="F56">
-        <v>6.340394914150238</v>
+        <v>6.284072399139404</v>
       </c>
     </row>
     <row r="57">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="C57">
-        <v>-0.7650782465934753</v>
+        <v>-0.773105800151825</v>
       </c>
       <c r="D57">
-        <v>0.02916519716382027</v>
+        <v>0.0238664299249649</v>
       </c>
       <c r="E57">
-        <v>1.174608767032623</v>
+        <v>1.134470999240875</v>
       </c>
       <c r="F57">
-        <v>5.145825985819101</v>
+        <v>5.119332149624825</v>
       </c>
     </row>
     <row r="58">
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="C58">
-        <v>-0.7607666254043579</v>
+        <v>-0.7707805037498474</v>
       </c>
       <c r="D58">
-        <v>0.02096476592123508</v>
+        <v>0.01631550490856171</v>
       </c>
       <c r="E58">
-        <v>1.19616687297821</v>
+        <v>1.146097481250763</v>
       </c>
       <c r="F58">
-        <v>5.104823829606175</v>
+        <v>5.081577524542809</v>
       </c>
     </row>
     <row r="59">
@@ -1769,16 +1769,16 @@
         </is>
       </c>
       <c r="C59">
-        <v>-0.7358037233352661</v>
+        <v>-0.7458935379981995</v>
       </c>
       <c r="D59">
-        <v>-0.1567669361829758</v>
+        <v>-0.1483744978904724</v>
       </c>
       <c r="E59">
-        <v>1.320981383323669</v>
+        <v>1.270532310009003</v>
       </c>
       <c r="F59">
-        <v>4.216165319085121</v>
+        <v>4.258127510547638</v>
       </c>
     </row>
     <row r="60">
@@ -1793,16 +1793,16 @@
         </is>
       </c>
       <c r="C60">
-        <v>-0.7239049673080444</v>
+        <v>-0.734865128993988</v>
       </c>
       <c r="D60">
-        <v>-0.1964859068393707</v>
+        <v>-0.182717502117157</v>
       </c>
       <c r="E60">
-        <v>1.380475163459778</v>
+        <v>1.32567435503006</v>
       </c>
       <c r="F60">
-        <v>4.017570465803146</v>
+        <v>4.086412489414215</v>
       </c>
     </row>
     <row r="61">
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="C61">
-        <v>-0.7220357060432434</v>
+        <v>-0.7264448404312134</v>
       </c>
       <c r="D61">
-        <v>0.2571282982826233</v>
+        <v>0.2511695623397827</v>
       </c>
       <c r="E61">
-        <v>1.389821469783783</v>
+        <v>1.367775797843933</v>
       </c>
       <c r="F61">
-        <v>6.285641491413116</v>
+        <v>6.255847811698914</v>
       </c>
     </row>
     <row r="62">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="C62">
-        <v>-0.695953369140625</v>
+        <v>-0.7053335309028625</v>
       </c>
       <c r="D62">
-        <v>-0.07822798192501068</v>
+        <v>-0.07715843617916107</v>
       </c>
       <c r="E62">
-        <v>1.520233154296875</v>
+        <v>1.473332345485687</v>
       </c>
       <c r="F62">
-        <v>4.608860090374947</v>
+        <v>4.614207819104195</v>
       </c>
     </row>
     <row r="63">
@@ -1865,16 +1865,16 @@
         </is>
       </c>
       <c r="C63">
-        <v>-0.6769356727600098</v>
+        <v>-0.6899818778038025</v>
       </c>
       <c r="D63">
-        <v>0.2288071364164352</v>
+        <v>0.2244620323181152</v>
       </c>
       <c r="E63">
-        <v>1.615321636199951</v>
+        <v>1.550090610980988</v>
       </c>
       <c r="F63">
-        <v>6.144035682082176</v>
+        <v>6.122310161590576</v>
       </c>
     </row>
     <row r="64">
@@ -1889,22 +1889,22 @@
         </is>
       </c>
       <c r="C64">
-        <v>-0.6756698489189148</v>
+        <v>-0.6871165037155151</v>
       </c>
       <c r="D64">
-        <v>-0.2996337413787842</v>
+        <v>-0.2692650556564331</v>
       </c>
       <c r="E64">
-        <v>1.621650755405426</v>
+        <v>1.564417481422424</v>
       </c>
       <c r="F64">
-        <v>3.501831293106079</v>
+        <v>3.653674721717834</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Barbara Sepulveda Hales</t>
+          <t>Bessy Mireya Del Rosario Gallardo Prado</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1913,64 +1913,64 @@
         </is>
       </c>
       <c r="C65">
-        <v>-0.6423785090446472</v>
+        <v>-0.640223503112793</v>
       </c>
       <c r="D65">
-        <v>0.3609901666641235</v>
+        <v>0.1831193417310715</v>
       </c>
       <c r="E65">
-        <v>1.788107454776764</v>
+        <v>1.798882484436035</v>
       </c>
       <c r="F65">
-        <v>6.804950833320618</v>
+        <v>5.915596708655357</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bessy Mireya Del Rosario Gallardo Prado</t>
+          <t>Mariela Andrea Serey Jimenez</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chile Digno</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C66">
-        <v>-0.6334707736968994</v>
+        <v>-0.6356712579727173</v>
       </c>
       <c r="D66">
-        <v>0.1767090111970901</v>
+        <v>-0.5948674082756042</v>
       </c>
       <c r="E66">
-        <v>1.832646131515503</v>
+        <v>1.821643710136414</v>
       </c>
       <c r="F66">
-        <v>5.883545055985451</v>
+        <v>2.025662958621979</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mariela Andrea Serey Jimenez</t>
+          <t>Barbara Sepulveda Hales</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Chile Digno</t>
         </is>
       </c>
       <c r="C67">
-        <v>-0.6241737604141235</v>
+        <v>-0.6329410076141357</v>
       </c>
       <c r="D67">
-        <v>-0.6221487522125244</v>
+        <v>0.350881814956665</v>
       </c>
       <c r="E67">
-        <v>1.879131197929382</v>
+        <v>1.835294961929321</v>
       </c>
       <c r="F67">
-        <v>1.889256238937378</v>
+        <v>6.754409074783325</v>
       </c>
     </row>
     <row r="68">
@@ -1985,16 +1985,16 @@
         </is>
       </c>
       <c r="C68">
-        <v>-0.6025861501693726</v>
+        <v>-0.6167237162590027</v>
       </c>
       <c r="D68">
-        <v>-0.692430853843689</v>
+        <v>-0.6500768065452576</v>
       </c>
       <c r="E68">
-        <v>1.987069249153137</v>
+        <v>1.916381418704987</v>
       </c>
       <c r="F68">
-        <v>1.537845730781555</v>
+        <v>1.749615967273712</v>
       </c>
     </row>
     <row r="69">
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="C69">
-        <v>-0.5960678458213806</v>
+        <v>-0.6125836968421936</v>
       </c>
       <c r="D69">
-        <v>-0.1165620237588882</v>
+        <v>-0.09593641757965088</v>
       </c>
       <c r="E69">
-        <v>2.019660770893097</v>
+        <v>1.937081515789032</v>
       </c>
       <c r="F69">
-        <v>4.417189881205559</v>
+        <v>4.520317912101746</v>
       </c>
     </row>
     <row r="70">
@@ -2033,22 +2033,22 @@
         </is>
       </c>
       <c r="C70">
-        <v>-0.5934133529663086</v>
+        <v>-0.602031946182251</v>
       </c>
       <c r="D70">
-        <v>-0.7312490940093994</v>
+        <v>-0.7107458114624023</v>
       </c>
       <c r="E70">
-        <v>2.032933235168457</v>
+        <v>1.989840269088745</v>
       </c>
       <c r="F70">
-        <v>1.343754529953003</v>
+        <v>1.446270942687988</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aurora Genoveva Delgado Vergara</t>
+          <t>Yarela Nicohl Gomez Sanchez</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2057,22 +2057,22 @@
         </is>
       </c>
       <c r="C71">
-        <v>-0.5905580520629883</v>
+        <v>-0.6017138361930847</v>
       </c>
       <c r="D71">
-        <v>-0.7252808213233948</v>
+        <v>-0.637857973575592</v>
       </c>
       <c r="E71">
-        <v>2.047209739685059</v>
+        <v>1.991430819034576</v>
       </c>
       <c r="F71">
-        <v>1.373595893383026</v>
+        <v>1.81071013212204</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Yarela Nicohl Gomez Sanchez</t>
+          <t>Aurora Genoveva Delgado Vergara</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2081,16 +2081,16 @@
         </is>
       </c>
       <c r="C72">
-        <v>-0.588489294052124</v>
+        <v>-0.6002060770988464</v>
       </c>
       <c r="D72">
-        <v>-0.6727333664894104</v>
+        <v>-0.6927908062934875</v>
       </c>
       <c r="E72">
-        <v>2.05755352973938</v>
+        <v>1.998969614505768</v>
       </c>
       <c r="F72">
-        <v>1.636333167552948</v>
+        <v>1.536045968532562</v>
       </c>
     </row>
     <row r="73">
@@ -2105,22 +2105,22 @@
         </is>
       </c>
       <c r="C73">
-        <v>-0.5767075419425964</v>
+        <v>-0.58742356300354</v>
       </c>
       <c r="D73">
-        <v>-0.1135165318846703</v>
+        <v>-0.09761606156826019</v>
       </c>
       <c r="E73">
-        <v>2.116462290287018</v>
+        <v>2.0628821849823</v>
       </c>
       <c r="F73">
-        <v>4.432417340576649</v>
+        <v>4.511919692158699</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Amaya Paulina Alvez Marin</t>
+          <t>Giovanna Angela Roa Cadin</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2129,22 +2129,22 @@
         </is>
       </c>
       <c r="C74">
-        <v>-0.5719886422157288</v>
+        <v>-0.5845893621444702</v>
       </c>
       <c r="D74">
-        <v>-0.7800732254981995</v>
+        <v>-0.8113293051719666</v>
       </c>
       <c r="E74">
-        <v>2.140056788921356</v>
+        <v>2.077053189277649</v>
       </c>
       <c r="F74">
-        <v>1.099633872509003</v>
+        <v>0.9433534741401672</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Tatiana Karina Urrutia Herrera</t>
+          <t>Amaya Paulina Alvez Marin</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2153,46 +2153,46 @@
         </is>
       </c>
       <c r="C75">
-        <v>-0.5704298615455627</v>
+        <v>-0.5778323411941528</v>
       </c>
       <c r="D75">
-        <v>-0.8213464021682739</v>
+        <v>-0.7767731547355652</v>
       </c>
       <c r="E75">
-        <v>2.147850692272186</v>
+        <v>2.110838294029236</v>
       </c>
       <c r="F75">
-        <v>0.8932679891586304</v>
+        <v>1.116134226322174</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ignacio Jaime Achurra Diaz</t>
+          <t>Ramona Reyes Painequeo</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C76">
-        <v>-0.5677099823951721</v>
+        <v>-0.5618595480918884</v>
       </c>
       <c r="D76">
-        <v>-0.8232285976409912</v>
+        <v>-0.3840115070343018</v>
       </c>
       <c r="E76">
-        <v>2.161450088024139</v>
+        <v>2.190702259540558</v>
       </c>
       <c r="F76">
-        <v>0.8838570117950439</v>
+        <v>3.079942464828491</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Daniel Rodrigo Stingo Camus</t>
+          <t>Tatiana Karina Urrutia Herrera</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2201,46 +2201,46 @@
         </is>
       </c>
       <c r="C77">
-        <v>-0.5514761209487915</v>
+        <v>-0.5606642365455627</v>
       </c>
       <c r="D77">
-        <v>-0.8341905474662781</v>
+        <v>-0.8280432224273682</v>
       </c>
       <c r="E77">
-        <v>2.242619395256042</v>
+        <v>2.196678817272186</v>
       </c>
       <c r="F77">
-        <v>0.8290472626686096</v>
+        <v>0.8597838878631592</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ramona Reyes Painequeo</t>
+          <t>Ignacio Jaime Achurra Diaz</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C78">
-        <v>-0.5513091087341309</v>
+        <v>-0.5538631081581116</v>
       </c>
       <c r="D78">
-        <v>-0.4293957650661469</v>
+        <v>-0.8326077461242676</v>
       </c>
       <c r="E78">
-        <v>2.243454456329346</v>
+        <v>2.230684459209442</v>
       </c>
       <c r="F78">
-        <v>2.853021174669266</v>
+        <v>0.8369612693786621</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Giovanna Angela Roa Cadin</t>
+          <t>Daniel Rodrigo Stingo Camus</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2249,16 +2249,16 @@
         </is>
       </c>
       <c r="C79">
-        <v>-0.5413713455200195</v>
+        <v>-0.5412833690643311</v>
       </c>
       <c r="D79">
-        <v>-0.8344560265541077</v>
+        <v>-0.8408403396606445</v>
       </c>
       <c r="E79">
-        <v>2.293143272399902</v>
+        <v>2.293583154678345</v>
       </c>
       <c r="F79">
-        <v>0.8277198672294617</v>
+        <v>0.7957983016967773</v>
       </c>
     </row>
     <row r="80">
@@ -2273,16 +2273,16 @@
         </is>
       </c>
       <c r="C80">
-        <v>-0.5238072276115417</v>
+        <v>-0.5378577709197998</v>
       </c>
       <c r="D80">
-        <v>-0.5620020031929016</v>
+        <v>-0.5202797055244446</v>
       </c>
       <c r="E80">
-        <v>2.380963861942291</v>
+        <v>2.310711145401001</v>
       </c>
       <c r="F80">
-        <v>2.189989984035492</v>
+        <v>2.398601472377777</v>
       </c>
     </row>
     <row r="81">
@@ -2297,46 +2297,46 @@
         </is>
       </c>
       <c r="C81">
-        <v>-0.5224257707595825</v>
+        <v>-0.5356272459030151</v>
       </c>
       <c r="D81">
-        <v>-0.504355251789093</v>
+        <v>-0.4592045545578003</v>
       </c>
       <c r="E81">
-        <v>2.387871146202087</v>
+        <v>2.321863770484924</v>
       </c>
       <c r="F81">
-        <v>2.478223741054535</v>
+        <v>2.703977227210999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Constanza Gabriela Schonhaut Soto</t>
+          <t>Paulina Valeria Valenzuela Rio</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C82">
-        <v>-0.5217995643615723</v>
+        <v>-0.5138423442840576</v>
       </c>
       <c r="D82">
-        <v>-0.8530681729316711</v>
+        <v>-0.2899925708770752</v>
       </c>
       <c r="E82">
-        <v>2.391002178192139</v>
+        <v>2.430788278579712</v>
       </c>
       <c r="F82">
-        <v>0.7346591353416443</v>
+        <v>3.550037145614624</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Beatriz De Jesus Sanchez Muñoz</t>
+          <t>Constanza Gabriela Schonhaut Soto</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2345,16 +2345,16 @@
         </is>
       </c>
       <c r="C83">
-        <v>-0.5216416120529175</v>
+        <v>-0.512957751750946</v>
       </c>
       <c r="D83">
-        <v>-0.8531646728515625</v>
+        <v>-0.8584139347076416</v>
       </c>
       <c r="E83">
-        <v>2.391791939735413</v>
+        <v>2.43521124124527</v>
       </c>
       <c r="F83">
-        <v>0.7341766357421875</v>
+        <v>0.707930326461792</v>
       </c>
     </row>
     <row r="84">
@@ -2369,22 +2369,22 @@
         </is>
       </c>
       <c r="C84">
-        <v>-0.5005342960357666</v>
+        <v>-0.5096759796142578</v>
       </c>
       <c r="D84">
-        <v>-0.6810897588729858</v>
+        <v>-0.6376132369041443</v>
       </c>
       <c r="E84">
-        <v>2.497328519821167</v>
+        <v>2.451620101928711</v>
       </c>
       <c r="F84">
-        <v>1.594551205635071</v>
+        <v>1.811933815479279</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Maria Jose Oyarzun Solis</t>
+          <t>Beatriz De Jesus Sanchez Muñoz</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2393,40 +2393,40 @@
         </is>
       </c>
       <c r="C85">
-        <v>-0.4985295832157135</v>
+        <v>-0.5055331587791443</v>
       </c>
       <c r="D85">
-        <v>-0.8668726682662964</v>
+        <v>-0.8628072738647461</v>
       </c>
       <c r="E85">
-        <v>2.507352083921432</v>
+        <v>2.472334206104279</v>
       </c>
       <c r="F85">
-        <v>0.6656366586685181</v>
+        <v>0.6859636306762695</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Paulina Valeria Valenzuela Rio</t>
+          <t>Jaime Andres Bassa Mercado</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C86">
-        <v>-0.4944640696048737</v>
+        <v>-0.5030960440635681</v>
       </c>
       <c r="D86">
-        <v>-0.3317874372005463</v>
+        <v>-0.8642305731773376</v>
       </c>
       <c r="E86">
-        <v>2.527679651975632</v>
+        <v>2.484519779682159</v>
       </c>
       <c r="F86">
-        <v>3.341062813997269</v>
+        <v>0.6788471341133118</v>
       </c>
     </row>
     <row r="87">
@@ -2441,22 +2441,22 @@
         </is>
       </c>
       <c r="C87">
-        <v>-0.493924617767334</v>
+        <v>-0.5015980005264282</v>
       </c>
       <c r="D87">
-        <v>-0.8695047497749329</v>
+        <v>-0.8651008009910583</v>
       </c>
       <c r="E87">
-        <v>2.53037691116333</v>
+        <v>2.492009997367859</v>
       </c>
       <c r="F87">
-        <v>0.6524762511253357</v>
+        <v>0.6744959950447083</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Christian Viera Alvarez</t>
+          <t>Maria Jose Oyarzun Solis</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2465,16 +2465,16 @@
         </is>
       </c>
       <c r="C88">
-        <v>-0.4827857315540314</v>
+        <v>-0.4986222386360168</v>
       </c>
       <c r="D88">
-        <v>-0.8757385611534119</v>
+        <v>-0.8668193817138672</v>
       </c>
       <c r="E88">
-        <v>2.586071342229843</v>
+        <v>2.506888806819916</v>
       </c>
       <c r="F88">
-        <v>0.6213071942329407</v>
+        <v>0.6659030914306641</v>
       </c>
     </row>
     <row r="89">
@@ -2489,118 +2489,118 @@
         </is>
       </c>
       <c r="C89">
-        <v>-0.4779511988162994</v>
+        <v>-0.4852802157402039</v>
       </c>
       <c r="D89">
-        <v>-0.6413930058479309</v>
+        <v>-0.6113476157188416</v>
       </c>
       <c r="E89">
-        <v>2.610244005918503</v>
+        <v>2.573598921298981</v>
       </c>
       <c r="F89">
-        <v>1.793034970760345</v>
+        <v>1.943261921405792</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Jaime Andres Bassa Mercado</t>
+          <t>Jorge Bruno Abarca Riveros</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C90">
-        <v>-0.4735429883003235</v>
+        <v>-0.4845090508460999</v>
       </c>
       <c r="D90">
-        <v>-0.8552802801132202</v>
+        <v>-0.1314302682876587</v>
       </c>
       <c r="E90">
-        <v>2.632285058498383</v>
+        <v>2.577454745769501</v>
       </c>
       <c r="F90">
-        <v>0.7235985994338989</v>
+        <v>4.342848658561707</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Jorge Bruno Abarca Riveros</t>
+          <t>Julio Alvarez Pinto</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C91">
-        <v>-0.4661078453063965</v>
+        <v>-0.4635409414768219</v>
       </c>
       <c r="D91">
-        <v>-0.1572596281766891</v>
+        <v>-0.5727633833885193</v>
       </c>
       <c r="E91">
-        <v>2.669460773468018</v>
+        <v>2.682295292615891</v>
       </c>
       <c r="F91">
-        <v>4.213701859116554</v>
+        <v>2.136183083057404</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Julio Alvarez Pinto</t>
+          <t>Christian Viera Alvarez</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C92">
-        <v>-0.4584875106811523</v>
+        <v>-0.4601168930530548</v>
       </c>
       <c r="D92">
-        <v>-0.5998428463935852</v>
+        <v>-0.8878582715988159</v>
       </c>
       <c r="E92">
-        <v>2.707562446594238</v>
+        <v>2.699415534734726</v>
       </c>
       <c r="F92">
-        <v>2.000785768032074</v>
+        <v>0.5607086420059204</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Matias Orellana Cuellar</t>
+          <t>Gaspar Roberto Dominguez Donoso</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C93">
-        <v>-0.433978796005249</v>
+        <v>-0.4480455815792084</v>
       </c>
       <c r="D93">
-        <v>-0.8703278303146362</v>
+        <v>-0.1804002225399017</v>
       </c>
       <c r="E93">
-        <v>2.830106019973755</v>
+        <v>2.759772092103958</v>
       </c>
       <c r="F93">
-        <v>0.6483608484268188</v>
+        <v>4.097998887300491</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Gaspar Roberto Dominguez Donoso</t>
+          <t>Mauricio Daza Carrasco</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2609,46 +2609,46 @@
         </is>
       </c>
       <c r="C94">
-        <v>-0.4305524528026581</v>
+        <v>-0.4425723552703857</v>
       </c>
       <c r="D94">
-        <v>-0.2199694812297821</v>
+        <v>-0.2163032591342926</v>
       </c>
       <c r="E94">
-        <v>2.84723773598671</v>
+        <v>2.787138223648071</v>
       </c>
       <c r="F94">
-        <v>3.900152593851089</v>
+        <v>3.918483704328537</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Guillermo Nicolas Namor Kong</t>
+          <t>Matias Orellana Cuellar</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C95">
-        <v>-0.4240657687187195</v>
+        <v>-0.4414035081863403</v>
       </c>
       <c r="D95">
-        <v>-0.406152218580246</v>
+        <v>-0.8322131633758545</v>
       </c>
       <c r="E95">
-        <v>2.879671156406403</v>
+        <v>2.792982459068298</v>
       </c>
       <c r="F95">
-        <v>2.96923890709877</v>
+        <v>0.8389341831207275</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mauricio Daza Carrasco</t>
+          <t>Guillermo Nicolas Namor Kong</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2657,16 +2657,16 @@
         </is>
       </c>
       <c r="C96">
-        <v>-0.4234734177589417</v>
+        <v>-0.432950884103775</v>
       </c>
       <c r="D96">
-        <v>-0.2698805034160614</v>
+        <v>-0.3600873351097107</v>
       </c>
       <c r="E96">
-        <v>2.882632911205292</v>
+        <v>2.835245579481125</v>
       </c>
       <c r="F96">
-        <v>3.650597482919693</v>
+        <v>3.199563324451447</v>
       </c>
     </row>
     <row r="97">
@@ -2681,64 +2681,64 @@
         </is>
       </c>
       <c r="C97">
-        <v>-0.4234045445919037</v>
+        <v>-0.4294673502445221</v>
       </c>
       <c r="D97">
-        <v>0.4510630369186401</v>
+        <v>0.4209834039211273</v>
       </c>
       <c r="E97">
-        <v>2.882977277040482</v>
+        <v>2.85266324877739</v>
       </c>
       <c r="F97">
-        <v>7.255315184593201</v>
+        <v>7.104917019605637</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Maria Trinidad Castillo Boilet</t>
+          <t>Carolina Andrea Sepulveda Sepulveda</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C98">
-        <v>-0.4076195359230042</v>
+        <v>-0.4250368475914001</v>
       </c>
       <c r="D98">
-        <v>-0.8153038620948792</v>
+        <v>-0.1176418215036392</v>
       </c>
       <c r="E98">
-        <v>2.961902320384979</v>
+        <v>2.874815762042999</v>
       </c>
       <c r="F98">
-        <v>0.9234806895256042</v>
+        <v>4.411790892481804</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Carolina Andrea Sepulveda Sepulveda</t>
+          <t>Maria Trinidad Castillo Boilet</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C99">
-        <v>-0.4050827026367188</v>
+        <v>-0.4146886467933655</v>
       </c>
       <c r="D99">
-        <v>-0.1458565294742584</v>
+        <v>-0.7771655321121216</v>
       </c>
       <c r="E99">
-        <v>2.974586486816406</v>
+        <v>2.926556766033173</v>
       </c>
       <c r="F99">
-        <v>4.270717352628708</v>
+        <v>1.114172339439392</v>
       </c>
     </row>
     <row r="100">
@@ -2753,16 +2753,16 @@
         </is>
       </c>
       <c r="C100">
-        <v>-0.3968627750873566</v>
+        <v>-0.4115025997161865</v>
       </c>
       <c r="D100">
-        <v>-0.3199985027313232</v>
+        <v>-0.2687199115753174</v>
       </c>
       <c r="E100">
-        <v>3.015686124563217</v>
+        <v>2.942487001419067</v>
       </c>
       <c r="F100">
-        <v>3.400007486343384</v>
+        <v>3.656400442123413</v>
       </c>
     </row>
     <row r="101">
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="C101">
-        <v>-0.3909150660037994</v>
+        <v>-0.4055094718933105</v>
       </c>
       <c r="D101">
-        <v>-0.3984392285346985</v>
+        <v>-0.3747110068798065</v>
       </c>
       <c r="E101">
-        <v>3.045424669981003</v>
+        <v>2.972452640533447</v>
       </c>
       <c r="F101">
-        <v>3.007803857326508</v>
+        <v>3.126444965600967</v>
       </c>
     </row>
     <row r="102">
@@ -2801,64 +2801,64 @@
         </is>
       </c>
       <c r="C102">
-        <v>-0.3462093472480774</v>
+        <v>-0.3587537705898285</v>
       </c>
       <c r="D102">
-        <v>-0.938157320022583</v>
+        <v>-0.8993002772331238</v>
       </c>
       <c r="E102">
-        <v>3.268953263759613</v>
+        <v>3.206231147050858</v>
       </c>
       <c r="F102">
-        <v>0.309213399887085</v>
+        <v>0.5034986138343811</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Cesar Valenzuela Maass</t>
+          <t>Patricia Politzer Kerekes</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Colectivo Socialista</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C103">
-        <v>-0.3439826667308807</v>
+        <v>-0.357291966676712</v>
       </c>
       <c r="D103">
-        <v>-0.9355399012565613</v>
+        <v>-0.308757871389389</v>
       </c>
       <c r="E103">
-        <v>3.280086666345596</v>
+        <v>3.21354016661644</v>
       </c>
       <c r="F103">
-        <v>0.3223004937171936</v>
+        <v>3.456210643053055</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Patricia Politzer Kerekes</t>
+          <t>Cesar Valenzuela Maass</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Colectivo Socialista</t>
         </is>
       </c>
       <c r="C104">
-        <v>-0.34080770611763</v>
+        <v>-0.3459225594997406</v>
       </c>
       <c r="D104">
-        <v>-0.3430973887443542</v>
+        <v>-0.8889819383621216</v>
       </c>
       <c r="E104">
-        <v>3.29596146941185</v>
+        <v>3.270387202501297</v>
       </c>
       <c r="F104">
-        <v>3.284513056278229</v>
+        <v>0.5550903081893921</v>
       </c>
     </row>
     <row r="105">
@@ -2873,64 +2873,64 @@
         </is>
       </c>
       <c r="C105">
-        <v>-0.3335755169391632</v>
+        <v>-0.337099015712738</v>
       </c>
       <c r="D105">
-        <v>-0.9320187568664551</v>
+        <v>-0.8424780368804932</v>
       </c>
       <c r="E105">
-        <v>3.332122415304184</v>
+        <v>3.31450492143631</v>
       </c>
       <c r="F105">
-        <v>0.3399062156677246</v>
+        <v>0.7876098155975342</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Fernando Atria Lemaitre</t>
+          <t>Tammy Solange Pustilnick Arditi</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Frente Amplio +</t>
+          <t>No Neutrales</t>
         </is>
       </c>
       <c r="C106">
-        <v>-0.3291879296302795</v>
+        <v>-0.3356877565383911</v>
       </c>
       <c r="D106">
-        <v>-0.9442643523216248</v>
+        <v>-0.4561625719070435</v>
       </c>
       <c r="E106">
-        <v>3.354060351848602</v>
+        <v>3.321561217308044</v>
       </c>
       <c r="F106">
-        <v>0.2786782383918762</v>
+        <v>2.719187140464783</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Tammy Solange Pustilnick Arditi</t>
+          <t>Fernando Atria Lemaitre</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>No Neutrales</t>
+          <t>Frente Amplio +</t>
         </is>
       </c>
       <c r="C107">
-        <v>-0.3270830512046814</v>
+        <v>-0.3290472030639648</v>
       </c>
       <c r="D107">
-        <v>-0.4786522388458252</v>
+        <v>-0.9443134665489197</v>
       </c>
       <c r="E107">
-        <v>3.364584743976593</v>
+        <v>3.354763984680176</v>
       </c>
       <c r="F107">
-        <v>2.606738805770874</v>
+        <v>0.2784326672554016</v>
       </c>
     </row>
     <row r="108">
@@ -2945,22 +2945,22 @@
         </is>
       </c>
       <c r="C108">
-        <v>-0.3117650151252747</v>
+        <v>-0.3255998492240906</v>
       </c>
       <c r="D108">
-        <v>-0.02807693928480148</v>
+        <v>-0.01658600941300392</v>
       </c>
       <c r="E108">
-        <v>3.441174924373627</v>
+        <v>3.372000753879547</v>
       </c>
       <c r="F108">
-        <v>4.859615303575993</v>
+        <v>4.91706995293498</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Patricio Fernandez Chadwick</t>
+          <t>Ricardo Montero Allende</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2969,22 +2969,22 @@
         </is>
       </c>
       <c r="C109">
-        <v>-0.3115237653255463</v>
+        <v>-0.3238151073455811</v>
       </c>
       <c r="D109">
-        <v>-0.6694729924201965</v>
+        <v>-0.9461205005645752</v>
       </c>
       <c r="E109">
-        <v>3.442381173372269</v>
+        <v>3.380924463272095</v>
       </c>
       <c r="F109">
-        <v>1.652635037899017</v>
+        <v>0.269397497177124</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ricardo Montero Allende</t>
+          <t>Patricio Fernandez Chadwick</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2993,16 +2993,16 @@
         </is>
       </c>
       <c r="C110">
-        <v>-0.2968514859676361</v>
+        <v>-0.3163202106952667</v>
       </c>
       <c r="D110">
-        <v>-0.954923689365387</v>
+        <v>-0.622671902179718</v>
       </c>
       <c r="E110">
-        <v>3.515742570161819</v>
+        <v>3.418398946523666</v>
       </c>
       <c r="F110">
-        <v>0.2253815531730652</v>
+        <v>1.88664048910141</v>
       </c>
     </row>
     <row r="111">
@@ -3017,16 +3017,16 @@
         </is>
       </c>
       <c r="C111">
-        <v>-0.2765800654888153</v>
+        <v>-0.2751217782497406</v>
       </c>
       <c r="D111">
-        <v>-0.9609909057617188</v>
+        <v>-0.9614093899726868</v>
       </c>
       <c r="E111">
-        <v>3.617099672555923</v>
+        <v>3.624391108751297</v>
       </c>
       <c r="F111">
-        <v>0.1950454711914062</v>
+        <v>0.1929530501365662</v>
       </c>
     </row>
     <row r="112">
@@ -3041,16 +3041,16 @@
         </is>
       </c>
       <c r="C112">
-        <v>-0.2412320524454117</v>
+        <v>-0.2505960166454315</v>
       </c>
       <c r="D112">
-        <v>-0.7876830101013184</v>
+        <v>-0.736112654209137</v>
       </c>
       <c r="E112">
-        <v>3.793839737772942</v>
+        <v>3.747019916772842</v>
       </c>
       <c r="F112">
-        <v>1.061584949493408</v>
+        <v>1.319436728954315</v>
       </c>
     </row>
     <row r="113">
@@ -3065,16 +3065,16 @@
         </is>
       </c>
       <c r="C113">
-        <v>-0.1597792059183121</v>
+        <v>-0.1640393137931824</v>
       </c>
       <c r="D113">
-        <v>0.1139295101165771</v>
+        <v>0.108268640935421</v>
       </c>
       <c r="E113">
-        <v>4.20110397040844</v>
+        <v>4.179803431034088</v>
       </c>
       <c r="F113">
-        <v>5.569647550582886</v>
+        <v>5.541343204677105</v>
       </c>
     </row>
     <row r="114">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="C114">
-        <v>-0.1494012475013733</v>
+        <v>-0.1517313420772552</v>
       </c>
       <c r="D114">
-        <v>-0.1577060222625732</v>
+        <v>-0.1779572516679764</v>
       </c>
       <c r="E114">
-        <v>4.252993762493134</v>
+        <v>4.241343289613724</v>
       </c>
       <c r="F114">
-        <v>4.211469888687134</v>
+        <v>4.110213741660118</v>
       </c>
     </row>
     <row r="115">
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="C115">
-        <v>-0.1230613142251968</v>
+        <v>-0.1325661838054657</v>
       </c>
       <c r="D115">
-        <v>0.03000438585877419</v>
+        <v>0.02961238101124763</v>
       </c>
       <c r="E115">
-        <v>4.384693428874016</v>
+        <v>4.337169080972672</v>
       </c>
       <c r="F115">
-        <v>5.150021929293871</v>
+        <v>5.148061905056238</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Fuad Chahin Valenzuela</t>
+          <t>Agustin Squella Narducci</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3137,22 +3137,22 @@
         </is>
       </c>
       <c r="C116">
-        <v>-0.1064994931221008</v>
+        <v>-0.1186030730605125</v>
       </c>
       <c r="D116">
-        <v>0.0720989927649498</v>
+        <v>-0.1696978211402893</v>
       </c>
       <c r="E116">
-        <v>4.467502534389496</v>
+        <v>4.406984634697437</v>
       </c>
       <c r="F116">
-        <v>5.360494963824749</v>
+        <v>4.151510894298553</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Agustin Squella Narducci</t>
+          <t>Fuad Chahin Valenzuela</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3161,16 +3161,16 @@
         </is>
       </c>
       <c r="C117">
-        <v>-0.1059644147753716</v>
+        <v>-0.1097881197929382</v>
       </c>
       <c r="D117">
-        <v>-0.1832424104213715</v>
+        <v>0.06793810427188873</v>
       </c>
       <c r="E117">
-        <v>4.470177926123142</v>
+        <v>4.451059401035309</v>
       </c>
       <c r="F117">
-        <v>4.083787947893143</v>
+        <v>5.339690521359444</v>
       </c>
     </row>
     <row r="118">
@@ -3185,16 +3185,16 @@
         </is>
       </c>
       <c r="C118">
-        <v>-0.06283530592918396</v>
+        <v>-0.09299465268850327</v>
       </c>
       <c r="D118">
-        <v>0.3804220259189606</v>
+        <v>0.3765101730823517</v>
       </c>
       <c r="E118">
-        <v>4.68582347035408</v>
+        <v>4.535026736557484</v>
       </c>
       <c r="F118">
-        <v>6.902110129594803</v>
+        <v>6.882550865411758</v>
       </c>
     </row>
     <row r="119">
@@ -3209,16 +3209,16 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.00161109771579504</v>
+        <v>0.001239073346368968</v>
       </c>
       <c r="D119">
-        <v>-0.07827077805995941</v>
+        <v>-0.09849999099969864</v>
       </c>
       <c r="E119">
-        <v>5.008055488578975</v>
+        <v>5.006195366731845</v>
       </c>
       <c r="F119">
-        <v>4.608646109700203</v>
+        <v>4.507500045001507</v>
       </c>
     </row>
     <row r="120">
@@ -3233,16 +3233,16 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.1144040897488594</v>
+        <v>0.1115948632359505</v>
       </c>
       <c r="D120">
-        <v>0.2101452946662903</v>
+        <v>0.1918192952871323</v>
       </c>
       <c r="E120">
-        <v>5.572020448744297</v>
+        <v>5.557974316179752</v>
       </c>
       <c r="F120">
-        <v>6.050726473331451</v>
+        <v>5.959096476435661</v>
       </c>
     </row>
     <row r="121">
@@ -3257,16 +3257,16 @@
         </is>
       </c>
       <c r="C121">
-        <v>0.2843659520149231</v>
+        <v>0.2669143378734589</v>
       </c>
       <c r="D121">
-        <v>0.05049911886453629</v>
+        <v>0.09654082357883453</v>
       </c>
       <c r="E121">
-        <v>6.421829760074615</v>
+        <v>6.334571689367294</v>
       </c>
       <c r="F121">
-        <v>5.252495594322681</v>
+        <v>5.482704117894173</v>
       </c>
     </row>
     <row r="122">
@@ -3281,16 +3281,16 @@
         </is>
       </c>
       <c r="C122">
-        <v>0.3428907692432404</v>
+        <v>0.3338332176208496</v>
       </c>
       <c r="D122">
-        <v>-0.08795322477817535</v>
+        <v>-0.05478209629654884</v>
       </c>
       <c r="E122">
-        <v>6.714453846216202</v>
+        <v>6.669166088104248</v>
       </c>
       <c r="F122">
-        <v>4.560233876109123</v>
+        <v>4.726089518517256</v>
       </c>
     </row>
     <row r="123">
@@ -3305,16 +3305,16 @@
         </is>
       </c>
       <c r="C123">
-        <v>0.3489234745502472</v>
+        <v>0.3393184244632721</v>
       </c>
       <c r="D123">
-        <v>-0.03445926308631897</v>
+        <v>-0.008307453244924545</v>
       </c>
       <c r="E123">
-        <v>6.744617372751236</v>
+        <v>6.69659212231636</v>
       </c>
       <c r="F123">
-        <v>4.827703684568405</v>
+        <v>4.958462733775377</v>
       </c>
     </row>
     <row r="124">
@@ -3329,16 +3329,16 @@
         </is>
       </c>
       <c r="C124">
-        <v>0.3590704500675201</v>
+        <v>0.3475712835788727</v>
       </c>
       <c r="D124">
-        <v>-0.05267150700092316</v>
+        <v>-0.01752060279250145</v>
       </c>
       <c r="E124">
-        <v>6.795352250337601</v>
+        <v>6.737856417894363</v>
       </c>
       <c r="F124">
-        <v>4.736642464995384</v>
+        <v>4.912396986037493</v>
       </c>
     </row>
     <row r="125">
@@ -3353,16 +3353,16 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.3892899751663208</v>
+        <v>0.3853664100170135</v>
       </c>
       <c r="D125">
-        <v>0.07844239473342896</v>
+        <v>0.08631224930286407</v>
       </c>
       <c r="E125">
-        <v>6.946449875831604</v>
+        <v>6.926832050085068</v>
       </c>
       <c r="F125">
-        <v>5.392211973667145</v>
+        <v>5.43156124651432</v>
       </c>
     </row>
     <row r="126">
@@ -3377,16 +3377,16 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.4013223946094513</v>
+        <v>0.3984091281890869</v>
       </c>
       <c r="D126">
-        <v>-0.1473258584737778</v>
+        <v>-0.115173228085041</v>
       </c>
       <c r="E126">
-        <v>7.006611973047256</v>
+        <v>6.992045640945435</v>
       </c>
       <c r="F126">
-        <v>4.263370707631111</v>
+        <v>4.424133859574795</v>
       </c>
     </row>
     <row r="127">
@@ -3401,22 +3401,22 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.4162110686302185</v>
+        <v>0.4005499482154846</v>
       </c>
       <c r="D127">
-        <v>-0.05926768109202385</v>
+        <v>-0.0370950810611248</v>
       </c>
       <c r="E127">
-        <v>7.081055343151093</v>
+        <v>7.002749741077423</v>
       </c>
       <c r="F127">
-        <v>4.703661594539881</v>
+        <v>4.814524594694376</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Manuel Jose Ossandon Lira</t>
+          <t>Patricia Labra Besserer</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3425,22 +3425,22 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.4356938004493713</v>
+        <v>0.4234762489795685</v>
       </c>
       <c r="D128">
-        <v>-0.1612781137228012</v>
+        <v>-0.0144976731389761</v>
       </c>
       <c r="E128">
-        <v>7.178469002246857</v>
+        <v>7.117381244897842</v>
       </c>
       <c r="F128">
-        <v>4.193609431385994</v>
+        <v>4.92751163430512</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Patricia Labra Besserer</t>
+          <t>Manuel Jose Ossandon Lira</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3449,16 +3449,16 @@
         </is>
       </c>
       <c r="C129">
-        <v>0.4389667809009552</v>
+        <v>0.4256069958209991</v>
       </c>
       <c r="D129">
-        <v>-0.05247557908296585</v>
+        <v>-0.1233719065785408</v>
       </c>
       <c r="E129">
-        <v>7.194833904504776</v>
+        <v>7.128034979104996</v>
       </c>
       <c r="F129">
-        <v>4.737622104585171</v>
+        <v>4.383140467107296</v>
       </c>
     </row>
     <row r="130">
@@ -3473,22 +3473,22 @@
         </is>
       </c>
       <c r="C130">
-        <v>0.4515117406845093</v>
+        <v>0.4383588135242462</v>
       </c>
       <c r="D130">
-        <v>-0.200951874256134</v>
+        <v>-0.1641448438167572</v>
       </c>
       <c r="E130">
-        <v>7.257558703422546</v>
+        <v>7.191794067621231</v>
       </c>
       <c r="F130">
-        <v>3.99524062871933</v>
+        <v>4.179275780916214</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Bernardo Fontaine Talavera</t>
+          <t>Ruggero Cozzi Elzo</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3497,22 +3497,22 @@
         </is>
       </c>
       <c r="C131">
-        <v>0.4686188995838165</v>
+        <v>0.4504640996456146</v>
       </c>
       <c r="D131">
-        <v>0.07330882549285889</v>
+        <v>-0.1401866376399994</v>
       </c>
       <c r="E131">
-        <v>7.343094497919083</v>
+        <v>7.252320498228073</v>
       </c>
       <c r="F131">
-        <v>5.366544127464294</v>
+        <v>4.299066811800003</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ruggero Cozzi Elzo</t>
+          <t>Bernardo Fontaine Talavera</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3521,16 +3521,16 @@
         </is>
       </c>
       <c r="C132">
-        <v>0.4693894684314728</v>
+        <v>0.4574058055877686</v>
       </c>
       <c r="D132">
-        <v>-0.1736312061548233</v>
+        <v>0.08656995743513107</v>
       </c>
       <c r="E132">
-        <v>7.346947342157364</v>
+        <v>7.287029027938843</v>
       </c>
       <c r="F132">
-        <v>4.131843969225883</v>
+        <v>5.432849787175655</v>
       </c>
     </row>
     <row r="133">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="C133">
-        <v>0.4695636630058289</v>
+        <v>0.4587707221508026</v>
       </c>
       <c r="D133">
-        <v>-0.1290615648031235</v>
+        <v>-0.09684578329324722</v>
       </c>
       <c r="E133">
-        <v>7.347818315029144</v>
+        <v>7.293853610754013</v>
       </c>
       <c r="F133">
-        <v>4.354692175984383</v>
+        <v>4.515771083533764</v>
       </c>
     </row>
     <row r="134">
@@ -3569,16 +3569,16 @@
         </is>
       </c>
       <c r="C134">
-        <v>0.4986316859722137</v>
+        <v>0.4876995384693146</v>
       </c>
       <c r="D134">
-        <v>-0.02617546543478966</v>
+        <v>-0.02853025309741497</v>
       </c>
       <c r="E134">
-        <v>7.493158429861069</v>
+        <v>7.438497692346573</v>
       </c>
       <c r="F134">
-        <v>4.869122672826052</v>
+        <v>4.857348734512925</v>
       </c>
     </row>
     <row r="135">
@@ -3593,16 +3593,16 @@
         </is>
       </c>
       <c r="C135">
-        <v>0.4992677867412567</v>
+        <v>0.490938127040863</v>
       </c>
       <c r="D135">
-        <v>-0.0002175376721424982</v>
+        <v>0.01702373288571835</v>
       </c>
       <c r="E135">
-        <v>7.496338933706284</v>
+        <v>7.454690635204315</v>
       </c>
       <c r="F135">
-        <v>4.998912311639288</v>
+        <v>5.085118664428592</v>
       </c>
     </row>
     <row r="136">
@@ -3617,16 +3617,16 @@
         </is>
       </c>
       <c r="C136">
-        <v>0.7041895985603333</v>
+        <v>0.7023990154266357</v>
       </c>
       <c r="D136">
-        <v>0.5631651878356934</v>
+        <v>0.5307360887527466</v>
       </c>
       <c r="E136">
-        <v>8.520947992801666</v>
+        <v>8.511995077133179</v>
       </c>
       <c r="F136">
-        <v>7.815825939178467</v>
+        <v>7.653680443763733</v>
       </c>
     </row>
     <row r="137">
@@ -3641,70 +3641,70 @@
         </is>
       </c>
       <c r="C137">
-        <v>0.7083484530448914</v>
+        <v>0.7025328278541565</v>
       </c>
       <c r="D137">
-        <v>0.4234490096569061</v>
+        <v>0.4106943309307098</v>
       </c>
       <c r="E137">
-        <v>8.541742265224457</v>
+        <v>8.512664139270782</v>
       </c>
       <c r="F137">
-        <v>7.117245048284531</v>
+        <v>7.053471654653549</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Alfredo Moreno Echeverria</t>
+          <t>Eduardo Andres Cretton Rebolledo</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Un Chile Unido</t>
+          <t>Unidos Por Chile</t>
         </is>
       </c>
       <c r="C138">
-        <v>0.7091208100318909</v>
+        <v>0.7047402858734131</v>
       </c>
       <c r="D138">
-        <v>0.349780261516571</v>
+        <v>0.5666509866714478</v>
       </c>
       <c r="E138">
-        <v>8.545604050159454</v>
+        <v>8.523701429367065</v>
       </c>
       <c r="F138">
-        <v>6.748901307582855</v>
+        <v>7.833254933357239</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Eduardo Andres Cretton Rebolledo</t>
+          <t>Felipe Ignacio Mena Villar</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Unidos Por Chile</t>
+          <t>Un Chile Unido</t>
         </is>
       </c>
       <c r="C139">
-        <v>0.7150528430938721</v>
+        <v>0.7050767540931702</v>
       </c>
       <c r="D139">
-        <v>0.5943437218666077</v>
+        <v>0.3720711469650269</v>
       </c>
       <c r="E139">
-        <v>8.57526421546936</v>
+        <v>8.525383770465851</v>
       </c>
       <c r="F139">
-        <v>7.971718609333038</v>
+        <v>6.860355734825134</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Felipe Ignacio Mena Villar</t>
+          <t>Alfredo Moreno Echeverria</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3713,16 +3713,16 @@
         </is>
       </c>
       <c r="C140">
-        <v>0.7190053462982178</v>
+        <v>0.7071924209594727</v>
       </c>
       <c r="D140">
-        <v>0.3807236552238464</v>
+        <v>0.3563423156738281</v>
       </c>
       <c r="E140">
-        <v>8.595026731491089</v>
+        <v>8.535962104797363</v>
       </c>
       <c r="F140">
-        <v>6.903618276119232</v>
+        <v>6.781711578369141</v>
       </c>
     </row>
     <row r="141">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="C141">
-        <v>0.7252454161643982</v>
+        <v>0.7081607580184937</v>
       </c>
       <c r="D141">
-        <v>0.4673767983913422</v>
+        <v>0.4532710313796997</v>
       </c>
       <c r="E141">
-        <v>8.626227080821991</v>
+        <v>8.540803790092468</v>
       </c>
       <c r="F141">
-        <v>7.336883991956711</v>
+        <v>7.266355156898499</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Maria Cecilia Ubilla Perez</t>
+          <t>Pollyana Rivera Bigas</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3761,22 +3761,22 @@
         </is>
       </c>
       <c r="C142">
-        <v>0.7315914034843445</v>
+        <v>0.7261775732040405</v>
       </c>
       <c r="D142">
-        <v>0.5258102416992188</v>
+        <v>0.5069494247436523</v>
       </c>
       <c r="E142">
-        <v>8.657957017421722</v>
+        <v>8.630887866020203</v>
       </c>
       <c r="F142">
-        <v>7.629051208496094</v>
+        <v>7.534747123718262</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pollyana Rivera Bigas</t>
+          <t>Maria Cecilia Ubilla Perez</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3785,16 +3785,16 @@
         </is>
       </c>
       <c r="C143">
-        <v>0.7318371534347534</v>
+        <v>0.7268844246864319</v>
       </c>
       <c r="D143">
-        <v>0.507140576839447</v>
+        <v>0.5061099529266357</v>
       </c>
       <c r="E143">
-        <v>8.659185767173767</v>
+        <v>8.634422123432159</v>
       </c>
       <c r="F143">
-        <v>7.535702884197235</v>
+        <v>7.530549764633179</v>
       </c>
     </row>
     <row r="144">
@@ -3809,16 +3809,16 @@
         </is>
       </c>
       <c r="C144">
-        <v>0.7390940189361572</v>
+        <v>0.7328636646270752</v>
       </c>
       <c r="D144">
-        <v>0.5263901352882385</v>
+        <v>0.5238301753997803</v>
       </c>
       <c r="E144">
-        <v>8.695470094680786</v>
+        <v>8.664318323135376</v>
       </c>
       <c r="F144">
-        <v>7.631950676441193</v>
+        <v>7.619150876998901</v>
       </c>
     </row>
     <row r="145">
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="C145">
-        <v>0.7486773133277893</v>
+        <v>0.7443748116493225</v>
       </c>
       <c r="D145">
-        <v>0.6629346013069153</v>
+        <v>0.6677621603012085</v>
       </c>
       <c r="E145">
-        <v>8.743386566638947</v>
+        <v>8.721874058246613</v>
       </c>
       <c r="F145">
-        <v>8.314673006534576</v>
+        <v>8.338810801506042</v>
       </c>
     </row>
     <row r="146">
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="C146">
-        <v>0.7592868208885193</v>
+        <v>0.7562601566314697</v>
       </c>
       <c r="D146">
-        <v>0.559650719165802</v>
+        <v>0.5312046408653259</v>
       </c>
       <c r="E146">
-        <v>8.796434104442596</v>
+        <v>8.781300783157349</v>
       </c>
       <c r="F146">
-        <v>7.79825359582901</v>
+        <v>7.65602320432663</v>
       </c>
     </row>
     <row r="147">
@@ -3881,16 +3881,16 @@
         </is>
       </c>
       <c r="C147">
-        <v>0.763242781162262</v>
+        <v>0.7586902379989624</v>
       </c>
       <c r="D147">
-        <v>0.5584916472434998</v>
+        <v>0.5426483154296875</v>
       </c>
       <c r="E147">
-        <v>8.81621390581131</v>
+        <v>8.793451189994812</v>
       </c>
       <c r="F147">
-        <v>7.792458236217499</v>
+        <v>7.713241577148438</v>
       </c>
     </row>
     <row r="148">
@@ -3905,16 +3905,16 @@
         </is>
       </c>
       <c r="C148">
-        <v>0.7825386524200439</v>
+        <v>0.7768982648849487</v>
       </c>
       <c r="D148">
-        <v>0.6226020455360413</v>
+        <v>0.6277743577957153</v>
       </c>
       <c r="E148">
-        <v>8.91269326210022</v>
+        <v>8.884491324424744</v>
       </c>
       <c r="F148">
-        <v>8.113010227680206</v>
+        <v>8.138871788978577</v>
       </c>
     </row>
     <row r="149">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="C149">
-        <v>0.7982019782066345</v>
+        <v>0.7947599291801453</v>
       </c>
       <c r="D149">
-        <v>0.3672947883605957</v>
+        <v>0.3691057562828064</v>
       </c>
       <c r="E149">
-        <v>8.991009891033173</v>
+        <v>8.973799645900726</v>
       </c>
       <c r="F149">
-        <v>6.836473941802979</v>
+        <v>6.845528781414032</v>
       </c>
     </row>
     <row r="150">
@@ -3953,16 +3953,16 @@
         </is>
       </c>
       <c r="C150">
-        <v>0.8309134244918823</v>
+        <v>0.8242590427398682</v>
       </c>
       <c r="D150">
-        <v>0.443514347076416</v>
+        <v>0.4211354553699493</v>
       </c>
       <c r="E150">
-        <v>9.154567122459412</v>
+        <v>9.121295213699341</v>
       </c>
       <c r="F150">
-        <v>7.21757173538208</v>
+        <v>7.105677276849747</v>
       </c>
     </row>
     <row r="151">
@@ -3977,22 +3977,22 @@
         </is>
       </c>
       <c r="C151">
-        <v>0.8321467041969299</v>
+        <v>0.829626202583313</v>
       </c>
       <c r="D151">
-        <v>0.5545554757118225</v>
+        <v>0.5583192706108093</v>
       </c>
       <c r="E151">
-        <v>9.16073352098465</v>
+        <v>9.148131012916565</v>
       </c>
       <c r="F151">
-        <v>7.772777378559113</v>
+        <v>7.791596353054047</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Martin Arrau Garcia-Huidobro</t>
+          <t>Ruth Hurtado Olave</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4001,22 +4001,22 @@
         </is>
       </c>
       <c r="C152">
-        <v>0.8364089131355286</v>
+        <v>0.8397629261016846</v>
       </c>
       <c r="D152">
-        <v>0.5481059551239014</v>
+        <v>0.4643482565879822</v>
       </c>
       <c r="E152">
-        <v>9.182044565677643</v>
+        <v>9.198814630508423</v>
       </c>
       <c r="F152">
-        <v>7.740529775619507</v>
+        <v>7.321741282939911</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Ruth Hurtado Olave</t>
+          <t>Martin Arrau Garcia-Huidobro</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4025,16 +4025,16 @@
         </is>
       </c>
       <c r="C153">
-        <v>0.8499889373779297</v>
+        <v>0.8414641618728638</v>
       </c>
       <c r="D153">
-        <v>0.464947372674942</v>
+        <v>0.5403129458427429</v>
       </c>
       <c r="E153">
-        <v>9.249944686889648</v>
+        <v>9.207320809364319</v>
       </c>
       <c r="F153">
-        <v>7.32473686337471</v>
+        <v>7.701564729213715</v>
       </c>
     </row>
     <row r="154">
@@ -4049,16 +4049,16 @@
         </is>
       </c>
       <c r="C154">
-        <v>0.8671568632125854</v>
+        <v>0.8725271224975586</v>
       </c>
       <c r="D154">
-        <v>0.4980350732803345</v>
+        <v>0.4885654747486115</v>
       </c>
       <c r="E154">
-        <v>9.335784316062927</v>
+        <v>9.362635612487793</v>
       </c>
       <c r="F154">
-        <v>7.490175366401672</v>
+        <v>7.442827373743057</v>
       </c>
     </row>
     <row r="155">
@@ -4073,16 +4073,16 @@
         </is>
       </c>
       <c r="C155">
-        <v>0.9014140367507935</v>
+        <v>0.8961287140846252</v>
       </c>
       <c r="D155">
-        <v>0.4329582154750824</v>
+        <v>0.443794310092926</v>
       </c>
       <c r="E155">
-        <v>9.507070183753967</v>
+        <v>9.480643570423126</v>
       </c>
       <c r="F155">
-        <v>7.164791077375412</v>
+        <v>7.21897155046463</v>
       </c>
     </row>
     <row r="156">
@@ -4097,16 +4097,16 @@
         </is>
       </c>
       <c r="C156">
-        <v>0.902003288269043</v>
+        <v>0.9120039939880371</v>
       </c>
       <c r="D156">
-        <v>0.431729257106781</v>
+        <v>0.4101813733577728</v>
       </c>
       <c r="E156">
-        <v>9.510016441345215</v>
+        <v>9.560019969940186</v>
       </c>
       <c r="F156">
-        <v>7.158646285533905</v>
+        <v>7.050906866788864</v>
       </c>
     </row>
   </sheetData>
